--- a/TESTE ATUALIZADO/Livro1.xlsx
+++ b/TESTE ATUALIZADO/Livro1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6FBDA9-85AD-4113-A2D8-43D7BF3BB514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBE0B9B-0710-49E8-BD70-14F9E07B03A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="2" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="2" r:id="rId1"/>
     <sheet name="Materials" sheetId="3" r:id="rId2"/>
-    <sheet name="Loading" sheetId="4" r:id="rId3"/>
+    <sheet name="Loading" sheetId="5" r:id="rId3"/>
     <sheet name="Input" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Points</t>
   </si>
@@ -81,21 +81,6 @@
   </si>
   <si>
     <t>Density [kg/m^3]</t>
-  </si>
-  <si>
-    <t>Elastic Modulus [GPa]</t>
-  </si>
-  <si>
-    <t>Tensile Yield Stress [MPa]</t>
-  </si>
-  <si>
-    <t>Tensile Strength [MPa]</t>
-  </si>
-  <si>
-    <t>Compressive Strength [MPa]</t>
-  </si>
-  <si>
-    <t>Shear Strength [MPa]</t>
   </si>
   <si>
     <t>Material Properties</t>
@@ -170,15 +155,6 @@
     <t>Estimated as 85% of the Tensile Strength</t>
   </si>
   <si>
-    <t>Element Dimension</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
     <t>AnalysisType</t>
   </si>
   <si>
@@ -193,6 +169,108 @@
   <si>
     <t>Ne_Total</t>
   </si>
+  <si>
+    <t>Elastic Modulus [Pa]</t>
+  </si>
+  <si>
+    <t>Tensile Yield Stress [Pa]</t>
+  </si>
+  <si>
+    <t>Tensile Strength [Pa]</t>
+  </si>
+  <si>
+    <t>Compressive Strength [Pa]</t>
+  </si>
+  <si>
+    <t>Shear Strength [Pa]</t>
+  </si>
+  <si>
+    <t>Material 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AISI-316 @ 1100ºC</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>Inicial Pressure</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>p = A</t>
+  </si>
+  <si>
+    <t>Constante</t>
+  </si>
+  <si>
+    <t>p = A * t</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>p = A * e **(B*t)</t>
+  </si>
+  <si>
+    <t>Exponencial</t>
+  </si>
+  <si>
+    <t>p = A * sin(w*t + b)</t>
+  </si>
+  <si>
+    <t>Sinusoidal</t>
+  </si>
+  <si>
+    <t>P_col [bar]</t>
+  </si>
+  <si>
+    <t>t_col</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Curve Definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Função </t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>READ</t>
+  </si>
+  <si>
+    <t>PressureCol</t>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +279,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,8 +334,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,8 +404,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -401,11 +529,282 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -456,9 +855,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,9 +870,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,9 +882,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,19 +915,164 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,10 +1099,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -591,8 +1126,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Loading</a:t>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Pressure Curve</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -628,17 +1166,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.6594925634295702E-2"/>
-          <c:y val="0.12541666666666668"/>
-          <c:w val="0.87651618547681542"/>
-          <c:h val="0.75234580052493438"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -648,7 +1176,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -659,7 +1189,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Loading!$C$2:$C$81</c:f>
+              <c:f>Loading!$O$2:$O$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
@@ -908,249 +1438,249 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Loading!$D$2:$D$81</c:f>
+              <c:f>Loading!$Q$2:$Q$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>0.51</c:v>
+                  <c:v>51000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.25</c:v>
+                  <c:v>125000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.91</c:v>
+                  <c:v>491000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.91</c:v>
+                  <c:v>1591000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.84</c:v>
+                  <c:v>1884000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.11</c:v>
+                  <c:v>1811000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.11</c:v>
+                  <c:v>1811000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.84</c:v>
+                  <c:v>1884000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.57</c:v>
+                  <c:v>1957000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.309999999999999</c:v>
+                  <c:v>2030999.9999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.04</c:v>
+                  <c:v>2104000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.77</c:v>
+                  <c:v>2177000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.24</c:v>
+                  <c:v>2324000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.24</c:v>
+                  <c:v>2324000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.71</c:v>
+                  <c:v>2471000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.71</c:v>
+                  <c:v>2471000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.44</c:v>
+                  <c:v>2544000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25.44</c:v>
+                  <c:v>2544000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.17</c:v>
+                  <c:v>2617000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.17</c:v>
+                  <c:v>2617000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26.17</c:v>
+                  <c:v>2617000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.17</c:v>
+                  <c:v>2617000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26.91</c:v>
+                  <c:v>2691000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26.91</c:v>
+                  <c:v>2691000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26.91</c:v>
+                  <c:v>2691000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.91</c:v>
+                  <c:v>2691000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.91</c:v>
+                  <c:v>2691000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>26.91</c:v>
+                  <c:v>2691000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26.91</c:v>
+                  <c:v>2691000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26.91</c:v>
+                  <c:v>2691000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>27.64</c:v>
+                  <c:v>2764000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>26.91</c:v>
+                  <c:v>2691000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>25.44</c:v>
+                  <c:v>2544000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>23.97</c:v>
+                  <c:v>2397000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>21.77</c:v>
+                  <c:v>2177000</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>18.84</c:v>
+                  <c:v>1884000</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>15.91</c:v>
+                  <c:v>1591000</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>14.44</c:v>
+                  <c:v>1444000</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>13.71</c:v>
+                  <c:v>1371000</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>13.71</c:v>
+                  <c:v>1371000</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>12.24</c:v>
+                  <c:v>1224000</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>11.51</c:v>
+                  <c:v>1151000</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.78</c:v>
+                  <c:v>1078000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10.039999999999999</c:v>
+                  <c:v>1003999.9999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9.31</c:v>
+                  <c:v>931000</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.58</c:v>
+                  <c:v>858000</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.11</c:v>
+                  <c:v>711000</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.65</c:v>
+                  <c:v>565000</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.18</c:v>
+                  <c:v>418000</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.71</c:v>
+                  <c:v>271000</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.98</c:v>
+                  <c:v>198000</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.51</c:v>
+                  <c:v>51000</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.51</c:v>
+                  <c:v>51000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1158,7 +1688,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-343B-4735-AF04-AFCEC4F136EF}"/>
+              <c16:uniqueId val="{00000000-D7D1-4205-886C-A605AD848D55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1170,11 +1700,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="839603312"/>
-        <c:axId val="574826240"/>
+        <c:axId val="41890671"/>
+        <c:axId val="518653535"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="839603312"/>
+        <c:axId val="41890671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,8 +1744,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>t [s]</a:t>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time [s]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1286,12 +1819,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574826240"/>
+        <c:crossAx val="518653535"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="574826240"/>
+        <c:axId val="518653535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,8 +1864,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>p1 [bar]</a:t>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Pressure [Pa]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1403,7 +1939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="839603312"/>
+        <c:crossAx val="41890671"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1524,40 +2060,43 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Input!$D$2:$D$8</c:f>
+              <c:f>Input!$D$2:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.4</c:v>
+                  <c:v>4.9399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.4</c:v>
+                  <c:v>4.9399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.170000000000002</c:v>
+                  <c:v>1.7170000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.239999999999998</c:v>
+                  <c:v>1.6239999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.85</c:v>
+                  <c:v>1.585E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.94</c:v>
+                  <c:v>1.5939999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3379999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Input!$C$2:$C$8</c:f>
+              <c:f>Input!$C$2:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1565,19 +2104,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>913.63</c:v>
+                  <c:v>0.91363000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>969.45</c:v>
+                  <c:v>0.96945000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>971.62</c:v>
+                  <c:v>0.97162000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>973.78</c:v>
+                  <c:v>0.97377999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>975.95</c:v>
+                  <c:v>0.9759500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.02522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1645,7 +2187,7 @@
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>r</a:t>
+                  <a:t>r [m]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1759,7 +2301,7 @@
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>z</a:t>
+                  <a:t>z [m]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1891,41 +2433,28 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -2993,27 +3522,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>588167</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7143</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>716755</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>21432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>626267</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>116680</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41A49AD-8E24-54CF-7E1D-D4A374A51399}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5CB193-3596-4E12-BFF2-0AD1993889FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3034,13 +3565,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>353523</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>125288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>227133</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
@@ -3058,8 +3589,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="43625196" y="856433"/>
-          <a:ext cx="5078822" cy="7395436"/>
+          <a:off x="42229985" y="856433"/>
+          <a:ext cx="5078821" cy="7395436"/>
           <a:chOff x="16846428" y="389059"/>
           <a:chExt cx="2086708" cy="2509107"/>
         </a:xfrm>
@@ -3268,13 +3799,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>241787</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>14653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>373671</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>139211</xdr:rowOff>
@@ -3331,13 +3862,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>254690</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>175847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>386574</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>117232</xdr:rowOff>
@@ -3394,13 +3925,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>527540</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>109904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>7327</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>51290</xdr:rowOff>
@@ -3457,13 +3988,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>293078</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>109904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>424962</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>51288</xdr:rowOff>
@@ -3520,13 +4051,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>219809</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>351693</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>161193</xdr:rowOff>
@@ -3583,13 +4114,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>395656</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>139212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>527540</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>80596</xdr:rowOff>
@@ -3646,13 +4177,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>298940</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>5863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>430824</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>130421</xdr:rowOff>
@@ -3709,13 +4240,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>367548</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>97526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>405648</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>25720</xdr:rowOff>
@@ -3763,13 +4294,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>508226</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>51288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>359020</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>157453</xdr:rowOff>
@@ -3816,13 +4347,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>320632</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>117232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>592760</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>51290</xdr:rowOff>
@@ -3869,13 +4400,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>273323</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>432289</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>80596</xdr:rowOff>
@@ -3965,13 +4496,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>261101</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>24104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>411510</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>32894</xdr:rowOff>
@@ -4018,16 +4549,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>959663</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>70073</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>107778</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>602296</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>155979</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>857189</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>109025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4376,12 +4907,12 @@
     </row>
     <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B5" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.45">
@@ -4396,22 +4927,22 @@
     </row>
     <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B8" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B9" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B10" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B11" s="15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.45">
@@ -4433,7 +4964,7 @@
     </row>
     <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B20" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.45">
@@ -4460,10 +4991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFFF1FA-C62B-4B59-8919-F5A7A9E45D64}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4471,37 +5002,42 @@
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.9296875" customWidth="1"/>
     <col min="3" max="3" width="31.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
-        <v>41</v>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="19">
+      <c r="C1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="18">
         <f>COUNTIF(D1:BE1, "&lt;&gt;")</f>
-        <v>4</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="12">
@@ -4510,32 +5046,39 @@
       <c r="E2" s="12">
         <v>2700</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="9">
+        <v>2700</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9">
         <v>2780</v>
       </c>
-      <c r="G2" s="1">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="C3" s="20" t="s">
-        <v>14</v>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C3" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="D3" s="12">
-        <v>68.900000000000006</v>
+        <f>68.9*10^9</f>
+        <v>68900000000</v>
       </c>
       <c r="E3" s="12">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="F3" s="1">
+        <f>68.9*10^9</f>
+        <v>68900000000</v>
+      </c>
+      <c r="F3" s="9">
+        <f>68.9*10^9</f>
+        <v>68900000000</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9">
         <v>73.099999999999994</v>
       </c>
-      <c r="G3" s="9">
-        <v>68.900000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="C4" s="20" t="s">
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="12">
@@ -4544,111 +5087,231 @@
       <c r="E4" s="12">
         <v>0.33</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="9">
         <v>0.33</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="20" t="s">
-        <v>15</v>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="D5" s="12">
-        <v>19</v>
+        <f>19*10^6</f>
+        <v>19000000</v>
       </c>
       <c r="E5" s="12">
+        <f>34*10^6</f>
+        <v>34000000</v>
+      </c>
+      <c r="F5" s="9">
+        <f>103 *10^6</f>
+        <v>103000000</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9">
+        <v>62</v>
+      </c>
+      <c r="I5" s="40"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="12">
+        <f>32*10^6</f>
+        <v>32000000</v>
+      </c>
+      <c r="E6" s="12">
+        <f>51*10^6</f>
+        <v>51000000</v>
+      </c>
+      <c r="F6" s="9">
+        <f>131*10^6</f>
+        <v>131000000</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9">
+        <v>76</v>
+      </c>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="22">
+        <f>27*10^6</f>
+        <v>27000000</v>
+      </c>
+      <c r="E7" s="22">
+        <f>43*10^6</f>
+        <v>43000000</v>
+      </c>
+      <c r="F7" s="41">
+        <f>110*10^6</f>
+        <v>110000000</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
+        <v>65</v>
+      </c>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="12">
+        <f>207*10^6</f>
+        <v>207000000</v>
+      </c>
+      <c r="E8" s="12">
+        <f>207*10^6</f>
+        <v>207000000</v>
+      </c>
+      <c r="F8" s="12">
+        <f>207*10^6</f>
+        <v>207000000</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="9">
+        <v>283</v>
+      </c>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C9" s="40"/>
+      <c r="D9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="1">
-        <v>62</v>
-      </c>
-      <c r="G5" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="C6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="12">
-        <v>32</v>
-      </c>
-      <c r="E6" s="12">
-        <v>51</v>
-      </c>
-      <c r="F6" s="1">
-        <v>76</v>
-      </c>
-      <c r="G6" s="1">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="C7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="23">
-        <v>27</v>
-      </c>
-      <c r="E7" s="23">
-        <v>43</v>
-      </c>
-      <c r="F7" s="24">
-        <v>65</v>
-      </c>
-      <c r="G7" s="24">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="C8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="12">
-        <v>207</v>
-      </c>
-      <c r="E8" s="12">
-        <v>207</v>
-      </c>
-      <c r="F8" s="1">
-        <v>283</v>
-      </c>
-      <c r="G8" s="12">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="83" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E12" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+    </row>
+    <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+    </row>
+    <row r="18" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+    </row>
+    <row r="20" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+    </row>
+    <row r="21" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4660,925 +5323,1870 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC94FB2-B591-4728-AF0F-84260587B016}">
-  <dimension ref="A1:E82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BBD36B-8DEB-4362-8948-9CFC06A35BB2}">
+  <dimension ref="A1:AD81"/>
   <sheetViews>
-    <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" customWidth="1"/>
+    <col min="7" max="8" width="10.73046875" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" customWidth="1"/>
+    <col min="10" max="10" width="10.73046875" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="1.73046875" style="89" customWidth="1"/>
+    <col min="13" max="13" width="7.19921875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.9296875" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
+    <col min="21" max="21" width="22.1328125" customWidth="1"/>
+    <col min="22" max="22" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="44">
-        <f>COUNTIF(C2:C315, "&lt;&gt;")</f>
+    <row r="1" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="M1" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="82" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="M2" s="1">
+        <f>COUNTA(O2:O697)</f>
         <v>80</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="1">
+      <c r="O2" s="79">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="P2" s="80">
         <v>0.51</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1">
+      <c r="Q2" s="81">
+        <f t="shared" ref="Q2:Q33" si="0">P2*10^5</f>
+        <v>51000</v>
+      </c>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+    </row>
+    <row r="3" spans="1:30" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="91"/>
+      <c r="E3" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="47">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="P3" s="1">
         <v>1.25</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1">
+      <c r="Q3" s="46">
+        <f t="shared" si="0"/>
+        <v>125000</v>
+      </c>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B4" s="5"/>
+      <c r="C4" s="47">
+        <v>1</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="73">
+        <v>25</v>
+      </c>
+      <c r="G4" s="72"/>
+      <c r="H4" s="38">
+        <v>5</v>
+      </c>
+      <c r="I4" s="71">
+        <v>1</v>
+      </c>
+      <c r="J4" s="70"/>
+      <c r="K4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="47">
         <v>0.129</v>
       </c>
-      <c r="D4" s="1">
+      <c r="P4" s="1">
         <v>4.91</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1">
+      <c r="Q4" s="46">
+        <f t="shared" si="0"/>
+        <v>491000</v>
+      </c>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="47">
+        <v>2</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="69">
+        <v>1</v>
+      </c>
+      <c r="G5" s="36">
+        <v>1</v>
+      </c>
+      <c r="H5" s="68"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="66">
+        <v>5</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="47">
         <v>0.192</v>
       </c>
-      <c r="D5" s="1">
+      <c r="P5" s="1">
         <v>15.91</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1">
+      <c r="Q5" s="46">
+        <f t="shared" si="0"/>
+        <v>1591000</v>
+      </c>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+    </row>
+    <row r="6" spans="1:30" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="47">
+        <v>3</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="65">
+        <v>-200</v>
+      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="47">
         <v>0.25700000000000001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="P6" s="1">
         <v>18.84</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1">
+      <c r="Q6" s="46">
+        <f t="shared" si="0"/>
+        <v>1884000</v>
+      </c>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="48"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="45">
+        <v>4</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="47">
         <v>0.32100000000000001</v>
       </c>
-      <c r="D7" s="1">
+      <c r="P7" s="1">
         <v>18.11</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1">
+      <c r="Q7" s="46">
+        <f t="shared" si="0"/>
+        <v>1811000</v>
+      </c>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="47">
         <v>0.38600000000000001</v>
       </c>
-      <c r="D8" s="1">
+      <c r="P8" s="1">
         <v>18.11</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1">
+      <c r="Q8" s="46">
+        <f t="shared" si="0"/>
+        <v>1811000</v>
+      </c>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="47">
         <v>0.44900000000000001</v>
       </c>
-      <c r="D9" s="1">
+      <c r="P9" s="1">
         <v>18.84</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1">
+      <c r="Q9" s="46">
+        <f t="shared" si="0"/>
+        <v>1884000</v>
+      </c>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="47">
         <v>0.51400000000000001</v>
       </c>
-      <c r="D10" s="1">
+      <c r="P10" s="1">
         <v>19.57</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1">
+      <c r="Q10" s="46">
+        <f t="shared" si="0"/>
+        <v>1957000</v>
+      </c>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="88"/>
+      <c r="E11" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="47">
         <v>0.57800000000000007</v>
       </c>
-      <c r="D11" s="1">
+      <c r="P11" s="1">
         <v>20.309999999999999</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1">
+      <c r="Q11" s="46">
+        <f t="shared" si="0"/>
+        <v>2030999.9999999998</v>
+      </c>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+    </row>
+    <row r="12" spans="1:30" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="47">
         <v>0.64300000000000002</v>
       </c>
-      <c r="D12" s="1">
+      <c r="P12" s="1">
         <v>21.04</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1">
+      <c r="Q12" s="46">
+        <f t="shared" si="0"/>
+        <v>2104000</v>
+      </c>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="47">
         <v>0.70599999999999996</v>
       </c>
-      <c r="D13" s="1">
+      <c r="P13" s="1">
         <v>21.77</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1">
+      <c r="Q13" s="46">
+        <f t="shared" si="0"/>
+        <v>2177000</v>
+      </c>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+    </row>
+    <row r="14" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="47">
         <v>0.77099999999999991</v>
       </c>
-      <c r="D14" s="1">
+      <c r="P14" s="1">
         <v>23.24</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1">
+      <c r="Q14" s="46">
+        <f t="shared" si="0"/>
+        <v>2324000</v>
+      </c>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+    </row>
+    <row r="15" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="47">
         <v>0.83499999999999996</v>
       </c>
-      <c r="D15" s="1">
+      <c r="P15" s="1">
         <v>23.24</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1">
+      <c r="Q15" s="46">
+        <f t="shared" si="0"/>
+        <v>2324000</v>
+      </c>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+    </row>
+    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="47">
         <v>0.89999999999999991</v>
       </c>
-      <c r="D16" s="1">
+      <c r="P16" s="1">
         <v>24.71</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1">
+      <c r="Q16" s="46">
+        <f t="shared" si="0"/>
+        <v>2471000</v>
+      </c>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+    </row>
+    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="47">
         <v>0.96299999999999986</v>
       </c>
-      <c r="D17" s="1">
+      <c r="P17" s="1">
         <v>24.71</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1">
+      <c r="Q17" s="46">
+        <f t="shared" si="0"/>
+        <v>2471000</v>
+      </c>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+    </row>
+    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="47">
         <v>1.0279999999999998</v>
       </c>
-      <c r="D18" s="1">
+      <c r="P18" s="1">
         <v>25.44</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1">
+      <c r="Q18" s="46">
+        <f t="shared" si="0"/>
+        <v>2544000</v>
+      </c>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+    </row>
+    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="47">
         <v>1.0919999999999999</v>
       </c>
-      <c r="D19" s="1">
+      <c r="P19" s="1">
         <v>25.44</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1">
+      <c r="Q19" s="46">
+        <f t="shared" si="0"/>
+        <v>2544000</v>
+      </c>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+    </row>
+    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="47">
         <v>1.1569999999999998</v>
       </c>
-      <c r="D20" s="1">
+      <c r="P20" s="1">
         <v>26.17</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1">
+      <c r="Q20" s="46">
+        <f t="shared" si="0"/>
+        <v>2617000</v>
+      </c>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+    </row>
+    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="47">
         <v>1.2199999999999998</v>
       </c>
-      <c r="D21" s="1">
+      <c r="P21" s="1">
         <v>26.17</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1">
+      <c r="Q21" s="46">
+        <f t="shared" si="0"/>
+        <v>2617000</v>
+      </c>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+    </row>
+    <row r="22" spans="1:30" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="47">
         <v>1.2849999999999997</v>
       </c>
-      <c r="D22" s="1">
+      <c r="P22" s="1">
         <v>26.17</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1">
+      <c r="Q22" s="46">
+        <f t="shared" si="0"/>
+        <v>2617000</v>
+      </c>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="48"/>
+    </row>
+    <row r="23" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="47">
         <v>1.3489999999999998</v>
       </c>
-      <c r="D23" s="1">
+      <c r="P23" s="1">
         <v>26.17</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1">
+      <c r="Q23" s="46">
+        <f t="shared" si="0"/>
+        <v>2617000</v>
+      </c>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="48"/>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="47">
         <v>1.4139999999999997</v>
       </c>
-      <c r="D24" s="1">
+      <c r="P24" s="1">
         <v>26.91</v>
       </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1">
+      <c r="Q24" s="46">
+        <f t="shared" si="0"/>
+        <v>2691000</v>
+      </c>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="48"/>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="O25" s="47">
         <v>1.4769999999999996</v>
       </c>
-      <c r="D25" s="1">
+      <c r="P25" s="1">
         <v>26.91</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1">
+      <c r="Q25" s="46">
+        <f t="shared" si="0"/>
+        <v>2691000</v>
+      </c>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+    </row>
+    <row r="26" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="O26" s="47">
         <v>1.5419999999999996</v>
       </c>
-      <c r="D26" s="1">
+      <c r="P26" s="1">
         <v>26.91</v>
       </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1">
+      <c r="Q26" s="46">
+        <f t="shared" si="0"/>
+        <v>2691000</v>
+      </c>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
+    </row>
+    <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="O27" s="47">
         <v>1.6059999999999997</v>
       </c>
-      <c r="D27" s="1">
+      <c r="P27" s="1">
         <v>26.91</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1">
+      <c r="Q27" s="46">
+        <f t="shared" si="0"/>
+        <v>2691000</v>
+      </c>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="48"/>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="48"/>
+    </row>
+    <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="O28" s="47">
         <v>1.6709999999999996</v>
       </c>
-      <c r="D28" s="1">
+      <c r="P28" s="1">
         <v>26.91</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1">
+      <c r="Q28" s="46">
+        <f t="shared" si="0"/>
+        <v>2691000</v>
+      </c>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="48"/>
+    </row>
+    <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="O29" s="47">
         <v>1.7339999999999995</v>
       </c>
-      <c r="D29" s="1">
+      <c r="P29" s="1">
         <v>26.91</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1">
+      <c r="Q29" s="46">
+        <f t="shared" si="0"/>
+        <v>2691000</v>
+      </c>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="48"/>
+    </row>
+    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="O30" s="47">
         <v>1.7989999999999995</v>
       </c>
-      <c r="D30" s="1">
+      <c r="P30" s="1">
         <v>26.91</v>
       </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1">
+      <c r="Q30" s="46">
+        <f t="shared" si="0"/>
+        <v>2691000</v>
+      </c>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="48"/>
+    </row>
+    <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="O31" s="47">
         <v>1.8629999999999995</v>
       </c>
-      <c r="D31" s="1">
+      <c r="P31" s="1">
         <v>26.91</v>
       </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="1">
+      <c r="Q31" s="46">
+        <f t="shared" si="0"/>
+        <v>2691000</v>
+      </c>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="48"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="48"/>
+    </row>
+    <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="O32" s="47">
         <v>1.9279999999999995</v>
       </c>
-      <c r="D32" s="1">
+      <c r="P32" s="1">
         <v>27.64</v>
       </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1">
+      <c r="Q32" s="46">
+        <f t="shared" si="0"/>
+        <v>2764000</v>
+      </c>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="48"/>
+    </row>
+    <row r="33" spans="15:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="O33" s="47">
         <v>1.9909999999999994</v>
       </c>
-      <c r="D33" s="1">
+      <c r="P33" s="1">
         <v>27.64</v>
       </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1">
+      <c r="Q33" s="46">
+        <f t="shared" si="0"/>
+        <v>2764000</v>
+      </c>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="48"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="48"/>
+    </row>
+    <row r="34" spans="15:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="O34" s="47">
         <v>2.0559999999999996</v>
       </c>
-      <c r="D34" s="1">
+      <c r="P34" s="1">
         <v>27.64</v>
       </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1">
+      <c r="Q34" s="46">
+        <f t="shared" ref="Q34:Q65" si="1">P34*10^5</f>
+        <v>2764000</v>
+      </c>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="48"/>
+      <c r="AD34" s="48"/>
+    </row>
+    <row r="35" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O35" s="47">
         <v>2.1199999999999997</v>
       </c>
-      <c r="D35" s="1">
+      <c r="P35" s="1">
         <v>27.64</v>
       </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1">
+      <c r="Q35" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="48"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="48"/>
+    </row>
+    <row r="36" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O36" s="47">
         <v>2.1849999999999996</v>
       </c>
-      <c r="D36" s="1">
+      <c r="P36" s="1">
         <v>27.64</v>
       </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1">
+      <c r="Q36" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="48"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="48"/>
+      <c r="Z36" s="48"/>
+      <c r="AA36" s="48"/>
+      <c r="AB36" s="48"/>
+      <c r="AC36" s="48"/>
+      <c r="AD36" s="48"/>
+    </row>
+    <row r="37" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O37" s="47">
         <v>2.2479999999999998</v>
       </c>
-      <c r="D37" s="1">
+      <c r="P37" s="1">
         <v>27.64</v>
       </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="1">
+      <c r="Q37" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="48"/>
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="48"/>
+    </row>
+    <row r="38" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O38" s="47">
         <v>2.3129999999999997</v>
       </c>
-      <c r="D38" s="1">
+      <c r="P38" s="1">
         <v>27.64</v>
       </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1">
+      <c r="Q38" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="48"/>
+      <c r="AC38" s="48"/>
+      <c r="AD38" s="48"/>
+    </row>
+    <row r="39" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O39" s="47">
         <v>2.3769999999999998</v>
       </c>
-      <c r="D39" s="1">
+      <c r="P39" s="1">
         <v>27.64</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="1">
+      <c r="Q39" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
+      <c r="Y39" s="48"/>
+      <c r="Z39" s="48"/>
+      <c r="AA39" s="48"/>
+      <c r="AB39" s="48"/>
+      <c r="AC39" s="48"/>
+      <c r="AD39" s="48"/>
+    </row>
+    <row r="40" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O40" s="47">
         <v>2.4419999999999997</v>
       </c>
-      <c r="D40" s="1">
+      <c r="P40" s="1">
         <v>27.64</v>
       </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1">
+      <c r="Q40" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="41" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O41" s="47">
         <v>2.5049999999999999</v>
       </c>
-      <c r="D41" s="1">
+      <c r="P41" s="1">
         <v>27.64</v>
       </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1">
+      <c r="Q41" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="42" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O42" s="47">
         <v>2.57</v>
       </c>
-      <c r="D42" s="1">
+      <c r="P42" s="1">
         <v>27.64</v>
       </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="1">
+      <c r="Q42" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="43" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O43" s="47">
         <v>2.6339999999999999</v>
       </c>
-      <c r="D43" s="1">
+      <c r="P43" s="1">
         <v>27.64</v>
       </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="1">
+      <c r="Q43" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="44" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O44" s="47">
         <v>2.6989999999999998</v>
       </c>
-      <c r="D44" s="1">
+      <c r="P44" s="1">
         <v>27.64</v>
       </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="1">
+      <c r="Q44" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="45" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O45" s="47">
         <v>2.762</v>
       </c>
-      <c r="D45" s="1">
+      <c r="P45" s="1">
         <v>27.64</v>
       </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="1">
+      <c r="Q45" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="46" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O46" s="47">
         <v>2.827</v>
       </c>
-      <c r="D46" s="1">
+      <c r="P46" s="1">
         <v>27.64</v>
       </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="1">
+      <c r="Q46" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="47" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O47" s="47">
         <v>2.891</v>
       </c>
-      <c r="D47" s="1">
+      <c r="P47" s="1">
         <v>27.64</v>
       </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="1">
+      <c r="Q47" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="48" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O48" s="47">
         <v>2.956</v>
       </c>
-      <c r="D48" s="1">
+      <c r="P48" s="1">
         <v>27.64</v>
       </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="1">
+      <c r="Q48" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="49" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O49" s="47">
         <v>3.0190000000000001</v>
       </c>
-      <c r="D49" s="1">
+      <c r="P49" s="1">
         <v>27.64</v>
       </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="1">
+      <c r="Q49" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="50" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O50" s="47">
         <v>3.0840000000000001</v>
       </c>
-      <c r="D50" s="1">
+      <c r="P50" s="1">
         <v>27.64</v>
       </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="1">
+      <c r="Q50" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="51" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O51" s="47">
         <v>3.1480000000000001</v>
       </c>
-      <c r="D51" s="1">
+      <c r="P51" s="1">
         <v>27.64</v>
       </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="1">
+      <c r="Q51" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="52" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O52" s="47">
         <v>3.2130000000000001</v>
       </c>
-      <c r="D52" s="1">
+      <c r="P52" s="1">
         <v>27.64</v>
       </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="1">
+      <c r="Q52" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="53" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O53" s="47">
         <v>3.2760000000000002</v>
       </c>
-      <c r="D53" s="1">
+      <c r="P53" s="1">
         <v>27.64</v>
       </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="1">
+      <c r="Q53" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="54" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O54" s="47">
         <v>3.3410000000000002</v>
       </c>
-      <c r="D54" s="1">
+      <c r="P54" s="1">
         <v>27.64</v>
       </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="1">
+      <c r="Q54" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="55" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O55" s="47">
         <v>3.4050000000000002</v>
       </c>
-      <c r="D55" s="1">
+      <c r="P55" s="1">
         <v>27.64</v>
       </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="1">
+      <c r="Q55" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="56" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O56" s="47">
         <v>3.47</v>
       </c>
-      <c r="D56" s="1">
+      <c r="P56" s="1">
         <v>27.64</v>
       </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="1">
+      <c r="Q56" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="57" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O57" s="47">
         <v>3.5330000000000004</v>
       </c>
-      <c r="D57" s="1">
+      <c r="P57" s="1">
         <v>27.64</v>
       </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="1">
+      <c r="Q57" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="58" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O58" s="47">
         <v>3.5980000000000003</v>
       </c>
-      <c r="D58" s="1">
+      <c r="P58" s="1">
         <v>27.64</v>
       </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="1">
+      <c r="Q58" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="59" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O59" s="47">
         <v>3.6620000000000004</v>
       </c>
-      <c r="D59" s="1">
+      <c r="P59" s="1">
         <v>27.64</v>
       </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="1">
+      <c r="Q59" s="46">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+    </row>
+    <row r="60" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O60" s="47">
         <v>3.7260000000000004</v>
       </c>
-      <c r="D60" s="1">
+      <c r="P60" s="1">
         <v>26.91</v>
       </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="1">
+      <c r="Q60" s="46">
+        <f t="shared" si="1"/>
+        <v>2691000</v>
+      </c>
+    </row>
+    <row r="61" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O61" s="47">
         <v>3.7900000000000005</v>
       </c>
-      <c r="D61" s="1">
+      <c r="P61" s="1">
         <v>25.44</v>
       </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="1">
+      <c r="Q61" s="46">
+        <f t="shared" si="1"/>
+        <v>2544000</v>
+      </c>
+    </row>
+    <row r="62" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O62" s="47">
         <v>3.8550000000000004</v>
       </c>
-      <c r="D62" s="1">
+      <c r="P62" s="1">
         <v>23.97</v>
       </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="1">
+      <c r="Q62" s="46">
+        <f t="shared" si="1"/>
+        <v>2397000</v>
+      </c>
+    </row>
+    <row r="63" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O63" s="47">
         <v>3.9190000000000005</v>
       </c>
-      <c r="D63" s="1">
+      <c r="P63" s="1">
         <v>21.77</v>
       </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="1">
+      <c r="Q63" s="46">
+        <f t="shared" si="1"/>
+        <v>2177000</v>
+      </c>
+    </row>
+    <row r="64" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O64" s="47">
         <v>3.9830000000000005</v>
       </c>
-      <c r="D64" s="1">
+      <c r="P64" s="1">
         <v>18.84</v>
       </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="1">
+      <c r="Q64" s="46">
+        <f t="shared" si="1"/>
+        <v>1884000</v>
+      </c>
+    </row>
+    <row r="65" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O65" s="47">
         <v>4.0470000000000006</v>
       </c>
-      <c r="D65" s="1">
+      <c r="P65" s="1">
         <v>15.91</v>
       </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="1">
+      <c r="Q65" s="46">
+        <f t="shared" si="1"/>
+        <v>1591000</v>
+      </c>
+    </row>
+    <row r="66" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O66" s="47">
         <v>4.112000000000001</v>
       </c>
-      <c r="D66" s="1">
+      <c r="P66" s="1">
         <v>14.44</v>
       </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="1">
+      <c r="Q66" s="46">
+        <f t="shared" ref="Q66:Q97" si="2">P66*10^5</f>
+        <v>1444000</v>
+      </c>
+    </row>
+    <row r="67" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O67" s="47">
         <v>4.1770000000000014</v>
       </c>
-      <c r="D67" s="1">
+      <c r="P67" s="1">
         <v>13.71</v>
       </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="1">
+      <c r="Q67" s="46">
+        <f t="shared" si="2"/>
+        <v>1371000</v>
+      </c>
+    </row>
+    <row r="68" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O68" s="47">
         <v>4.2400000000000011</v>
       </c>
-      <c r="D68" s="1">
+      <c r="P68" s="1">
         <v>13.71</v>
       </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="1">
+      <c r="Q68" s="46">
+        <f t="shared" si="2"/>
+        <v>1371000</v>
+      </c>
+    </row>
+    <row r="69" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O69" s="47">
         <v>4.3050000000000015</v>
       </c>
-      <c r="D69" s="1">
+      <c r="P69" s="1">
         <v>12.24</v>
       </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="1">
+      <c r="Q69" s="46">
+        <f t="shared" si="2"/>
+        <v>1224000</v>
+      </c>
+    </row>
+    <row r="70" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O70" s="47">
         <v>4.3690000000000015</v>
       </c>
-      <c r="D70" s="1">
+      <c r="P70" s="1">
         <v>11.51</v>
       </c>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="1">
+      <c r="Q70" s="46">
+        <f t="shared" si="2"/>
+        <v>1151000</v>
+      </c>
+    </row>
+    <row r="71" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O71" s="47">
         <v>4.4340000000000019</v>
       </c>
-      <c r="D71" s="1">
+      <c r="P71" s="1">
         <v>10.78</v>
       </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="1">
+      <c r="Q71" s="46">
+        <f t="shared" si="2"/>
+        <v>1078000</v>
+      </c>
+    </row>
+    <row r="72" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O72" s="47">
         <v>4.4970000000000017</v>
       </c>
-      <c r="D72" s="1">
+      <c r="P72" s="1">
         <v>10.039999999999999</v>
       </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="1">
+      <c r="Q72" s="46">
+        <f t="shared" si="2"/>
+        <v>1003999.9999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O73" s="47">
         <v>4.5620000000000021</v>
       </c>
-      <c r="D73" s="1">
+      <c r="P73" s="1">
         <v>9.31</v>
       </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="1">
+      <c r="Q73" s="46">
+        <f t="shared" si="2"/>
+        <v>931000</v>
+      </c>
+    </row>
+    <row r="74" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O74" s="47">
         <v>4.6260000000000021</v>
       </c>
-      <c r="D74" s="1">
+      <c r="P74" s="1">
         <v>8.58</v>
       </c>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="1">
+      <c r="Q74" s="46">
+        <f t="shared" si="2"/>
+        <v>858000</v>
+      </c>
+    </row>
+    <row r="75" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O75" s="47">
         <v>4.6910000000000025</v>
       </c>
-      <c r="D75" s="1">
+      <c r="P75" s="1">
         <v>7.11</v>
       </c>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="1">
+      <c r="Q75" s="46">
+        <f t="shared" si="2"/>
+        <v>711000</v>
+      </c>
+    </row>
+    <row r="76" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O76" s="47">
         <v>4.7540000000000022</v>
       </c>
-      <c r="D76" s="1">
+      <c r="P76" s="1">
         <v>5.65</v>
       </c>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="1">
+      <c r="Q76" s="46">
+        <f t="shared" si="2"/>
+        <v>565000</v>
+      </c>
+    </row>
+    <row r="77" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O77" s="47">
         <v>4.8190000000000026</v>
       </c>
-      <c r="D77" s="1">
+      <c r="P77" s="1">
         <v>4.18</v>
       </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="1">
+      <c r="Q77" s="46">
+        <f t="shared" si="2"/>
+        <v>418000</v>
+      </c>
+    </row>
+    <row r="78" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O78" s="47">
         <v>4.8830000000000027</v>
       </c>
-      <c r="D78" s="1">
+      <c r="P78" s="1">
         <v>2.71</v>
       </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="1">
+      <c r="Q78" s="46">
+        <f t="shared" si="2"/>
+        <v>271000</v>
+      </c>
+    </row>
+    <row r="79" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O79" s="47">
         <v>4.9480000000000031</v>
       </c>
-      <c r="D79" s="1">
+      <c r="P79" s="1">
         <v>1.98</v>
       </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="1">
+      <c r="Q79" s="46">
+        <f t="shared" si="2"/>
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="80" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O80" s="47">
         <v>5.0110000000000028</v>
       </c>
-      <c r="D80" s="1">
+      <c r="P80" s="1">
         <v>0.51</v>
       </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="1">
+      <c r="Q80" s="46">
+        <f t="shared" si="2"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="81" spans="15:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="O81" s="45">
         <v>5.0740000000000025</v>
       </c>
-      <c r="D81" s="1">
+      <c r="P81" s="44">
         <v>0.51</v>
       </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="Q81" s="43">
+        <f t="shared" si="2"/>
+        <v>51000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="4">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="L1:L1048576"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5587,10 +7195,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C8E3EE-99AB-4972-A73D-D1EFEBD6EA1A}">
-  <dimension ref="A1:AL35"/>
+  <dimension ref="A1:AK35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView zoomScale="71" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5600,97 +7208,94 @@
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.1328125" customWidth="1"/>
-    <col min="15" max="15" width="5.86328125" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.33203125" customWidth="1"/>
-    <col min="19" max="19" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.06640625" customWidth="1"/>
-    <col min="21" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="28.06640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.53125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="83.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="81.9296875" customWidth="1"/>
-    <col min="40" max="40" width="9.1328125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1328125" customWidth="1"/>
+    <col min="14" max="14" width="5.86328125" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.06640625" customWidth="1"/>
+    <col min="20" max="21" width="13" customWidth="1"/>
+    <col min="22" max="22" width="28.06640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.53125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="81.9296875" customWidth="1"/>
+    <col min="39" max="39" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="1:36" ht="15" x14ac:dyDescent="0.45">
+      <c r="A1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="26" t="s">
+      <c r="J1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" s="8"/>
+      <c r="N1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="8"/>
+      <c r="AD1" s="8"/>
       <c r="AE1" s="8"/>
       <c r="AF1" s="8"/>
       <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AK1" s="6"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="AJ1" s="6"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
         <f>COUNTIF(B2:B82, "&lt;&gt;")</f>
         <v>8</v>
@@ -5699,13 +7304,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
+        <f>0*10^-3</f>
         <v>0</v>
       </c>
       <c r="D2" s="1">
+        <f>0*10^-3</f>
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>3</v>
+        <f>3*10^-3</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F2" s="10">
         <v>0</v>
@@ -5714,125 +7322,125 @@
         <v>0</v>
       </c>
       <c r="H2" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="39">
+        <f>3*10^6</f>
+        <v>3000000</v>
+      </c>
+      <c r="K2" s="35">
+        <v>50</v>
+      </c>
+      <c r="L2" s="10">
+        <f t="shared" ref="L2:L7" si="0">SQRT((D3-D2)^2+(C3-C2)^2)</f>
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="M2" s="10">
+        <f>ROUNDUP($K$2*(L2/SUM($L$2:$L$7)),0)</f>
+        <v>3</v>
+      </c>
+      <c r="N2" s="10">
+        <f>IF(M2=0,0,M2-1)</f>
         <v>2</v>
       </c>
-      <c r="J2" s="10">
-        <v>10</v>
-      </c>
-      <c r="K2" s="10">
-        <f>LARGE(Loading!D2:D81,1)</f>
-        <v>27.64</v>
-      </c>
-      <c r="L2" s="38">
-        <v>50</v>
-      </c>
-      <c r="M2" s="10">
-        <f t="shared" ref="M2:M7" si="0">SQRT((D3-D2)^2+(C3-C2)^2)</f>
-        <v>49.4</v>
-      </c>
-      <c r="N2" s="10">
-        <f>ROUNDUP($L$2*(M2/SUM($M$2:$M$7)),0)</f>
-        <v>3</v>
-      </c>
-      <c r="O2" s="10">
-        <f>IF(N2=0,0,N2-1)</f>
-        <v>2</v>
-      </c>
+      <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="30">
+      <c r="R2" s="25"/>
+      <c r="S2" s="27">
         <v>1</v>
       </c>
-      <c r="U2" s="30">
+      <c r="T2" s="27">
         <v>1</v>
       </c>
-      <c r="V2" s="30">
+      <c r="U2" s="27">
         <v>1</v>
       </c>
-      <c r="AA2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AK2" s="7"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="AJ2" s="7"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
+        <f>0*10^-3</f>
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>49.4</v>
+        <f>49.4*10^-3</f>
+        <v>4.9399999999999999E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <f>3*10^-3</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H3" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1">
         <v>7</v>
       </c>
-      <c r="J3" s="1">
-        <v>100</v>
-      </c>
-      <c r="K3" s="35">
-        <f>LARGE(Loading!D2:D81,1)</f>
-        <v>27.64</v>
-      </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="36">
+      <c r="J3" s="39">
+        <f t="shared" ref="J3:J4" si="1">3*10^6</f>
+        <v>3000000</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="33">
         <f t="shared" si="0"/>
-        <v>913.63</v>
+        <v>0.91363000000000005</v>
+      </c>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M8" si="2">ROUNDUP($K$2*(L3/SUM($L$2:$L$7)),0)</f>
+        <v>45</v>
       </c>
       <c r="N3" s="10">
-        <f t="shared" ref="N3:N8" si="1">ROUNDUP($L$2*(M3/SUM($M$2:$M$7)),0)</f>
-        <v>45</v>
-      </c>
-      <c r="O3" s="10">
-        <f t="shared" ref="O3:O8" si="2">IF(N3=0,0,N3-1)</f>
+        <f t="shared" ref="N3:N8" si="3">IF(M3=0,0,M3-1)</f>
         <v>44</v>
       </c>
-      <c r="P3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="AA3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AK3" s="7"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="AJ3" s="7"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="10">
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>913.63</v>
+        <f>913.63*10^-3</f>
+        <v>0.91363000000000005</v>
       </c>
       <c r="D4" s="1">
-        <v>49.4</v>
+        <f>49.4*10^-3</f>
+        <v>4.9399999999999999E-2</v>
       </c>
       <c r="E4" s="10">
-        <v>2.5</v>
+        <f>2.5*10^-3</f>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
@@ -5841,56 +7449,56 @@
         <v>7</v>
       </c>
       <c r="H4" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="10">
         <v>7</v>
       </c>
-      <c r="J4" s="10">
-        <v>12</v>
-      </c>
-      <c r="K4" s="32">
-        <f>LARGE(Loading!D2:D81,1)</f>
-        <v>27.64</v>
-      </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="37">
+      <c r="J4" s="39">
+        <f t="shared" si="1"/>
+        <v>3000000</v>
+      </c>
+      <c r="K4" s="37"/>
+      <c r="L4" s="34">
         <f t="shared" si="0"/>
-        <v>64.456538070237727</v>
+        <v>6.4456538070237671E-2</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="N4" s="10">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="O4" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="U4" s="5"/>
-      <c r="AA4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AK4" s="7"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="AJ4" s="7"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>969.45</v>
+        <f>969.45*10^-3</f>
+        <v>0.96945000000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>17.170000000000002</v>
+        <f>17.17*10^-3</f>
+        <v>1.7170000000000001E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <f>4*10^-3</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -5904,48 +7512,48 @@
       <c r="I5" s="1">
         <v>7</v>
       </c>
-      <c r="J5" s="1">
-        <v>10</v>
-      </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="36">
+      <c r="J5" s="32"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="33">
         <f t="shared" si="0"/>
-        <v>2.3608896628177751</v>
+        <v>2.3608896628178177E-3</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N5" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="U5" s="5"/>
-      <c r="AA5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AK5" s="7"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="AJ5" s="7"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="10">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>971.62</v>
+        <f>971.62*10^-3</f>
+        <v>0.97162000000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>16.239999999999998</v>
+        <f>16.24*10^-3</f>
+        <v>1.6239999999999997E-2</v>
       </c>
       <c r="E6" s="10">
-        <v>4</v>
+        <f>4*10^-3</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
@@ -5959,51 +7567,47 @@
       <c r="I6" s="10">
         <v>7</v>
       </c>
-      <c r="J6" s="10">
-        <v>15</v>
-      </c>
-      <c r="K6" s="32">
-        <f>(LARGE(Loading!D2:D81,1))*0.965</f>
-        <v>26.672599999999999</v>
-      </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="37">
+      <c r="K6" s="37"/>
+      <c r="L6" s="34">
         <f t="shared" si="0"/>
-        <v>2.1949259668608101</v>
+        <v>2.1949259668607819E-3</v>
+      </c>
+      <c r="M6" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N6" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O6" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="U6" s="5"/>
-      <c r="AA6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AK6" s="7"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="AJ6" s="7"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>973.78</v>
+        <f>973.78*10^-3</f>
+        <v>0.97377999999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>15.85</v>
+        <f>15.85*10^-3</f>
+        <v>1.585E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
+        <f>4*10^-3</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -6017,48 +7621,51 @@
       <c r="I7" s="1">
         <v>7</v>
       </c>
-      <c r="J7" s="1">
-        <v>20</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="36">
+      <c r="J7" s="29">
+        <f>J2*0.965</f>
+        <v>2895000</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="33">
         <f t="shared" si="0"/>
-        <v>2.1718655575335033</v>
+        <v>2.1718655575335469E-3</v>
+      </c>
+      <c r="M7" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N7" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="U7" s="5"/>
-      <c r="AA7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AK7" s="7"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="AJ7" s="7"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="10">
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>975.95</v>
+        <f>975.95*10^-3</f>
+        <v>0.9759500000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>15.94</v>
+        <f>15.94*10^-3</f>
+        <v>1.5939999999999999E-2</v>
       </c>
       <c r="E8" s="10">
-        <v>3</v>
+        <f>3*10^-3</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
@@ -6069,46 +7676,43 @@
       <c r="H8" s="11">
         <v>2</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="39">
         <v>7</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="32">
-        <f>(LARGE(Loading!D2:D81,1))*0.0183</f>
-        <v>0.50581200000000004</v>
-      </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
+      <c r="K8" s="37"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P8" s="5"/>
+      <c r="N8" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="U8" s="5"/>
-      <c r="AA8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AK8" s="7"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="AJ8" s="7"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>1025.22</v>
+        <f>1025.22*10^-3</f>
+        <v>1.02522</v>
       </c>
       <c r="D9" s="1">
-        <v>23.38</v>
+        <f>23.38*10^-3</f>
+        <v>2.3379999999999998E-2</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -6117,25 +7721,27 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="36"/>
+      <c r="J9" s="29">
+        <f>J2*0.0183</f>
+        <v>54900</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="V9" s="5"/>
-      <c r="AA9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AK9" s="7"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="AJ9" s="7"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -6145,31 +7751,30 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="36"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AK10" s="7"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="AJ10" s="7"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6179,31 +7784,30 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="36"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AK11" s="7"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="AJ11" s="7"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -6213,15 +7817,15 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="36"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -6230,16 +7834,15 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AK12" s="7"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="AJ12" s="7"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6249,15 +7852,15 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="36"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -6266,16 +7869,15 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AK13" s="7"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="AJ13" s="7"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -6285,15 +7887,15 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="36"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -6302,16 +7904,15 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AK14" s="7"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="AJ14" s="7"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6321,15 +7922,15 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="36"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -6338,16 +7939,15 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AK15" s="7"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="AJ15" s="7"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -6357,15 +7957,15 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="36"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -6374,16 +7974,15 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AK16" s="7"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="AJ16" s="7"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6393,15 +7992,15 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="36"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -6410,16 +8009,15 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AK17" s="7"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="AJ17" s="7"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -6429,15 +8027,18 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="36"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="38">
+        <f>SUM(M2:M18)</f>
+        <v>55</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -6446,16 +8047,15 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AK18" s="7"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="AJ18" s="7"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6482,16 +8082,15 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AK19" s="7"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="AJ19" s="7"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -6507,7 +8106,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -6518,18 +8117,17 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -6545,7 +8143,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
+      <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -6556,18 +8154,17 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
-      <c r="AL21" s="2"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -6583,12 +8180,11 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
+      <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -6604,12 +8200,11 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -6625,12 +8220,11 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
+      <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -6646,12 +8240,11 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+      <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -6667,12 +8260,11 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
+      <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -6688,12 +8280,11 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
+      <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -6709,12 +8300,11 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
+      <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -6730,12 +8320,11 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
+      <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -6751,12 +8340,11 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
+      <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -6772,12 +8360,11 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
+      <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -6793,12 +8380,11 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
+      <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -6817,9 +8403,8 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -6838,9 +8423,8 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -6859,7 +8443,6 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TESTE ATUALIZADO/Livro1.xlsx
+++ b/TESTE ATUALIZADO/Livro1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Documentos\Uni\4 ano\1 semestre\Mecânica Estrutural\Trabalho Estrutural\Estrutural clonado\Estrutural\TESTE ATUALIZADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBE0B9B-0710-49E8-BD70-14F9E07B03A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4FC960-0F18-4530-ABE9-266316D04F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="2" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="2" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="2" r:id="rId1"/>
@@ -1095,7 +1095,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1998,7 +1998,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3589,8 +3589,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="42229985" y="856433"/>
-          <a:ext cx="5078821" cy="7395436"/>
+          <a:off x="41895555" y="876556"/>
+          <a:ext cx="5078822" cy="7513300"/>
           <a:chOff x="16846428" y="389059"/>
           <a:chExt cx="2086708" cy="2509107"/>
         </a:xfrm>
@@ -4587,7 +4587,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -4889,99 +4889,99 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="13"/>
     </row>
-    <row r="3" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B5" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="45" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2" ht="45" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B10" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="13"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="13"/>
     </row>
-    <row r="19" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B20" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B21" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="16"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="13"/>
     </row>
   </sheetData>
@@ -4997,17 +4997,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.9296875" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="20.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.921875" customWidth="1"/>
+    <col min="3" max="3" width="31.61328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3828125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>36</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18">
         <f>COUNTIF(D1:BE1, "&lt;&gt;")</f>
         <v>5</v>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C3" s="19" t="s">
         <v>43</v>
       </c>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="I4" s="40"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="19" t="s">
         <v>44</v>
       </c>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="I5" s="40"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C6" s="19" t="s">
         <v>45</v>
       </c>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="I6" s="40"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C7" s="19" t="s">
         <v>46</v>
       </c>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="I7" s="40"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C8" s="19" t="s">
         <v>47</v>
       </c>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="I8" s="40"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C9" s="40"/>
       <c r="D9" s="9" t="s">
         <v>33</v>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="I9" s="40"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -5212,7 +5212,7 @@
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5221,7 +5221,7 @@
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
     </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="83" t="s">
@@ -5232,7 +5232,7 @@
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="83"/>
@@ -5241,7 +5241,7 @@
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="42"/>
@@ -5250,7 +5250,7 @@
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5259,7 +5259,7 @@
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5268,7 +5268,7 @@
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
     </row>
-    <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -5277,7 +5277,7 @@
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
     </row>
-    <row r="18" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -5286,7 +5286,7 @@
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
     </row>
-    <row r="19" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -5295,7 +5295,7 @@
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
     </row>
-    <row r="20" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -5304,7 +5304,7 @@
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -5326,36 +5326,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BBD36B-8DEB-4362-8948-9CFC06A35BB2}">
   <dimension ref="A1:AD81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.61328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.23046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" customWidth="1"/>
-    <col min="7" max="8" width="10.73046875" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" customWidth="1"/>
-    <col min="10" max="10" width="10.73046875" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="1.73046875" style="89" customWidth="1"/>
-    <col min="13" max="13" width="7.19921875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="16" width="12.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.9296875" customWidth="1"/>
+    <col min="6" max="6" width="10.61328125" customWidth="1"/>
+    <col min="7" max="8" width="10.69140625" customWidth="1"/>
+    <col min="9" max="9" width="10.61328125" customWidth="1"/>
+    <col min="10" max="10" width="10.69140625" customWidth="1"/>
+    <col min="11" max="11" width="8.69140625" customWidth="1"/>
+    <col min="12" max="12" width="1.69140625" style="89" customWidth="1"/>
+    <col min="13" max="13" width="7.23046875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.69140625" customWidth="1"/>
+    <col min="15" max="16" width="12.69140625" customWidth="1"/>
+    <col min="17" max="17" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.921875" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="22.1328125" customWidth="1"/>
-    <col min="22" max="22" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.15234375" customWidth="1"/>
+    <col min="22" max="22" width="11.921875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.06640625" customWidth="1"/>
+    <col min="30" max="30" width="18.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5380,7 +5380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:30" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="74" t="s">
         <v>74</v>
       </c>
@@ -5424,7 +5424,7 @@
       <c r="AC2" s="48"/>
       <c r="AD2" s="48"/>
     </row>
-    <row r="3" spans="1:30" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5477,7 +5477,7 @@
       <c r="AC3" s="48"/>
       <c r="AD3" s="48"/>
     </row>
-    <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="47">
         <v>1</v>
@@ -5525,7 +5525,7 @@
       <c r="AC4" s="53"/>
       <c r="AD4" s="53"/>
     </row>
-    <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="47">
@@ -5574,7 +5574,7 @@
       <c r="AC5" s="53"/>
       <c r="AD5" s="53"/>
     </row>
-    <row r="6" spans="1:30" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="47">
@@ -5619,7 +5619,7 @@
       <c r="AC6" s="53"/>
       <c r="AD6" s="48"/>
     </row>
-    <row r="7" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:30" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="45">
@@ -5662,7 +5662,7 @@
       <c r="AC7" s="48"/>
       <c r="AD7" s="48"/>
     </row>
-    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5699,7 +5699,7 @@
       <c r="AC8" s="48"/>
       <c r="AD8" s="48"/>
     </row>
-    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5736,7 +5736,7 @@
       <c r="AC9" s="48"/>
       <c r="AD9" s="48"/>
     </row>
-    <row r="10" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:30" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5772,7 +5772,7 @@
       <c r="AC10" s="48"/>
       <c r="AD10" s="48"/>
     </row>
-    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="87" t="s">
@@ -5813,7 +5813,7 @@
       <c r="AC11" s="48"/>
       <c r="AD11" s="48"/>
     </row>
-    <row r="12" spans="1:30" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="47" t="s">
@@ -5852,7 +5852,7 @@
       <c r="AC12" s="48"/>
       <c r="AD12" s="48"/>
     </row>
-    <row r="13" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="47" t="s">
@@ -5891,7 +5891,7 @@
       <c r="AC13" s="48"/>
       <c r="AD13" s="48"/>
     </row>
-    <row r="14" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="47" t="s">
@@ -5930,7 +5930,7 @@
       <c r="AC14" s="48"/>
       <c r="AD14" s="48"/>
     </row>
-    <row r="15" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="45" t="s">
@@ -5969,7 +5969,7 @@
       <c r="AC15" s="48"/>
       <c r="AD15" s="48"/>
     </row>
-    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6006,7 +6006,7 @@
       <c r="AC16" s="48"/>
       <c r="AD16" s="48"/>
     </row>
-    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -6043,7 +6043,7 @@
       <c r="AC17" s="48"/>
       <c r="AD17" s="48"/>
     </row>
-    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6080,7 +6080,7 @@
       <c r="AC18" s="48"/>
       <c r="AD18" s="48"/>
     </row>
-    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6117,7 +6117,7 @@
       <c r="AC19" s="48"/>
       <c r="AD19" s="48"/>
     </row>
-    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -6154,7 +6154,7 @@
       <c r="AC20" s="48"/>
       <c r="AD20" s="48"/>
     </row>
-    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -6191,7 +6191,7 @@
       <c r="AC21" s="48"/>
       <c r="AD21" s="48"/>
     </row>
-    <row r="22" spans="1:30" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -6228,7 +6228,7 @@
       <c r="AC22" s="52"/>
       <c r="AD22" s="48"/>
     </row>
-    <row r="23" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -6265,7 +6265,7 @@
       <c r="AC23" s="51"/>
       <c r="AD23" s="48"/>
     </row>
-    <row r="24" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -6302,7 +6302,7 @@
       <c r="AC24" s="51"/>
       <c r="AD24" s="48"/>
     </row>
-    <row r="25" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
       <c r="O25" s="47">
         <v>1.4769999999999996</v>
       </c>
@@ -6327,7 +6327,7 @@
       <c r="AC25" s="48"/>
       <c r="AD25" s="48"/>
     </row>
-    <row r="26" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
       <c r="O26" s="47">
         <v>1.5419999999999996</v>
       </c>
@@ -6352,7 +6352,7 @@
       <c r="AC26" s="48"/>
       <c r="AD26" s="48"/>
     </row>
-    <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="O27" s="47">
         <v>1.6059999999999997</v>
       </c>
@@ -6377,7 +6377,7 @@
       <c r="AC27" s="48"/>
       <c r="AD27" s="48"/>
     </row>
-    <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="O28" s="47">
         <v>1.6709999999999996</v>
       </c>
@@ -6402,7 +6402,7 @@
       <c r="AC28" s="48"/>
       <c r="AD28" s="48"/>
     </row>
-    <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="O29" s="47">
         <v>1.7339999999999995</v>
       </c>
@@ -6427,7 +6427,7 @@
       <c r="AC29" s="48"/>
       <c r="AD29" s="48"/>
     </row>
-    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="O30" s="47">
         <v>1.7989999999999995</v>
       </c>
@@ -6452,7 +6452,7 @@
       <c r="AC30" s="48"/>
       <c r="AD30" s="48"/>
     </row>
-    <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="O31" s="47">
         <v>1.8629999999999995</v>
       </c>
@@ -6477,7 +6477,7 @@
       <c r="AC31" s="48"/>
       <c r="AD31" s="48"/>
     </row>
-    <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="O32" s="47">
         <v>1.9279999999999995</v>
       </c>
@@ -6502,7 +6502,7 @@
       <c r="AC32" s="48"/>
       <c r="AD32" s="48"/>
     </row>
-    <row r="33" spans="15:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="33" spans="15:30" ht="15" x14ac:dyDescent="0.4">
       <c r="O33" s="47">
         <v>1.9909999999999994</v>
       </c>
@@ -6527,7 +6527,7 @@
       <c r="AC33" s="48"/>
       <c r="AD33" s="48"/>
     </row>
-    <row r="34" spans="15:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="34" spans="15:30" ht="15" x14ac:dyDescent="0.4">
       <c r="O34" s="47">
         <v>2.0559999999999996</v>
       </c>
@@ -6552,7 +6552,7 @@
       <c r="AC34" s="48"/>
       <c r="AD34" s="48"/>
     </row>
-    <row r="35" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="35" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O35" s="47">
         <v>2.1199999999999997</v>
       </c>
@@ -6577,7 +6577,7 @@
       <c r="AC35" s="48"/>
       <c r="AD35" s="48"/>
     </row>
-    <row r="36" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="36" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O36" s="47">
         <v>2.1849999999999996</v>
       </c>
@@ -6602,7 +6602,7 @@
       <c r="AC36" s="48"/>
       <c r="AD36" s="48"/>
     </row>
-    <row r="37" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="37" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O37" s="47">
         <v>2.2479999999999998</v>
       </c>
@@ -6627,7 +6627,7 @@
       <c r="AC37" s="48"/>
       <c r="AD37" s="48"/>
     </row>
-    <row r="38" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="38" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O38" s="47">
         <v>2.3129999999999997</v>
       </c>
@@ -6652,7 +6652,7 @@
       <c r="AC38" s="48"/>
       <c r="AD38" s="48"/>
     </row>
-    <row r="39" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="39" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O39" s="47">
         <v>2.3769999999999998</v>
       </c>
@@ -6677,7 +6677,7 @@
       <c r="AC39" s="48"/>
       <c r="AD39" s="48"/>
     </row>
-    <row r="40" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="40" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O40" s="47">
         <v>2.4419999999999997</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="41" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="41" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O41" s="47">
         <v>2.5049999999999999</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="42" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="42" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O42" s="47">
         <v>2.57</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="43" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="43" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O43" s="47">
         <v>2.6339999999999999</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="44" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="44" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O44" s="47">
         <v>2.6989999999999998</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="45" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="45" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O45" s="47">
         <v>2.762</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="46" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="46" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O46" s="47">
         <v>2.827</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="47" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="47" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O47" s="47">
         <v>2.891</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="48" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="48" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O48" s="47">
         <v>2.956</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="49" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="49" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O49" s="47">
         <v>3.0190000000000001</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="50" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="50" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O50" s="47">
         <v>3.0840000000000001</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="51" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="51" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O51" s="47">
         <v>3.1480000000000001</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="52" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="52" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O52" s="47">
         <v>3.2130000000000001</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="53" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="53" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O53" s="47">
         <v>3.2760000000000002</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="54" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="54" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O54" s="47">
         <v>3.3410000000000002</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="55" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="55" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O55" s="47">
         <v>3.4050000000000002</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="56" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="56" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O56" s="47">
         <v>3.47</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="57" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="57" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O57" s="47">
         <v>3.5330000000000004</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="58" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="58" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O58" s="47">
         <v>3.5980000000000003</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="59" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="59" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O59" s="47">
         <v>3.6620000000000004</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="60" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="60" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O60" s="47">
         <v>3.7260000000000004</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>2691000</v>
       </c>
     </row>
-    <row r="61" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="61" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O61" s="47">
         <v>3.7900000000000005</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>2544000</v>
       </c>
     </row>
-    <row r="62" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="62" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O62" s="47">
         <v>3.8550000000000004</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>2397000</v>
       </c>
     </row>
-    <row r="63" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="63" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O63" s="47">
         <v>3.9190000000000005</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>2177000</v>
       </c>
     </row>
-    <row r="64" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="64" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O64" s="47">
         <v>3.9830000000000005</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>1884000</v>
       </c>
     </row>
-    <row r="65" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="65" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O65" s="47">
         <v>4.0470000000000006</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>1591000</v>
       </c>
     </row>
-    <row r="66" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="66" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O66" s="47">
         <v>4.112000000000001</v>
       </c>
@@ -6997,11 +6997,11 @@
         <v>14.44</v>
       </c>
       <c r="Q66" s="46">
-        <f t="shared" ref="Q66:Q97" si="2">P66*10^5</f>
+        <f t="shared" ref="Q66:Q81" si="2">P66*10^5</f>
         <v>1444000</v>
       </c>
     </row>
-    <row r="67" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="67" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O67" s="47">
         <v>4.1770000000000014</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>1371000</v>
       </c>
     </row>
-    <row r="68" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="68" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O68" s="47">
         <v>4.2400000000000011</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>1371000</v>
       </c>
     </row>
-    <row r="69" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="69" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O69" s="47">
         <v>4.3050000000000015</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>1224000</v>
       </c>
     </row>
-    <row r="70" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="70" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O70" s="47">
         <v>4.3690000000000015</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>1151000</v>
       </c>
     </row>
-    <row r="71" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="71" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O71" s="47">
         <v>4.4340000000000019</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>1078000</v>
       </c>
     </row>
-    <row r="72" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="72" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O72" s="47">
         <v>4.4970000000000017</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>1003999.9999999999</v>
       </c>
     </row>
-    <row r="73" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="73" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O73" s="47">
         <v>4.5620000000000021</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>931000</v>
       </c>
     </row>
-    <row r="74" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="74" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O74" s="47">
         <v>4.6260000000000021</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>858000</v>
       </c>
     </row>
-    <row r="75" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="75" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O75" s="47">
         <v>4.6910000000000025</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>711000</v>
       </c>
     </row>
-    <row r="76" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="76" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O76" s="47">
         <v>4.7540000000000022</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>565000</v>
       </c>
     </row>
-    <row r="77" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="77" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O77" s="47">
         <v>4.8190000000000026</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>418000</v>
       </c>
     </row>
-    <row r="78" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="78" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O78" s="47">
         <v>4.8830000000000027</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>271000</v>
       </c>
     </row>
-    <row r="79" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="79" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O79" s="47">
         <v>4.9480000000000031</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>198000</v>
       </c>
     </row>
-    <row r="80" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="80" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O80" s="47">
         <v>5.0110000000000028</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="81" spans="15:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="15:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="O81" s="45">
         <v>5.0740000000000025</v>
       </c>
@@ -7201,36 +7201,36 @@
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3046875" customWidth="1"/>
+    <col min="8" max="8" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.69140625" customWidth="1"/>
+    <col min="10" max="10" width="12.69140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1328125" customWidth="1"/>
-    <col min="14" max="14" width="5.86328125" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.33203125" customWidth="1"/>
-    <col min="18" max="18" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.06640625" customWidth="1"/>
+    <col min="12" max="12" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.15234375" customWidth="1"/>
+    <col min="14" max="14" width="5.84375" customWidth="1"/>
+    <col min="15" max="15" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.3046875" customWidth="1"/>
+    <col min="18" max="18" width="14.07421875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.07421875" customWidth="1"/>
     <col min="20" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="28.06640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.53125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.07421875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.23046875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.61328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.53515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="83.69140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="81.9296875" customWidth="1"/>
-    <col min="39" max="39" width="9.1328125" customWidth="1"/>
+    <col min="34" max="34" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="81.921875" customWidth="1"/>
+    <col min="39" max="39" width="9.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -7295,7 +7295,7 @@
       <c r="AG1" s="8"/>
       <c r="AJ1" s="6"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A2" s="10">
         <f>COUNTIF(B2:B82, "&lt;&gt;")</f>
         <v>8</v>
@@ -7366,7 +7366,7 @@
       <c r="AG2" s="5"/>
       <c r="AJ2" s="7"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>2</v>
@@ -7425,7 +7425,7 @@
       <c r="AG3" s="5"/>
       <c r="AJ3" s="7"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="10">
         <v>3</v>
@@ -7483,7 +7483,7 @@
       <c r="AG4" s="5"/>
       <c r="AJ4" s="7"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>4</v>
@@ -7538,7 +7538,7 @@
       <c r="AG5" s="5"/>
       <c r="AJ5" s="7"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="10">
         <v>5</v>
@@ -7592,7 +7592,7 @@
       <c r="AG6" s="5"/>
       <c r="AJ6" s="7"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>6</v>
@@ -7650,7 +7650,7 @@
       <c r="AG7" s="5"/>
       <c r="AJ7" s="7"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="10">
         <v>7</v>
@@ -7701,7 +7701,7 @@
       <c r="AG8" s="5"/>
       <c r="AJ8" s="7"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>8</v>
@@ -7741,7 +7741,7 @@
       <c r="AG9" s="5"/>
       <c r="AJ9" s="7"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -7774,7 +7774,7 @@
       <c r="AG10" s="5"/>
       <c r="AJ10" s="7"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -7807,7 +7807,7 @@
       <c r="AG11" s="5"/>
       <c r="AJ11" s="7"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -7842,7 +7842,7 @@
       <c r="AG12" s="5"/>
       <c r="AJ12" s="7"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -7877,7 +7877,7 @@
       <c r="AG13" s="5"/>
       <c r="AJ13" s="7"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -7912,7 +7912,7 @@
       <c r="AG14" s="5"/>
       <c r="AJ14" s="7"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -7947,7 +7947,7 @@
       <c r="AG15" s="5"/>
       <c r="AJ15" s="7"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -7982,7 +7982,7 @@
       <c r="AG16" s="5"/>
       <c r="AJ16" s="7"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -8017,7 +8017,7 @@
       <c r="AG17" s="5"/>
       <c r="AJ17" s="7"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -8055,7 +8055,7 @@
       <c r="AG18" s="5"/>
       <c r="AJ18" s="7"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -8090,7 +8090,7 @@
       <c r="AG19" s="5"/>
       <c r="AJ19" s="7"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8127,7 +8127,7 @@
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8164,7 +8164,7 @@
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -8184,7 +8184,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -8204,7 +8204,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -8224,7 +8224,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -8244,7 +8244,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -8264,7 +8264,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -8284,7 +8284,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -8304,7 +8304,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -8324,7 +8324,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -8344,7 +8344,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -8364,7 +8364,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -8384,7 +8384,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8404,7 +8404,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8424,7 +8424,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>

--- a/TESTE ATUALIZADO/Livro1.xlsx
+++ b/TESTE ATUALIZADO/Livro1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Documentos\Uni\4 ano\1 semestre\Mecânica Estrutural\Trabalho Estrutural\Estrutural clonado\Estrutural\TESTE ATUALIZADO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\Atualizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4FC960-0F18-4530-ABE9-266316D04F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DB46C7-DAD4-4F2D-997A-7A0F7F323E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="2" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="2" r:id="rId1"/>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t xml:space="preserve">Distance </t>
-  </si>
-  <si>
-    <t>AL6061-T6 @ 260ºC</t>
   </si>
   <si>
     <t>AL6061-T6 @ 204ºC</t>
@@ -271,6 +268,9 @@
   <si>
     <t>PressureCol</t>
   </si>
+  <si>
+    <t>AL6061-T6 @ 220ºC</t>
+  </si>
 </sst>
 </file>
 
@@ -279,7 +279,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +366,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -804,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1048,6 +1061,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1073,6 +1098,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,7 +1123,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1998,7 +2026,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3589,8 +3617,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="41895555" y="876556"/>
-          <a:ext cx="5078822" cy="7513300"/>
+          <a:off x="42229985" y="856433"/>
+          <a:ext cx="5078821" cy="7395436"/>
           <a:chOff x="16846428" y="389059"/>
           <a:chExt cx="2086708" cy="2509107"/>
         </a:xfrm>
@@ -4550,15 +4578,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>107778</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>23120</xdr:rowOff>
+      <xdr:colOff>221809</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>150567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>857189</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>92506</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>109025</xdr:rowOff>
+      <xdr:rowOff>48655</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4587,7 +4615,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -4889,99 +4917,99 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="83.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" s="13"/>
     </row>
-    <row r="3" spans="2:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B5" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="45" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:2" ht="45" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B10" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="13"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="13"/>
     </row>
-    <row r="19" spans="2:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B20" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B21" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="16"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="13"/>
     </row>
   </sheetData>
@@ -4994,22 +5022,22 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.921875" customWidth="1"/>
-    <col min="3" max="3" width="31.61328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="20.921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3828125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.9296875" customWidth="1"/>
+    <col min="3" max="3" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="26" t="s">
@@ -5025,13 +5053,13 @@
         <v>29</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="18">
         <f>COUNTIF(D1:BE1, "&lt;&gt;")</f>
         <v>5</v>
@@ -5040,133 +5068,133 @@
       <c r="C2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="83">
         <v>2700</v>
       </c>
       <c r="E2" s="12">
         <v>2700</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="85">
         <v>2700</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="9">
+      <c r="H2" s="85">
         <v>2780</v>
       </c>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="12">
+        <v>42</v>
+      </c>
+      <c r="D3" s="83">
         <f>68.9*10^9</f>
         <v>68900000000</v>
       </c>
       <c r="E3" s="12">
+        <f>60*10^9</f>
+        <v>60000000000</v>
+      </c>
+      <c r="F3" s="85">
         <f>68.9*10^9</f>
         <v>68900000000</v>
       </c>
-      <c r="F3" s="9">
-        <f>68.9*10^9</f>
-        <v>68900000000</v>
-      </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="9">
+      <c r="H3" s="85">
         <v>73.099999999999994</v>
       </c>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="83">
         <v>0.33</v>
       </c>
       <c r="E4" s="12">
         <v>0.33</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="85">
         <v>0.33</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="9">
+      <c r="H4" s="85">
         <v>0.33</v>
       </c>
       <c r="I4" s="40"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C5" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="12">
+        <v>43</v>
+      </c>
+      <c r="D5" s="83">
         <f>19*10^6</f>
         <v>19000000</v>
       </c>
       <c r="E5" s="12">
-        <f>34*10^6</f>
-        <v>34000000</v>
-      </c>
-      <c r="F5" s="9">
+        <f>250*10^6</f>
+        <v>250000000</v>
+      </c>
+      <c r="F5" s="85">
         <f>103 *10^6</f>
         <v>103000000</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9">
+      <c r="H5" s="85">
         <v>62</v>
       </c>
       <c r="I5" s="40"/>
     </row>
-    <row r="6" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C6" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="12">
+        <v>44</v>
+      </c>
+      <c r="D6" s="83">
         <f>32*10^6</f>
         <v>32000000</v>
       </c>
       <c r="E6" s="12">
-        <f>51*10^6</f>
-        <v>51000000</v>
-      </c>
-      <c r="F6" s="9">
+        <f>275*10^6</f>
+        <v>275000000</v>
+      </c>
+      <c r="F6" s="85">
         <f>131*10^6</f>
         <v>131000000</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="9">
+      <c r="H6" s="85">
         <v>76</v>
       </c>
       <c r="I6" s="40"/>
     </row>
-    <row r="7" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C7" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="22">
+        <v>45</v>
+      </c>
+      <c r="D7" s="84">
         <f>27*10^6</f>
         <v>27000000</v>
       </c>
       <c r="E7" s="22">
-        <f>43*10^6</f>
-        <v>43000000</v>
-      </c>
-      <c r="F7" s="41">
+        <f>E6*0.85</f>
+        <v>233750000</v>
+      </c>
+      <c r="F7" s="86">
         <f>110*10^6</f>
         <v>110000000</v>
       </c>
       <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="H7" s="86">
         <v>65</v>
       </c>
       <c r="I7" s="40"/>
     </row>
-    <row r="8" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="12">
+        <v>46</v>
+      </c>
+      <c r="D8" s="83">
         <f>207*10^6</f>
         <v>207000000</v>
       </c>
@@ -5174,36 +5202,36 @@
         <f>207*10^6</f>
         <v>207000000</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="83">
         <f>207*10^6</f>
         <v>207000000</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="9">
+      <c r="H8" s="85">
         <v>283</v>
       </c>
       <c r="I8" s="40"/>
     </row>
-    <row r="9" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C9" s="40"/>
       <c r="D9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="I9" s="40"/>
     </row>
-    <row r="10" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -5212,7 +5240,7 @@
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
     </row>
-    <row r="11" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5221,27 +5249,27 @@
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
     </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="83"/>
+      <c r="E12" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="87"/>
       <c r="G12" s="42"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
     </row>
-    <row r="13" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
       <c r="G13" s="42"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
     </row>
-    <row r="14" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="42"/>
@@ -5250,7 +5278,7 @@
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
     </row>
-    <row r="15" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5259,7 +5287,7 @@
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
     </row>
-    <row r="16" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5268,7 +5296,7 @@
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
     </row>
-    <row r="17" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -5277,7 +5305,7 @@
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
     </row>
-    <row r="18" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -5286,7 +5314,7 @@
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
     </row>
-    <row r="19" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -5295,7 +5323,7 @@
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
     </row>
-    <row r="20" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -5304,7 +5332,7 @@
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -5326,36 +5354,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BBD36B-8DEB-4362-8948-9CFC06A35BB2}">
   <dimension ref="A1:AD81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.61328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.61328125" customWidth="1"/>
-    <col min="7" max="8" width="10.69140625" customWidth="1"/>
-    <col min="9" max="9" width="10.61328125" customWidth="1"/>
-    <col min="10" max="10" width="10.69140625" customWidth="1"/>
-    <col min="11" max="11" width="8.69140625" customWidth="1"/>
-    <col min="12" max="12" width="1.69140625" style="89" customWidth="1"/>
-    <col min="13" max="13" width="7.23046875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.69140625" customWidth="1"/>
-    <col min="15" max="16" width="12.69140625" customWidth="1"/>
-    <col min="17" max="17" width="12.07421875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.3046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.921875" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" customWidth="1"/>
+    <col min="7" max="8" width="10.73046875" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" customWidth="1"/>
+    <col min="10" max="10" width="10.73046875" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="1.73046875" style="93" customWidth="1"/>
+    <col min="13" max="13" width="7.19921875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.9296875" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="22.15234375" customWidth="1"/>
-    <col min="22" max="22" width="11.921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.1328125" customWidth="1"/>
+    <col min="22" max="22" width="11.9296875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.07421875" customWidth="1"/>
+    <col min="30" max="30" width="18.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5368,32 +5396,32 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="M1" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" s="82" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86"/>
+      <c r="F2" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="M2" s="1">
@@ -5424,32 +5452,32 @@
       <c r="AC2" s="48"/>
       <c r="AD2" s="48"/>
     </row>
-    <row r="3" spans="1:30" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:30" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="91"/>
+      <c r="C3" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="95"/>
       <c r="E3" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" s="75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3" s="5"/>
       <c r="N3" s="5"/>
@@ -5477,16 +5505,16 @@
       <c r="AC3" s="48"/>
       <c r="AD3" s="48"/>
     </row>
-    <row r="4" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B4" s="5"/>
       <c r="C4" s="47">
         <v>1</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="73">
         <v>25</v>
@@ -5525,17 +5553,17 @@
       <c r="AC4" s="53"/>
       <c r="AD4" s="53"/>
     </row>
-    <row r="5" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="47">
         <v>2</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="69">
         <v>1</v>
@@ -5574,17 +5602,17 @@
       <c r="AC5" s="53"/>
       <c r="AD5" s="53"/>
     </row>
-    <row r="6" spans="1:30" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:30" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="47">
         <v>3</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="65">
         <v>-200</v>
@@ -5619,17 +5647,17 @@
       <c r="AC6" s="53"/>
       <c r="AD6" s="48"/>
     </row>
-    <row r="7" spans="1:30" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="45">
         <v>4</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="61"/>
       <c r="G7" s="60"/>
@@ -5662,7 +5690,7 @@
       <c r="AC7" s="48"/>
       <c r="AD7" s="48"/>
     </row>
-    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5699,7 +5727,7 @@
       <c r="AC8" s="48"/>
       <c r="AD8" s="48"/>
     </row>
-    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5736,7 +5764,7 @@
       <c r="AC9" s="48"/>
       <c r="AD9" s="48"/>
     </row>
-    <row r="10" spans="1:30" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5772,15 +5800,15 @@
       <c r="AC10" s="48"/>
       <c r="AD10" s="48"/>
     </row>
-    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="88"/>
+      <c r="C11" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="92"/>
       <c r="E11" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -5813,11 +5841,11 @@
       <c r="AC11" s="48"/>
       <c r="AD11" s="48"/>
     </row>
-    <row r="12" spans="1:30" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:30" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="55"/>
@@ -5852,11 +5880,11 @@
       <c r="AC12" s="48"/>
       <c r="AD12" s="48"/>
     </row>
-    <row r="13" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="46"/>
       <c r="E13" s="5"/>
@@ -5891,11 +5919,11 @@
       <c r="AC13" s="48"/>
       <c r="AD13" s="48"/>
     </row>
-    <row r="14" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="5"/>
@@ -5930,11 +5958,11 @@
       <c r="AC14" s="48"/>
       <c r="AD14" s="48"/>
     </row>
-    <row r="15" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="5"/>
@@ -5969,7 +5997,7 @@
       <c r="AC15" s="48"/>
       <c r="AD15" s="48"/>
     </row>
-    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6006,7 +6034,7 @@
       <c r="AC16" s="48"/>
       <c r="AD16" s="48"/>
     </row>
-    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -6043,7 +6071,7 @@
       <c r="AC17" s="48"/>
       <c r="AD17" s="48"/>
     </row>
-    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6080,7 +6108,7 @@
       <c r="AC18" s="48"/>
       <c r="AD18" s="48"/>
     </row>
-    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6117,7 +6145,7 @@
       <c r="AC19" s="48"/>
       <c r="AD19" s="48"/>
     </row>
-    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -6154,7 +6182,7 @@
       <c r="AC20" s="48"/>
       <c r="AD20" s="48"/>
     </row>
-    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -6191,7 +6219,7 @@
       <c r="AC21" s="48"/>
       <c r="AD21" s="48"/>
     </row>
-    <row r="22" spans="1:30" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:30" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -6228,7 +6256,7 @@
       <c r="AC22" s="52"/>
       <c r="AD22" s="48"/>
     </row>
-    <row r="23" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -6265,7 +6293,7 @@
       <c r="AC23" s="51"/>
       <c r="AD23" s="48"/>
     </row>
-    <row r="24" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -6302,7 +6330,7 @@
       <c r="AC24" s="51"/>
       <c r="AD24" s="48"/>
     </row>
-    <row r="25" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="O25" s="47">
         <v>1.4769999999999996</v>
       </c>
@@ -6327,7 +6355,7 @@
       <c r="AC25" s="48"/>
       <c r="AD25" s="48"/>
     </row>
-    <row r="26" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="O26" s="47">
         <v>1.5419999999999996</v>
       </c>
@@ -6352,7 +6380,7 @@
       <c r="AC26" s="48"/>
       <c r="AD26" s="48"/>
     </row>
-    <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="O27" s="47">
         <v>1.6059999999999997</v>
       </c>
@@ -6377,7 +6405,7 @@
       <c r="AC27" s="48"/>
       <c r="AD27" s="48"/>
     </row>
-    <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="O28" s="47">
         <v>1.6709999999999996</v>
       </c>
@@ -6402,7 +6430,7 @@
       <c r="AC28" s="48"/>
       <c r="AD28" s="48"/>
     </row>
-    <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="O29" s="47">
         <v>1.7339999999999995</v>
       </c>
@@ -6427,7 +6455,7 @@
       <c r="AC29" s="48"/>
       <c r="AD29" s="48"/>
     </row>
-    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="O30" s="47">
         <v>1.7989999999999995</v>
       </c>
@@ -6452,7 +6480,7 @@
       <c r="AC30" s="48"/>
       <c r="AD30" s="48"/>
     </row>
-    <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="O31" s="47">
         <v>1.8629999999999995</v>
       </c>
@@ -6477,7 +6505,7 @@
       <c r="AC31" s="48"/>
       <c r="AD31" s="48"/>
     </row>
-    <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="O32" s="47">
         <v>1.9279999999999995</v>
       </c>
@@ -6502,7 +6530,7 @@
       <c r="AC32" s="48"/>
       <c r="AD32" s="48"/>
     </row>
-    <row r="33" spans="15:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="33" spans="15:30" ht="15" x14ac:dyDescent="0.45">
       <c r="O33" s="47">
         <v>1.9909999999999994</v>
       </c>
@@ -6527,7 +6555,7 @@
       <c r="AC33" s="48"/>
       <c r="AD33" s="48"/>
     </row>
-    <row r="34" spans="15:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="34" spans="15:30" ht="15" x14ac:dyDescent="0.45">
       <c r="O34" s="47">
         <v>2.0559999999999996</v>
       </c>
@@ -6552,7 +6580,7 @@
       <c r="AC34" s="48"/>
       <c r="AD34" s="48"/>
     </row>
-    <row r="35" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="35" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O35" s="47">
         <v>2.1199999999999997</v>
       </c>
@@ -6577,7 +6605,7 @@
       <c r="AC35" s="48"/>
       <c r="AD35" s="48"/>
     </row>
-    <row r="36" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="36" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O36" s="47">
         <v>2.1849999999999996</v>
       </c>
@@ -6602,7 +6630,7 @@
       <c r="AC36" s="48"/>
       <c r="AD36" s="48"/>
     </row>
-    <row r="37" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="37" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O37" s="47">
         <v>2.2479999999999998</v>
       </c>
@@ -6627,7 +6655,7 @@
       <c r="AC37" s="48"/>
       <c r="AD37" s="48"/>
     </row>
-    <row r="38" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="38" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O38" s="47">
         <v>2.3129999999999997</v>
       </c>
@@ -6652,7 +6680,7 @@
       <c r="AC38" s="48"/>
       <c r="AD38" s="48"/>
     </row>
-    <row r="39" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="39" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O39" s="47">
         <v>2.3769999999999998</v>
       </c>
@@ -6677,7 +6705,7 @@
       <c r="AC39" s="48"/>
       <c r="AD39" s="48"/>
     </row>
-    <row r="40" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="40" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O40" s="47">
         <v>2.4419999999999997</v>
       </c>
@@ -6689,7 +6717,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="41" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="41" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O41" s="47">
         <v>2.5049999999999999</v>
       </c>
@@ -6701,7 +6729,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="42" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="42" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O42" s="47">
         <v>2.57</v>
       </c>
@@ -6713,7 +6741,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="43" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="43" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O43" s="47">
         <v>2.6339999999999999</v>
       </c>
@@ -6725,7 +6753,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="44" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="44" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O44" s="47">
         <v>2.6989999999999998</v>
       </c>
@@ -6737,7 +6765,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="45" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="45" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O45" s="47">
         <v>2.762</v>
       </c>
@@ -6749,7 +6777,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="46" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="46" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O46" s="47">
         <v>2.827</v>
       </c>
@@ -6761,7 +6789,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="47" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="47" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O47" s="47">
         <v>2.891</v>
       </c>
@@ -6773,7 +6801,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="48" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="48" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O48" s="47">
         <v>2.956</v>
       </c>
@@ -6785,7 +6813,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="49" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="49" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O49" s="47">
         <v>3.0190000000000001</v>
       </c>
@@ -6797,7 +6825,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="50" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="50" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O50" s="47">
         <v>3.0840000000000001</v>
       </c>
@@ -6809,7 +6837,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="51" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="51" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O51" s="47">
         <v>3.1480000000000001</v>
       </c>
@@ -6821,7 +6849,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="52" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="52" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O52" s="47">
         <v>3.2130000000000001</v>
       </c>
@@ -6833,7 +6861,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="53" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="53" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O53" s="47">
         <v>3.2760000000000002</v>
       </c>
@@ -6845,7 +6873,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="54" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="54" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O54" s="47">
         <v>3.3410000000000002</v>
       </c>
@@ -6857,7 +6885,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="55" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="55" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O55" s="47">
         <v>3.4050000000000002</v>
       </c>
@@ -6869,7 +6897,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="56" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="56" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O56" s="47">
         <v>3.47</v>
       </c>
@@ -6881,7 +6909,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="57" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="57" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O57" s="47">
         <v>3.5330000000000004</v>
       </c>
@@ -6893,7 +6921,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="58" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="58" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O58" s="47">
         <v>3.5980000000000003</v>
       </c>
@@ -6905,7 +6933,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="59" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="59" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O59" s="47">
         <v>3.6620000000000004</v>
       </c>
@@ -6917,7 +6945,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="60" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="60" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O60" s="47">
         <v>3.7260000000000004</v>
       </c>
@@ -6929,7 +6957,7 @@
         <v>2691000</v>
       </c>
     </row>
-    <row r="61" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="61" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O61" s="47">
         <v>3.7900000000000005</v>
       </c>
@@ -6941,7 +6969,7 @@
         <v>2544000</v>
       </c>
     </row>
-    <row r="62" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="62" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O62" s="47">
         <v>3.8550000000000004</v>
       </c>
@@ -6953,7 +6981,7 @@
         <v>2397000</v>
       </c>
     </row>
-    <row r="63" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="63" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O63" s="47">
         <v>3.9190000000000005</v>
       </c>
@@ -6965,7 +6993,7 @@
         <v>2177000</v>
       </c>
     </row>
-    <row r="64" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="64" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O64" s="47">
         <v>3.9830000000000005</v>
       </c>
@@ -6977,7 +7005,7 @@
         <v>1884000</v>
       </c>
     </row>
-    <row r="65" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="65" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O65" s="47">
         <v>4.0470000000000006</v>
       </c>
@@ -6989,7 +7017,7 @@
         <v>1591000</v>
       </c>
     </row>
-    <row r="66" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="66" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O66" s="47">
         <v>4.112000000000001</v>
       </c>
@@ -7001,7 +7029,7 @@
         <v>1444000</v>
       </c>
     </row>
-    <row r="67" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="67" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O67" s="47">
         <v>4.1770000000000014</v>
       </c>
@@ -7013,7 +7041,7 @@
         <v>1371000</v>
       </c>
     </row>
-    <row r="68" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="68" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O68" s="47">
         <v>4.2400000000000011</v>
       </c>
@@ -7025,7 +7053,7 @@
         <v>1371000</v>
       </c>
     </row>
-    <row r="69" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="69" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O69" s="47">
         <v>4.3050000000000015</v>
       </c>
@@ -7037,7 +7065,7 @@
         <v>1224000</v>
       </c>
     </row>
-    <row r="70" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="70" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O70" s="47">
         <v>4.3690000000000015</v>
       </c>
@@ -7049,7 +7077,7 @@
         <v>1151000</v>
       </c>
     </row>
-    <row r="71" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="71" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O71" s="47">
         <v>4.4340000000000019</v>
       </c>
@@ -7061,7 +7089,7 @@
         <v>1078000</v>
       </c>
     </row>
-    <row r="72" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="72" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O72" s="47">
         <v>4.4970000000000017</v>
       </c>
@@ -7073,7 +7101,7 @@
         <v>1003999.9999999999</v>
       </c>
     </row>
-    <row r="73" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="73" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O73" s="47">
         <v>4.5620000000000021</v>
       </c>
@@ -7085,7 +7113,7 @@
         <v>931000</v>
       </c>
     </row>
-    <row r="74" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="74" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O74" s="47">
         <v>4.6260000000000021</v>
       </c>
@@ -7097,7 +7125,7 @@
         <v>858000</v>
       </c>
     </row>
-    <row r="75" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="75" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O75" s="47">
         <v>4.6910000000000025</v>
       </c>
@@ -7109,7 +7137,7 @@
         <v>711000</v>
       </c>
     </row>
-    <row r="76" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="76" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O76" s="47">
         <v>4.7540000000000022</v>
       </c>
@@ -7121,7 +7149,7 @@
         <v>565000</v>
       </c>
     </row>
-    <row r="77" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="77" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O77" s="47">
         <v>4.8190000000000026</v>
       </c>
@@ -7133,7 +7161,7 @@
         <v>418000</v>
       </c>
     </row>
-    <row r="78" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="78" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O78" s="47">
         <v>4.8830000000000027</v>
       </c>
@@ -7145,7 +7173,7 @@
         <v>271000</v>
       </c>
     </row>
-    <row r="79" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="79" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O79" s="47">
         <v>4.9480000000000031</v>
       </c>
@@ -7157,7 +7185,7 @@
         <v>198000</v>
       </c>
     </row>
-    <row r="80" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="80" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O80" s="47">
         <v>5.0110000000000028</v>
       </c>
@@ -7169,7 +7197,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="81" spans="15:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="15:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="O81" s="45">
         <v>5.0740000000000025</v>
       </c>
@@ -7197,40 +7225,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C8E3EE-99AB-4972-A73D-D1EFEBD6EA1A}">
   <dimension ref="A1:AK35"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L29" sqref="K29:L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.3046875" customWidth="1"/>
-    <col min="8" max="8" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.69140625" customWidth="1"/>
-    <col min="10" max="10" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.15234375" customWidth="1"/>
-    <col min="14" max="14" width="5.84375" customWidth="1"/>
-    <col min="15" max="15" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.3046875" customWidth="1"/>
-    <col min="18" max="18" width="14.07421875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.07421875" customWidth="1"/>
+    <col min="12" max="12" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1328125" customWidth="1"/>
+    <col min="14" max="14" width="5.86328125" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.06640625" customWidth="1"/>
     <col min="20" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="28.07421875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.3046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.23046875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.61328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.53515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="83.69140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.06640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.53125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="83.6640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.23046875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="81.921875" customWidth="1"/>
-    <col min="39" max="39" width="9.15234375" customWidth="1"/>
+    <col min="34" max="34" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="81.9296875" customWidth="1"/>
+    <col min="39" max="39" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" ht="15" x14ac:dyDescent="0.45">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -7262,7 +7290,7 @@
         <v>28</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>30</v>
@@ -7277,16 +7305,16 @@
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
       <c r="R1" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="Z1" s="8"/>
       <c r="AD1" s="8"/>
@@ -7295,7 +7323,7 @@
       <c r="AG1" s="8"/>
       <c r="AJ1" s="6"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
         <f>COUNTIF(B2:B82, "&lt;&gt;")</f>
         <v>8</v>
@@ -7311,9 +7339,9 @@
         <f>0*10^-3</f>
         <v>0</v>
       </c>
-      <c r="E2" s="10">
-        <f>3*10^-3</f>
-        <v>3.0000000000000001E-3</v>
+      <c r="E2" s="1">
+        <f>2.5*10^-3</f>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F2" s="10">
         <v>0</v>
@@ -7332,7 +7360,7 @@
         <v>3000000</v>
       </c>
       <c r="K2" s="35">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="L2" s="10">
         <f t="shared" ref="L2:L7" si="0">SQRT((D3-D2)^2+(C3-C2)^2)</f>
@@ -7340,11 +7368,11 @@
       </c>
       <c r="M2" s="10">
         <f>ROUNDUP($K$2*(L2/SUM($L$2:$L$7)),0)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N2" s="10">
         <f>IF(M2=0,0,M2-1)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -7366,7 +7394,7 @@
       <c r="AG2" s="5"/>
       <c r="AJ2" s="7"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>2</v>
@@ -7380,8 +7408,8 @@
         <v>4.9399999999999999E-2</v>
       </c>
       <c r="E3" s="1">
-        <f>3*10^-3</f>
-        <v>3.0000000000000001E-3</v>
+        <f t="shared" ref="E3:E8" si="1">2.5*10^-3</f>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -7396,7 +7424,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="39">
-        <f t="shared" ref="J3:J4" si="1">3*10^6</f>
+        <f t="shared" ref="J3:J4" si="2">3*10^6</f>
         <v>3000000</v>
       </c>
       <c r="K3" s="36"/>
@@ -7405,12 +7433,12 @@
         <v>0.91363000000000005</v>
       </c>
       <c r="M3" s="10">
-        <f t="shared" ref="M3:M8" si="2">ROUNDUP($K$2*(L3/SUM($L$2:$L$7)),0)</f>
-        <v>45</v>
+        <f t="shared" ref="M3:M8" si="3">ROUNDUP($K$2*(L3/SUM($L$2:$L$7)),0)</f>
+        <v>221</v>
       </c>
       <c r="N3" s="10">
-        <f t="shared" ref="N3:N8" si="3">IF(M3=0,0,M3-1)</f>
-        <v>44</v>
+        <f t="shared" ref="N3:N8" si="4">IF(M3=0,0,M3-1)</f>
+        <v>220</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="2"/>
@@ -7425,7 +7453,7 @@
       <c r="AG3" s="5"/>
       <c r="AJ3" s="7"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="10">
         <v>3</v>
@@ -7438,8 +7466,8 @@
         <f>49.4*10^-3</f>
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="E4" s="10">
-        <f>2.5*10^-3</f>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F4" s="10">
@@ -7455,7 +7483,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
       <c r="K4" s="37"/>
@@ -7464,12 +7492,12 @@
         <v>6.4456538070237671E-2</v>
       </c>
       <c r="M4" s="10">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="N4" s="10">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="2"/>
@@ -7483,7 +7511,7 @@
       <c r="AG4" s="5"/>
       <c r="AJ4" s="7"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>4</v>
@@ -7497,8 +7525,8 @@
         <v>1.7170000000000001E-2</v>
       </c>
       <c r="E5" s="1">
-        <f>4*10^-3</f>
-        <v>4.0000000000000001E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -7519,11 +7547,11 @@
         <v>2.3608896628178177E-3</v>
       </c>
       <c r="M5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N5" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O5" s="5"/>
@@ -7538,7 +7566,7 @@
       <c r="AG5" s="5"/>
       <c r="AJ5" s="7"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="10">
         <v>5</v>
@@ -7551,9 +7579,9 @@
         <f>16.24*10^-3</f>
         <v>1.6239999999999997E-2</v>
       </c>
-      <c r="E6" s="10">
-        <f>4*10^-3</f>
-        <v>4.0000000000000001E-3</v>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
@@ -7573,11 +7601,11 @@
         <v>2.1949259668607819E-3</v>
       </c>
       <c r="M6" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N6" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O6" s="5"/>
@@ -7592,7 +7620,7 @@
       <c r="AG6" s="5"/>
       <c r="AJ6" s="7"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>6</v>
@@ -7606,8 +7634,8 @@
         <v>1.585E-2</v>
       </c>
       <c r="E7" s="1">
-        <f>4*10^-3</f>
-        <v>4.0000000000000001E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -7631,11 +7659,11 @@
         <v>2.1718655575335469E-3</v>
       </c>
       <c r="M7" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N7" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O7" s="5"/>
@@ -7650,7 +7678,7 @@
       <c r="AG7" s="5"/>
       <c r="AJ7" s="7"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="10">
         <v>7</v>
@@ -7663,9 +7691,9 @@
         <f>15.94*10^-3</f>
         <v>1.5939999999999999E-2</v>
       </c>
-      <c r="E8" s="10">
-        <f>3*10^-3</f>
-        <v>3.0000000000000001E-3</v>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
@@ -7682,11 +7710,11 @@
       <c r="K8" s="37"/>
       <c r="L8" s="34"/>
       <c r="M8" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N8" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O8" s="5"/>
@@ -7701,7 +7729,7 @@
       <c r="AG8" s="5"/>
       <c r="AJ8" s="7"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>8</v>
@@ -7741,7 +7769,7 @@
       <c r="AG9" s="5"/>
       <c r="AJ9" s="7"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -7774,7 +7802,7 @@
       <c r="AG10" s="5"/>
       <c r="AJ10" s="7"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -7807,7 +7835,7 @@
       <c r="AG11" s="5"/>
       <c r="AJ11" s="7"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -7842,7 +7870,7 @@
       <c r="AG12" s="5"/>
       <c r="AJ12" s="7"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -7877,7 +7905,7 @@
       <c r="AG13" s="5"/>
       <c r="AJ13" s="7"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -7912,7 +7940,7 @@
       <c r="AG14" s="5"/>
       <c r="AJ14" s="7"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -7947,7 +7975,7 @@
       <c r="AG15" s="5"/>
       <c r="AJ15" s="7"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -7982,7 +8010,7 @@
       <c r="AG16" s="5"/>
       <c r="AJ16" s="7"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -8017,7 +8045,7 @@
       <c r="AG17" s="5"/>
       <c r="AJ17" s="7"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -8030,7 +8058,7 @@
       <c r="J18" s="29"/>
       <c r="K18" s="38">
         <f>SUM(M2:M18)</f>
-        <v>55</v>
+        <v>252</v>
       </c>
       <c r="L18" s="33"/>
       <c r="M18" s="1"/>
@@ -8055,7 +8083,7 @@
       <c r="AG18" s="5"/>
       <c r="AJ18" s="7"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -8090,7 +8118,7 @@
       <c r="AG19" s="5"/>
       <c r="AJ19" s="7"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8127,7 +8155,7 @@
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8164,7 +8192,7 @@
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -8184,7 +8212,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -8204,7 +8232,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -8224,7 +8252,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -8244,7 +8272,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -8264,7 +8292,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -8284,7 +8312,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -8304,14 +8332,14 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="96"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -8324,7 +8352,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -8344,7 +8372,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -8364,7 +8392,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -8384,7 +8412,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8404,7 +8432,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8424,7 +8452,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>

--- a/TESTE ATUALIZADO/Livro1.xlsx
+++ b/TESTE ATUALIZADO/Livro1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\Atualizado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Documentos\Uni\4 ano\1 semestre\Mecânica Estrutural\Trabalho Estrutural\Estrutural clonado\Estrutural\TESTE ATUALIZADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DB46C7-DAD4-4F2D-997A-7A0F7F323E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9367F0-B33A-4984-B837-38E5473B12B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="2" r:id="rId1"/>
@@ -1073,6 +1073,9 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1098,9 +1101,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1123,7 +1123,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2026,7 +2026,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3617,8 +3617,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="42229985" y="856433"/>
-          <a:ext cx="5078821" cy="7395436"/>
+          <a:off x="41895555" y="876556"/>
+          <a:ext cx="5078822" cy="7513300"/>
           <a:chOff x="16846428" y="389059"/>
           <a:chExt cx="2086708" cy="2509107"/>
         </a:xfrm>
@@ -4615,7 +4615,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -4917,99 +4917,99 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="13"/>
     </row>
-    <row r="3" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B5" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="45" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2" ht="45" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B10" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="13"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="13"/>
     </row>
-    <row r="19" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B20" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B21" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="16"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="13"/>
     </row>
   </sheetData>
@@ -5025,17 +5025,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.9296875" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="20.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.921875" customWidth="1"/>
+    <col min="3" max="3" width="31.61328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3828125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>35</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18">
         <f>COUNTIF(D1:BE1, "&lt;&gt;")</f>
         <v>5</v>
@@ -5083,7 +5083,7 @@
       </c>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C3" s="19" t="s">
         <v>42</v>
       </c>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="I4" s="40"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="19" t="s">
         <v>43</v>
       </c>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="I5" s="40"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C6" s="19" t="s">
         <v>44</v>
       </c>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="I6" s="40"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C7" s="19" t="s">
         <v>45</v>
       </c>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="I7" s="40"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C8" s="19" t="s">
         <v>46</v>
       </c>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="I8" s="40"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C9" s="40"/>
       <c r="D9" s="9" t="s">
         <v>32</v>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="I9" s="40"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -5240,7 +5240,7 @@
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5249,27 +5249,27 @@
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
     </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="87"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="42"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="42"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="42"/>
@@ -5278,7 +5278,7 @@
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5287,7 +5287,7 @@
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5296,7 +5296,7 @@
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
     </row>
-    <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -5305,7 +5305,7 @@
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
     </row>
-    <row r="18" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -5314,7 +5314,7 @@
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
     </row>
-    <row r="19" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -5323,7 +5323,7 @@
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
     </row>
-    <row r="20" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -5332,7 +5332,7 @@
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -5358,32 +5358,32 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.61328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.23046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" customWidth="1"/>
-    <col min="7" max="8" width="10.73046875" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" customWidth="1"/>
-    <col min="10" max="10" width="10.73046875" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="1.73046875" style="93" customWidth="1"/>
-    <col min="13" max="13" width="7.19921875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="16" width="12.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.9296875" customWidth="1"/>
+    <col min="6" max="6" width="10.61328125" customWidth="1"/>
+    <col min="7" max="8" width="10.69140625" customWidth="1"/>
+    <col min="9" max="9" width="10.61328125" customWidth="1"/>
+    <col min="10" max="10" width="10.69140625" customWidth="1"/>
+    <col min="11" max="11" width="8.69140625" customWidth="1"/>
+    <col min="12" max="12" width="1.69140625" style="94" customWidth="1"/>
+    <col min="13" max="13" width="7.23046875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.69140625" customWidth="1"/>
+    <col min="15" max="16" width="12.69140625" customWidth="1"/>
+    <col min="17" max="17" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.921875" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="22.1328125" customWidth="1"/>
-    <col min="22" max="22" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.15234375" customWidth="1"/>
+    <col min="22" max="22" width="11.921875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.06640625" customWidth="1"/>
+    <col min="30" max="30" width="18.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5408,7 +5408,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:30" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="74" t="s">
         <v>73</v>
       </c>
@@ -5416,12 +5416,12 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="M2" s="1">
@@ -5452,15 +5452,15 @@
       <c r="AC2" s="48"/>
       <c r="AD2" s="48"/>
     </row>
-    <row r="3" spans="1:30" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="95"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="78" t="s">
         <v>70</v>
       </c>
@@ -5505,7 +5505,7 @@
       <c r="AC3" s="48"/>
       <c r="AD3" s="48"/>
     </row>
-    <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="47">
         <v>1</v>
@@ -5553,7 +5553,7 @@
       <c r="AC4" s="53"/>
       <c r="AD4" s="53"/>
     </row>
-    <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="47">
@@ -5602,7 +5602,7 @@
       <c r="AC5" s="53"/>
       <c r="AD5" s="53"/>
     </row>
-    <row r="6" spans="1:30" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="47">
@@ -5647,7 +5647,7 @@
       <c r="AC6" s="53"/>
       <c r="AD6" s="48"/>
     </row>
-    <row r="7" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:30" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="45">
@@ -5690,7 +5690,7 @@
       <c r="AC7" s="48"/>
       <c r="AD7" s="48"/>
     </row>
-    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5727,7 +5727,7 @@
       <c r="AC8" s="48"/>
       <c r="AD8" s="48"/>
     </row>
-    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5764,7 +5764,7 @@
       <c r="AC9" s="48"/>
       <c r="AD9" s="48"/>
     </row>
-    <row r="10" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:30" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5800,13 +5800,13 @@
       <c r="AC10" s="48"/>
       <c r="AD10" s="48"/>
     </row>
-    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="92"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="56" t="s">
         <v>53</v>
       </c>
@@ -5841,7 +5841,7 @@
       <c r="AC11" s="48"/>
       <c r="AD11" s="48"/>
     </row>
-    <row r="12" spans="1:30" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="47" t="s">
@@ -5880,7 +5880,7 @@
       <c r="AC12" s="48"/>
       <c r="AD12" s="48"/>
     </row>
-    <row r="13" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="47" t="s">
@@ -5919,7 +5919,7 @@
       <c r="AC13" s="48"/>
       <c r="AD13" s="48"/>
     </row>
-    <row r="14" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="47" t="s">
@@ -5958,7 +5958,7 @@
       <c r="AC14" s="48"/>
       <c r="AD14" s="48"/>
     </row>
-    <row r="15" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="45" t="s">
@@ -5997,7 +5997,7 @@
       <c r="AC15" s="48"/>
       <c r="AD15" s="48"/>
     </row>
-    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6034,7 +6034,7 @@
       <c r="AC16" s="48"/>
       <c r="AD16" s="48"/>
     </row>
-    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -6071,7 +6071,7 @@
       <c r="AC17" s="48"/>
       <c r="AD17" s="48"/>
     </row>
-    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6108,7 +6108,7 @@
       <c r="AC18" s="48"/>
       <c r="AD18" s="48"/>
     </row>
-    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6145,7 +6145,7 @@
       <c r="AC19" s="48"/>
       <c r="AD19" s="48"/>
     </row>
-    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -6182,7 +6182,7 @@
       <c r="AC20" s="48"/>
       <c r="AD20" s="48"/>
     </row>
-    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -6219,7 +6219,7 @@
       <c r="AC21" s="48"/>
       <c r="AD21" s="48"/>
     </row>
-    <row r="22" spans="1:30" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -6256,7 +6256,7 @@
       <c r="AC22" s="52"/>
       <c r="AD22" s="48"/>
     </row>
-    <row r="23" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -6293,7 +6293,7 @@
       <c r="AC23" s="51"/>
       <c r="AD23" s="48"/>
     </row>
-    <row r="24" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -6330,7 +6330,7 @@
       <c r="AC24" s="51"/>
       <c r="AD24" s="48"/>
     </row>
-    <row r="25" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
       <c r="O25" s="47">
         <v>1.4769999999999996</v>
       </c>
@@ -6355,7 +6355,7 @@
       <c r="AC25" s="48"/>
       <c r="AD25" s="48"/>
     </row>
-    <row r="26" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
       <c r="O26" s="47">
         <v>1.5419999999999996</v>
       </c>
@@ -6380,7 +6380,7 @@
       <c r="AC26" s="48"/>
       <c r="AD26" s="48"/>
     </row>
-    <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="O27" s="47">
         <v>1.6059999999999997</v>
       </c>
@@ -6405,7 +6405,7 @@
       <c r="AC27" s="48"/>
       <c r="AD27" s="48"/>
     </row>
-    <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="O28" s="47">
         <v>1.6709999999999996</v>
       </c>
@@ -6430,7 +6430,7 @@
       <c r="AC28" s="48"/>
       <c r="AD28" s="48"/>
     </row>
-    <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="O29" s="47">
         <v>1.7339999999999995</v>
       </c>
@@ -6455,7 +6455,7 @@
       <c r="AC29" s="48"/>
       <c r="AD29" s="48"/>
     </row>
-    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="O30" s="47">
         <v>1.7989999999999995</v>
       </c>
@@ -6480,7 +6480,7 @@
       <c r="AC30" s="48"/>
       <c r="AD30" s="48"/>
     </row>
-    <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="O31" s="47">
         <v>1.8629999999999995</v>
       </c>
@@ -6505,7 +6505,7 @@
       <c r="AC31" s="48"/>
       <c r="AD31" s="48"/>
     </row>
-    <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.4">
       <c r="O32" s="47">
         <v>1.9279999999999995</v>
       </c>
@@ -6530,7 +6530,7 @@
       <c r="AC32" s="48"/>
       <c r="AD32" s="48"/>
     </row>
-    <row r="33" spans="15:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="33" spans="15:30" ht="15" x14ac:dyDescent="0.4">
       <c r="O33" s="47">
         <v>1.9909999999999994</v>
       </c>
@@ -6555,7 +6555,7 @@
       <c r="AC33" s="48"/>
       <c r="AD33" s="48"/>
     </row>
-    <row r="34" spans="15:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="34" spans="15:30" ht="15" x14ac:dyDescent="0.4">
       <c r="O34" s="47">
         <v>2.0559999999999996</v>
       </c>
@@ -6580,7 +6580,7 @@
       <c r="AC34" s="48"/>
       <c r="AD34" s="48"/>
     </row>
-    <row r="35" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="35" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O35" s="47">
         <v>2.1199999999999997</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="AC35" s="48"/>
       <c r="AD35" s="48"/>
     </row>
-    <row r="36" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="36" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O36" s="47">
         <v>2.1849999999999996</v>
       </c>
@@ -6630,7 +6630,7 @@
       <c r="AC36" s="48"/>
       <c r="AD36" s="48"/>
     </row>
-    <row r="37" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="37" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O37" s="47">
         <v>2.2479999999999998</v>
       </c>
@@ -6655,7 +6655,7 @@
       <c r="AC37" s="48"/>
       <c r="AD37" s="48"/>
     </row>
-    <row r="38" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="38" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O38" s="47">
         <v>2.3129999999999997</v>
       </c>
@@ -6680,7 +6680,7 @@
       <c r="AC38" s="48"/>
       <c r="AD38" s="48"/>
     </row>
-    <row r="39" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="39" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O39" s="47">
         <v>2.3769999999999998</v>
       </c>
@@ -6705,7 +6705,7 @@
       <c r="AC39" s="48"/>
       <c r="AD39" s="48"/>
     </row>
-    <row r="40" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="40" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O40" s="47">
         <v>2.4419999999999997</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="41" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="41" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O41" s="47">
         <v>2.5049999999999999</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="42" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="42" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O42" s="47">
         <v>2.57</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="43" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="43" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O43" s="47">
         <v>2.6339999999999999</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="44" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="44" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O44" s="47">
         <v>2.6989999999999998</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="45" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="45" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O45" s="47">
         <v>2.762</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="46" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="46" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O46" s="47">
         <v>2.827</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="47" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="47" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O47" s="47">
         <v>2.891</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="48" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="48" spans="15:30" x14ac:dyDescent="0.4">
       <c r="O48" s="47">
         <v>2.956</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="49" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="49" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O49" s="47">
         <v>3.0190000000000001</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="50" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="50" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O50" s="47">
         <v>3.0840000000000001</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="51" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="51" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O51" s="47">
         <v>3.1480000000000001</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="52" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="52" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O52" s="47">
         <v>3.2130000000000001</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="53" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="53" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O53" s="47">
         <v>3.2760000000000002</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="54" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="54" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O54" s="47">
         <v>3.3410000000000002</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="55" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="55" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O55" s="47">
         <v>3.4050000000000002</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="56" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="56" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O56" s="47">
         <v>3.47</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="57" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="57" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O57" s="47">
         <v>3.5330000000000004</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="58" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="58" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O58" s="47">
         <v>3.5980000000000003</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="59" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="59" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O59" s="47">
         <v>3.6620000000000004</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="60" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="60" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O60" s="47">
         <v>3.7260000000000004</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>2691000</v>
       </c>
     </row>
-    <row r="61" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="61" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O61" s="47">
         <v>3.7900000000000005</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>2544000</v>
       </c>
     </row>
-    <row r="62" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="62" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O62" s="47">
         <v>3.8550000000000004</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>2397000</v>
       </c>
     </row>
-    <row r="63" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="63" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O63" s="47">
         <v>3.9190000000000005</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>2177000</v>
       </c>
     </row>
-    <row r="64" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="64" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O64" s="47">
         <v>3.9830000000000005</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>1884000</v>
       </c>
     </row>
-    <row r="65" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="65" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O65" s="47">
         <v>4.0470000000000006</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>1591000</v>
       </c>
     </row>
-    <row r="66" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="66" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O66" s="47">
         <v>4.112000000000001</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>1444000</v>
       </c>
     </row>
-    <row r="67" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="67" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O67" s="47">
         <v>4.1770000000000014</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>1371000</v>
       </c>
     </row>
-    <row r="68" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="68" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O68" s="47">
         <v>4.2400000000000011</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>1371000</v>
       </c>
     </row>
-    <row r="69" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="69" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O69" s="47">
         <v>4.3050000000000015</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>1224000</v>
       </c>
     </row>
-    <row r="70" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="70" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O70" s="47">
         <v>4.3690000000000015</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>1151000</v>
       </c>
     </row>
-    <row r="71" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="71" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O71" s="47">
         <v>4.4340000000000019</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>1078000</v>
       </c>
     </row>
-    <row r="72" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="72" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O72" s="47">
         <v>4.4970000000000017</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>1003999.9999999999</v>
       </c>
     </row>
-    <row r="73" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="73" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O73" s="47">
         <v>4.5620000000000021</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>931000</v>
       </c>
     </row>
-    <row r="74" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="74" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O74" s="47">
         <v>4.6260000000000021</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>858000</v>
       </c>
     </row>
-    <row r="75" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="75" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O75" s="47">
         <v>4.6910000000000025</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>711000</v>
       </c>
     </row>
-    <row r="76" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="76" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O76" s="47">
         <v>4.7540000000000022</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>565000</v>
       </c>
     </row>
-    <row r="77" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="77" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O77" s="47">
         <v>4.8190000000000026</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>418000</v>
       </c>
     </row>
-    <row r="78" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="78" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O78" s="47">
         <v>4.8830000000000027</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>271000</v>
       </c>
     </row>
-    <row r="79" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="79" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O79" s="47">
         <v>4.9480000000000031</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>198000</v>
       </c>
     </row>
-    <row r="80" spans="15:17" x14ac:dyDescent="0.45">
+    <row r="80" spans="15:17" x14ac:dyDescent="0.4">
       <c r="O80" s="47">
         <v>5.0110000000000028</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="81" spans="15:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="15:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="O81" s="45">
         <v>5.0740000000000025</v>
       </c>
@@ -7226,39 +7226,39 @@
   <dimension ref="A1:AK35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L29" sqref="K29:L29"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3046875" customWidth="1"/>
+    <col min="8" max="8" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.69140625" customWidth="1"/>
+    <col min="10" max="10" width="12.69140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1328125" customWidth="1"/>
-    <col min="14" max="14" width="5.86328125" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.33203125" customWidth="1"/>
-    <col min="18" max="18" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.06640625" customWidth="1"/>
+    <col min="12" max="12" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.15234375" customWidth="1"/>
+    <col min="14" max="14" width="5.84375" customWidth="1"/>
+    <col min="15" max="15" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.3046875" customWidth="1"/>
+    <col min="18" max="18" width="14.07421875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.07421875" customWidth="1"/>
     <col min="20" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="28.06640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.53125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.07421875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.23046875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.61328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.53515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="83.69140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="81.9296875" customWidth="1"/>
-    <col min="39" max="39" width="9.1328125" customWidth="1"/>
+    <col min="34" max="34" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="81.921875" customWidth="1"/>
+    <col min="39" max="39" width="9.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -7323,7 +7323,7 @@
       <c r="AG1" s="8"/>
       <c r="AJ1" s="6"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A2" s="10">
         <f>COUNTIF(B2:B82, "&lt;&gt;")</f>
         <v>8</v>
@@ -7360,7 +7360,7 @@
         <v>3000000</v>
       </c>
       <c r="K2" s="35">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L2" s="10">
         <f t="shared" ref="L2:L7" si="0">SQRT((D3-D2)^2+(C3-C2)^2)</f>
@@ -7368,11 +7368,11 @@
       </c>
       <c r="M2" s="10">
         <f>ROUNDUP($K$2*(L2/SUM($L$2:$L$7)),0)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N2" s="10">
         <f>IF(M2=0,0,M2-1)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -7394,7 +7394,7 @@
       <c r="AG2" s="5"/>
       <c r="AJ2" s="7"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>2</v>
@@ -7434,11 +7434,11 @@
       </c>
       <c r="M3" s="10">
         <f t="shared" ref="M3:M8" si="3">ROUNDUP($K$2*(L3/SUM($L$2:$L$7)),0)</f>
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="N3" s="10">
         <f t="shared" ref="N3:N8" si="4">IF(M3=0,0,M3-1)</f>
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="2"/>
@@ -7453,7 +7453,7 @@
       <c r="AG3" s="5"/>
       <c r="AJ3" s="7"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="10">
         <v>3</v>
@@ -7493,11 +7493,11 @@
       </c>
       <c r="M4" s="10">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="2"/>
@@ -7511,7 +7511,7 @@
       <c r="AG4" s="5"/>
       <c r="AJ4" s="7"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>4</v>
@@ -7566,7 +7566,7 @@
       <c r="AG5" s="5"/>
       <c r="AJ5" s="7"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="10">
         <v>5</v>
@@ -7620,7 +7620,7 @@
       <c r="AG6" s="5"/>
       <c r="AJ6" s="7"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>6</v>
@@ -7678,7 +7678,7 @@
       <c r="AG7" s="5"/>
       <c r="AJ7" s="7"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="10">
         <v>7</v>
@@ -7729,7 +7729,7 @@
       <c r="AG8" s="5"/>
       <c r="AJ8" s="7"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>8</v>
@@ -7769,7 +7769,7 @@
       <c r="AG9" s="5"/>
       <c r="AJ9" s="7"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -7802,7 +7802,7 @@
       <c r="AG10" s="5"/>
       <c r="AJ10" s="7"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -7835,7 +7835,7 @@
       <c r="AG11" s="5"/>
       <c r="AJ11" s="7"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -7870,7 +7870,7 @@
       <c r="AG12" s="5"/>
       <c r="AJ12" s="7"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -7905,7 +7905,7 @@
       <c r="AG13" s="5"/>
       <c r="AJ13" s="7"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -7940,7 +7940,7 @@
       <c r="AG14" s="5"/>
       <c r="AJ14" s="7"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -7975,7 +7975,7 @@
       <c r="AG15" s="5"/>
       <c r="AJ15" s="7"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -8010,7 +8010,7 @@
       <c r="AG16" s="5"/>
       <c r="AJ16" s="7"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -8045,7 +8045,7 @@
       <c r="AG17" s="5"/>
       <c r="AJ17" s="7"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -8058,7 +8058,7 @@
       <c r="J18" s="29"/>
       <c r="K18" s="38">
         <f>SUM(M2:M18)</f>
-        <v>252</v>
+        <v>104</v>
       </c>
       <c r="L18" s="33"/>
       <c r="M18" s="1"/>
@@ -8083,7 +8083,7 @@
       <c r="AG18" s="5"/>
       <c r="AJ18" s="7"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -8118,7 +8118,7 @@
       <c r="AG19" s="5"/>
       <c r="AJ19" s="7"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8155,7 +8155,7 @@
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8192,7 +8192,7 @@
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -8212,7 +8212,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -8232,7 +8232,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -8252,7 +8252,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -8272,7 +8272,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -8292,7 +8292,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -8312,7 +8312,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -8332,14 +8332,14 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="96"/>
+      <c r="G29" s="87"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -8352,7 +8352,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -8372,7 +8372,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -8392,7 +8392,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -8412,7 +8412,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8432,7 +8432,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8452,7 +8452,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>

--- a/TESTE ATUALIZADO/Livro1.xlsx
+++ b/TESTE ATUALIZADO/Livro1.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Documentos\Uni\4 ano\1 semestre\Mecânica Estrutural\Trabalho Estrutural\Estrutural clonado\Estrutural\TESTE ATUALIZADO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\Atualizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9367F0-B33A-4984-B837-38E5473B12B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BB3396-09B6-4DFE-96F3-F9FE050B15E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="4" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="2" r:id="rId1"/>
     <sheet name="Materials" sheetId="3" r:id="rId2"/>
     <sheet name="Loading" sheetId="5" r:id="rId3"/>
     <sheet name="Input" sheetId="1" r:id="rId4"/>
+    <sheet name="Folha1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Points</t>
   </si>
@@ -132,9 +133,6 @@
   </si>
   <si>
     <t xml:space="preserve">Distance </t>
-  </si>
-  <si>
-    <t>AL6061-T6 @ 204ºC</t>
   </si>
   <si>
     <t>AL6061-T6 @ 316ºC</t>
@@ -269,7 +267,22 @@
     <t>PressureCol</t>
   </si>
   <si>
-    <t>AL6061-T6 @ 220ºC</t>
+    <t xml:space="preserve">AL6061-T6 </t>
+  </si>
+  <si>
+    <t>AISI 316</t>
+  </si>
+  <si>
+    <t>ERRO MODAL</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Ansys</t>
+  </si>
+  <si>
+    <t>Percentagem Erro</t>
   </si>
 </sst>
 </file>
@@ -279,7 +292,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +392,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -436,7 +454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -813,11 +831,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1073,34 +1106,52 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1123,7 +1174,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2026,7 +2077,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3617,8 +3668,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="41895555" y="876556"/>
-          <a:ext cx="5078822" cy="7513300"/>
+          <a:off x="42229985" y="856433"/>
+          <a:ext cx="5078821" cy="7395436"/>
           <a:chOff x="16846428" y="389059"/>
           <a:chExt cx="2086708" cy="2509107"/>
         </a:xfrm>
@@ -4615,9 +4666,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Amarelo">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4625,34 +4676,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="39302A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E5DEDB"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="FFCA08"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="F8931D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="CE8D3E"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="EC7016"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="E64823"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="9C6A6A"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="2998E3"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="7F723D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
@@ -4917,99 +4968,99 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="83.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" s="13"/>
     </row>
-    <row r="3" spans="2:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B5" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="45" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:2" ht="45" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B10" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="13"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="13"/>
     </row>
-    <row r="19" spans="2:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B20" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B21" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="16"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="13"/>
     </row>
   </sheetData>
@@ -5022,22 +5073,22 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.921875" customWidth="1"/>
-    <col min="3" max="3" width="31.61328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="20.921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3828125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.9296875" customWidth="1"/>
+    <col min="3" max="3" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="26" t="s">
@@ -5053,13 +5104,13 @@
         <v>29</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="18">
         <f>COUNTIF(D1:BE1, "&lt;&gt;")</f>
         <v>5</v>
@@ -5074,8 +5125,8 @@
       <c r="E2" s="12">
         <v>2700</v>
       </c>
-      <c r="F2" s="85">
-        <v>2700</v>
+      <c r="F2" s="97">
+        <v>8000</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="85">
@@ -5083,21 +5134,21 @@
       </c>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C3" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="83">
         <f>68.9*10^9</f>
         <v>68900000000</v>
       </c>
       <c r="E3" s="12">
-        <f>60*10^9</f>
-        <v>60000000000</v>
-      </c>
-      <c r="F3" s="85">
         <f>68.9*10^9</f>
         <v>68900000000</v>
+      </c>
+      <c r="F3" s="97">
+        <f>193*10^9</f>
+        <v>193000000000</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="85">
@@ -5105,7 +5156,7 @@
       </c>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
@@ -5115,7 +5166,7 @@
       <c r="E4" s="12">
         <v>0.33</v>
       </c>
-      <c r="F4" s="85">
+      <c r="F4" s="97">
         <v>0.33</v>
       </c>
       <c r="G4" s="9"/>
@@ -5124,21 +5175,21 @@
       </c>
       <c r="I4" s="40"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C5" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="83">
         <f>19*10^6</f>
         <v>19000000</v>
       </c>
       <c r="E5" s="12">
-        <f>250*10^6</f>
-        <v>250000000</v>
-      </c>
-      <c r="F5" s="85">
-        <f>103 *10^6</f>
-        <v>103000000</v>
+        <f>276*10^6</f>
+        <v>276000000</v>
+      </c>
+      <c r="F5" s="97">
+        <f>240 *10^6</f>
+        <v>240000000</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="85">
@@ -5146,21 +5197,21 @@
       </c>
       <c r="I5" s="40"/>
     </row>
-    <row r="6" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C6" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="83">
         <f>32*10^6</f>
         <v>32000000</v>
       </c>
       <c r="E6" s="12">
-        <f>275*10^6</f>
-        <v>275000000</v>
-      </c>
-      <c r="F6" s="85">
-        <f>131*10^6</f>
-        <v>131000000</v>
+        <f>310*10^6</f>
+        <v>310000000</v>
+      </c>
+      <c r="F6" s="97">
+        <f>550*10^6</f>
+        <v>550000000</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="85">
@@ -5168,9 +5219,9 @@
       </c>
       <c r="I6" s="40"/>
     </row>
-    <row r="7" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C7" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="84">
         <f>27*10^6</f>
@@ -5178,11 +5229,11 @@
       </c>
       <c r="E7" s="22">
         <f>E6*0.85</f>
-        <v>233750000</v>
-      </c>
-      <c r="F7" s="86">
-        <f>110*10^6</f>
-        <v>110000000</v>
+        <v>263500000</v>
+      </c>
+      <c r="F7" s="22">
+        <f>F6*0.85</f>
+        <v>467500000</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="86">
@@ -5190,15 +5241,15 @@
       </c>
       <c r="I7" s="40"/>
     </row>
-    <row r="8" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C8" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="83">
         <f>207*10^6</f>
         <v>207000000</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="83">
         <f>207*10^6</f>
         <v>207000000</v>
       </c>
@@ -5212,26 +5263,26 @@
       </c>
       <c r="I8" s="40"/>
     </row>
-    <row r="9" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C9" s="40"/>
       <c r="D9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="I9" s="40"/>
     </row>
-    <row r="10" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -5240,7 +5291,7 @@
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
     </row>
-    <row r="11" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5249,27 +5300,27 @@
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
     </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="88"/>
+      <c r="E12" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="87"/>
       <c r="G12" s="42"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
     </row>
-    <row r="13" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
       <c r="G13" s="42"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
     </row>
-    <row r="14" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="42"/>
@@ -5278,7 +5329,7 @@
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
     </row>
-    <row r="15" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5287,7 +5338,7 @@
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
     </row>
-    <row r="16" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5296,7 +5347,7 @@
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
     </row>
-    <row r="17" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -5305,7 +5356,7 @@
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
     </row>
-    <row r="18" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -5314,7 +5365,7 @@
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
     </row>
-    <row r="19" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -5323,7 +5374,7 @@
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
     </row>
-    <row r="20" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -5332,7 +5383,7 @@
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -5358,32 +5409,32 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.61328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.61328125" customWidth="1"/>
-    <col min="7" max="8" width="10.69140625" customWidth="1"/>
-    <col min="9" max="9" width="10.61328125" customWidth="1"/>
-    <col min="10" max="10" width="10.69140625" customWidth="1"/>
-    <col min="11" max="11" width="8.69140625" customWidth="1"/>
-    <col min="12" max="12" width="1.69140625" style="94" customWidth="1"/>
-    <col min="13" max="13" width="7.23046875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.69140625" customWidth="1"/>
-    <col min="15" max="16" width="12.69140625" customWidth="1"/>
-    <col min="17" max="17" width="12.07421875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.3046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.921875" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" customWidth="1"/>
+    <col min="7" max="8" width="10.73046875" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" customWidth="1"/>
+    <col min="10" max="10" width="10.73046875" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="1.73046875" style="93" customWidth="1"/>
+    <col min="13" max="13" width="7.19921875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.9296875" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="22.15234375" customWidth="1"/>
-    <col min="22" max="22" width="11.921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.1328125" customWidth="1"/>
+    <col min="22" max="22" width="11.9296875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.07421875" customWidth="1"/>
+    <col min="30" max="30" width="18.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5396,32 +5447,32 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="M1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="82" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="91"/>
+      <c r="F2" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="M2" s="1">
@@ -5452,32 +5503,32 @@
       <c r="AC2" s="48"/>
       <c r="AD2" s="48"/>
     </row>
-    <row r="3" spans="1:30" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:30" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="96"/>
+      <c r="C3" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="95"/>
       <c r="E3" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" s="75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" s="5"/>
       <c r="N3" s="5"/>
@@ -5505,16 +5556,16 @@
       <c r="AC3" s="48"/>
       <c r="AD3" s="48"/>
     </row>
-    <row r="4" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B4" s="5"/>
       <c r="C4" s="47">
         <v>1</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="73">
         <v>25</v>
@@ -5553,17 +5604,17 @@
       <c r="AC4" s="53"/>
       <c r="AD4" s="53"/>
     </row>
-    <row r="5" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="47">
         <v>2</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="69">
         <v>1</v>
@@ -5602,17 +5653,17 @@
       <c r="AC5" s="53"/>
       <c r="AD5" s="53"/>
     </row>
-    <row r="6" spans="1:30" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:30" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="47">
         <v>3</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="65">
         <v>-200</v>
@@ -5647,17 +5698,17 @@
       <c r="AC6" s="53"/>
       <c r="AD6" s="48"/>
     </row>
-    <row r="7" spans="1:30" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="45">
         <v>4</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="61"/>
       <c r="G7" s="60"/>
@@ -5690,7 +5741,7 @@
       <c r="AC7" s="48"/>
       <c r="AD7" s="48"/>
     </row>
-    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5727,7 +5778,7 @@
       <c r="AC8" s="48"/>
       <c r="AD8" s="48"/>
     </row>
-    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5764,7 +5815,7 @@
       <c r="AC9" s="48"/>
       <c r="AD9" s="48"/>
     </row>
-    <row r="10" spans="1:30" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5800,15 +5851,15 @@
       <c r="AC10" s="48"/>
       <c r="AD10" s="48"/>
     </row>
-    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="93"/>
+      <c r="C11" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="92"/>
       <c r="E11" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -5841,11 +5892,11 @@
       <c r="AC11" s="48"/>
       <c r="AD11" s="48"/>
     </row>
-    <row r="12" spans="1:30" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:30" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="55"/>
@@ -5880,11 +5931,11 @@
       <c r="AC12" s="48"/>
       <c r="AD12" s="48"/>
     </row>
-    <row r="13" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="46"/>
       <c r="E13" s="5"/>
@@ -5919,11 +5970,11 @@
       <c r="AC13" s="48"/>
       <c r="AD13" s="48"/>
     </row>
-    <row r="14" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="5"/>
@@ -5958,11 +6009,11 @@
       <c r="AC14" s="48"/>
       <c r="AD14" s="48"/>
     </row>
-    <row r="15" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="5"/>
@@ -5997,7 +6048,7 @@
       <c r="AC15" s="48"/>
       <c r="AD15" s="48"/>
     </row>
-    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6034,7 +6085,7 @@
       <c r="AC16" s="48"/>
       <c r="AD16" s="48"/>
     </row>
-    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -6071,7 +6122,7 @@
       <c r="AC17" s="48"/>
       <c r="AD17" s="48"/>
     </row>
-    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6108,7 +6159,7 @@
       <c r="AC18" s="48"/>
       <c r="AD18" s="48"/>
     </row>
-    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6145,7 +6196,7 @@
       <c r="AC19" s="48"/>
       <c r="AD19" s="48"/>
     </row>
-    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -6182,7 +6233,7 @@
       <c r="AC20" s="48"/>
       <c r="AD20" s="48"/>
     </row>
-    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -6219,7 +6270,7 @@
       <c r="AC21" s="48"/>
       <c r="AD21" s="48"/>
     </row>
-    <row r="22" spans="1:30" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:30" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -6256,7 +6307,7 @@
       <c r="AC22" s="52"/>
       <c r="AD22" s="48"/>
     </row>
-    <row r="23" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -6293,7 +6344,7 @@
       <c r="AC23" s="51"/>
       <c r="AD23" s="48"/>
     </row>
-    <row r="24" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -6330,7 +6381,7 @@
       <c r="AC24" s="51"/>
       <c r="AD24" s="48"/>
     </row>
-    <row r="25" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="O25" s="47">
         <v>1.4769999999999996</v>
       </c>
@@ -6355,7 +6406,7 @@
       <c r="AC25" s="48"/>
       <c r="AD25" s="48"/>
     </row>
-    <row r="26" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="O26" s="47">
         <v>1.5419999999999996</v>
       </c>
@@ -6380,7 +6431,7 @@
       <c r="AC26" s="48"/>
       <c r="AD26" s="48"/>
     </row>
-    <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="O27" s="47">
         <v>1.6059999999999997</v>
       </c>
@@ -6405,7 +6456,7 @@
       <c r="AC27" s="48"/>
       <c r="AD27" s="48"/>
     </row>
-    <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="O28" s="47">
         <v>1.6709999999999996</v>
       </c>
@@ -6430,7 +6481,7 @@
       <c r="AC28" s="48"/>
       <c r="AD28" s="48"/>
     </row>
-    <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="O29" s="47">
         <v>1.7339999999999995</v>
       </c>
@@ -6455,7 +6506,7 @@
       <c r="AC29" s="48"/>
       <c r="AD29" s="48"/>
     </row>
-    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="O30" s="47">
         <v>1.7989999999999995</v>
       </c>
@@ -6480,7 +6531,7 @@
       <c r="AC30" s="48"/>
       <c r="AD30" s="48"/>
     </row>
-    <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="O31" s="47">
         <v>1.8629999999999995</v>
       </c>
@@ -6505,7 +6556,7 @@
       <c r="AC31" s="48"/>
       <c r="AD31" s="48"/>
     </row>
-    <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="O32" s="47">
         <v>1.9279999999999995</v>
       </c>
@@ -6530,7 +6581,7 @@
       <c r="AC32" s="48"/>
       <c r="AD32" s="48"/>
     </row>
-    <row r="33" spans="15:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="33" spans="15:30" ht="15" x14ac:dyDescent="0.45">
       <c r="O33" s="47">
         <v>1.9909999999999994</v>
       </c>
@@ -6555,7 +6606,7 @@
       <c r="AC33" s="48"/>
       <c r="AD33" s="48"/>
     </row>
-    <row r="34" spans="15:30" ht="15" x14ac:dyDescent="0.4">
+    <row r="34" spans="15:30" ht="15" x14ac:dyDescent="0.45">
       <c r="O34" s="47">
         <v>2.0559999999999996</v>
       </c>
@@ -6580,7 +6631,7 @@
       <c r="AC34" s="48"/>
       <c r="AD34" s="48"/>
     </row>
-    <row r="35" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="35" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O35" s="47">
         <v>2.1199999999999997</v>
       </c>
@@ -6605,7 +6656,7 @@
       <c r="AC35" s="48"/>
       <c r="AD35" s="48"/>
     </row>
-    <row r="36" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="36" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O36" s="47">
         <v>2.1849999999999996</v>
       </c>
@@ -6630,7 +6681,7 @@
       <c r="AC36" s="48"/>
       <c r="AD36" s="48"/>
     </row>
-    <row r="37" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="37" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O37" s="47">
         <v>2.2479999999999998</v>
       </c>
@@ -6655,7 +6706,7 @@
       <c r="AC37" s="48"/>
       <c r="AD37" s="48"/>
     </row>
-    <row r="38" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="38" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O38" s="47">
         <v>2.3129999999999997</v>
       </c>
@@ -6680,7 +6731,7 @@
       <c r="AC38" s="48"/>
       <c r="AD38" s="48"/>
     </row>
-    <row r="39" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="39" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O39" s="47">
         <v>2.3769999999999998</v>
       </c>
@@ -6705,7 +6756,7 @@
       <c r="AC39" s="48"/>
       <c r="AD39" s="48"/>
     </row>
-    <row r="40" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="40" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O40" s="47">
         <v>2.4419999999999997</v>
       </c>
@@ -6717,7 +6768,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="41" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="41" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O41" s="47">
         <v>2.5049999999999999</v>
       </c>
@@ -6729,7 +6780,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="42" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="42" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O42" s="47">
         <v>2.57</v>
       </c>
@@ -6741,7 +6792,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="43" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="43" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O43" s="47">
         <v>2.6339999999999999</v>
       </c>
@@ -6753,7 +6804,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="44" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="44" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O44" s="47">
         <v>2.6989999999999998</v>
       </c>
@@ -6765,7 +6816,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="45" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="45" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O45" s="47">
         <v>2.762</v>
       </c>
@@ -6777,7 +6828,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="46" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="46" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O46" s="47">
         <v>2.827</v>
       </c>
@@ -6789,7 +6840,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="47" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="47" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O47" s="47">
         <v>2.891</v>
       </c>
@@ -6801,7 +6852,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="48" spans="15:30" x14ac:dyDescent="0.4">
+    <row r="48" spans="15:30" x14ac:dyDescent="0.45">
       <c r="O48" s="47">
         <v>2.956</v>
       </c>
@@ -6813,7 +6864,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="49" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="49" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O49" s="47">
         <v>3.0190000000000001</v>
       </c>
@@ -6825,7 +6876,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="50" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="50" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O50" s="47">
         <v>3.0840000000000001</v>
       </c>
@@ -6837,7 +6888,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="51" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="51" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O51" s="47">
         <v>3.1480000000000001</v>
       </c>
@@ -6849,7 +6900,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="52" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="52" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O52" s="47">
         <v>3.2130000000000001</v>
       </c>
@@ -6861,7 +6912,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="53" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="53" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O53" s="47">
         <v>3.2760000000000002</v>
       </c>
@@ -6873,7 +6924,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="54" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="54" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O54" s="47">
         <v>3.3410000000000002</v>
       </c>
@@ -6885,7 +6936,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="55" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="55" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O55" s="47">
         <v>3.4050000000000002</v>
       </c>
@@ -6897,7 +6948,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="56" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="56" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O56" s="47">
         <v>3.47</v>
       </c>
@@ -6909,7 +6960,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="57" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="57" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O57" s="47">
         <v>3.5330000000000004</v>
       </c>
@@ -6921,7 +6972,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="58" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="58" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O58" s="47">
         <v>3.5980000000000003</v>
       </c>
@@ -6933,7 +6984,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="59" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="59" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O59" s="47">
         <v>3.6620000000000004</v>
       </c>
@@ -6945,7 +6996,7 @@
         <v>2764000</v>
       </c>
     </row>
-    <row r="60" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="60" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O60" s="47">
         <v>3.7260000000000004</v>
       </c>
@@ -6957,7 +7008,7 @@
         <v>2691000</v>
       </c>
     </row>
-    <row r="61" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="61" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O61" s="47">
         <v>3.7900000000000005</v>
       </c>
@@ -6969,7 +7020,7 @@
         <v>2544000</v>
       </c>
     </row>
-    <row r="62" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="62" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O62" s="47">
         <v>3.8550000000000004</v>
       </c>
@@ -6981,7 +7032,7 @@
         <v>2397000</v>
       </c>
     </row>
-    <row r="63" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="63" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O63" s="47">
         <v>3.9190000000000005</v>
       </c>
@@ -6993,7 +7044,7 @@
         <v>2177000</v>
       </c>
     </row>
-    <row r="64" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="64" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O64" s="47">
         <v>3.9830000000000005</v>
       </c>
@@ -7005,7 +7056,7 @@
         <v>1884000</v>
       </c>
     </row>
-    <row r="65" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="65" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O65" s="47">
         <v>4.0470000000000006</v>
       </c>
@@ -7017,7 +7068,7 @@
         <v>1591000</v>
       </c>
     </row>
-    <row r="66" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="66" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O66" s="47">
         <v>4.112000000000001</v>
       </c>
@@ -7029,7 +7080,7 @@
         <v>1444000</v>
       </c>
     </row>
-    <row r="67" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="67" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O67" s="47">
         <v>4.1770000000000014</v>
       </c>
@@ -7041,7 +7092,7 @@
         <v>1371000</v>
       </c>
     </row>
-    <row r="68" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="68" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O68" s="47">
         <v>4.2400000000000011</v>
       </c>
@@ -7053,7 +7104,7 @@
         <v>1371000</v>
       </c>
     </row>
-    <row r="69" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="69" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O69" s="47">
         <v>4.3050000000000015</v>
       </c>
@@ -7065,7 +7116,7 @@
         <v>1224000</v>
       </c>
     </row>
-    <row r="70" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="70" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O70" s="47">
         <v>4.3690000000000015</v>
       </c>
@@ -7077,7 +7128,7 @@
         <v>1151000</v>
       </c>
     </row>
-    <row r="71" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="71" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O71" s="47">
         <v>4.4340000000000019</v>
       </c>
@@ -7089,7 +7140,7 @@
         <v>1078000</v>
       </c>
     </row>
-    <row r="72" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="72" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O72" s="47">
         <v>4.4970000000000017</v>
       </c>
@@ -7101,7 +7152,7 @@
         <v>1003999.9999999999</v>
       </c>
     </row>
-    <row r="73" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="73" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O73" s="47">
         <v>4.5620000000000021</v>
       </c>
@@ -7113,7 +7164,7 @@
         <v>931000</v>
       </c>
     </row>
-    <row r="74" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="74" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O74" s="47">
         <v>4.6260000000000021</v>
       </c>
@@ -7125,7 +7176,7 @@
         <v>858000</v>
       </c>
     </row>
-    <row r="75" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="75" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O75" s="47">
         <v>4.6910000000000025</v>
       </c>
@@ -7137,7 +7188,7 @@
         <v>711000</v>
       </c>
     </row>
-    <row r="76" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="76" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O76" s="47">
         <v>4.7540000000000022</v>
       </c>
@@ -7149,7 +7200,7 @@
         <v>565000</v>
       </c>
     </row>
-    <row r="77" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="77" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O77" s="47">
         <v>4.8190000000000026</v>
       </c>
@@ -7161,7 +7212,7 @@
         <v>418000</v>
       </c>
     </row>
-    <row r="78" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="78" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O78" s="47">
         <v>4.8830000000000027</v>
       </c>
@@ -7173,7 +7224,7 @@
         <v>271000</v>
       </c>
     </row>
-    <row r="79" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="79" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O79" s="47">
         <v>4.9480000000000031</v>
       </c>
@@ -7185,7 +7236,7 @@
         <v>198000</v>
       </c>
     </row>
-    <row r="80" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="80" spans="15:17" x14ac:dyDescent="0.45">
       <c r="O80" s="47">
         <v>5.0110000000000028</v>
       </c>
@@ -7197,7 +7248,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="81" spans="15:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="15:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="O81" s="45">
         <v>5.0740000000000025</v>
       </c>
@@ -7225,40 +7276,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C8E3EE-99AB-4972-A73D-D1EFEBD6EA1A}">
   <dimension ref="A1:AK35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="71" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.3046875" customWidth="1"/>
-    <col min="8" max="8" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.69140625" customWidth="1"/>
-    <col min="10" max="10" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.15234375" customWidth="1"/>
-    <col min="14" max="14" width="5.84375" customWidth="1"/>
-    <col min="15" max="15" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.3046875" customWidth="1"/>
-    <col min="18" max="18" width="14.07421875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.07421875" customWidth="1"/>
+    <col min="12" max="12" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1328125" customWidth="1"/>
+    <col min="14" max="14" width="5.86328125" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.06640625" customWidth="1"/>
     <col min="20" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="28.07421875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.3046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.23046875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.61328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.53515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="83.69140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.06640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.53125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="83.6640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.23046875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="81.921875" customWidth="1"/>
-    <col min="39" max="39" width="9.15234375" customWidth="1"/>
+    <col min="34" max="34" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="81.9296875" customWidth="1"/>
+    <col min="39" max="39" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" ht="15" x14ac:dyDescent="0.45">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -7290,7 +7341,7 @@
         <v>28</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>30</v>
@@ -7305,16 +7356,16 @@
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
       <c r="R1" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>39</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>40</v>
       </c>
       <c r="Z1" s="8"/>
       <c r="AD1" s="8"/>
@@ -7323,7 +7374,7 @@
       <c r="AG1" s="8"/>
       <c r="AJ1" s="6"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
         <f>COUNTIF(B2:B82, "&lt;&gt;")</f>
         <v>8</v>
@@ -7356,11 +7407,11 @@
         <v>0</v>
       </c>
       <c r="J2" s="39">
-        <f>3*10^6</f>
-        <v>3000000</v>
+        <f>1.5*10^6</f>
+        <v>1500000</v>
       </c>
       <c r="K2" s="35">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="L2" s="10">
         <f t="shared" ref="L2:L7" si="0">SQRT((D3-D2)^2+(C3-C2)^2)</f>
@@ -7368,11 +7419,11 @@
       </c>
       <c r="M2" s="10">
         <f>ROUNDUP($K$2*(L2/SUM($L$2:$L$7)),0)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N2" s="10">
         <f>IF(M2=0,0,M2-1)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -7394,7 +7445,7 @@
       <c r="AG2" s="5"/>
       <c r="AJ2" s="7"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>2</v>
@@ -7424,8 +7475,8 @@
         <v>7</v>
       </c>
       <c r="J3" s="39">
-        <f t="shared" ref="J3:J4" si="2">3*10^6</f>
-        <v>3000000</v>
+        <f t="shared" ref="J3:J4" si="2">1.5*10^6</f>
+        <v>1500000</v>
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="33">
@@ -7434,11 +7485,11 @@
       </c>
       <c r="M3" s="10">
         <f t="shared" ref="M3:M8" si="3">ROUNDUP($K$2*(L3/SUM($L$2:$L$7)),0)</f>
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="N3" s="10">
         <f t="shared" ref="N3:N8" si="4">IF(M3=0,0,M3-1)</f>
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="2"/>
@@ -7453,7 +7504,7 @@
       <c r="AG3" s="5"/>
       <c r="AJ3" s="7"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="10">
         <v>3</v>
@@ -7477,14 +7528,14 @@
         <v>7</v>
       </c>
       <c r="H4" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="10">
         <v>7</v>
       </c>
       <c r="J4" s="39">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="K4" s="37"/>
       <c r="L4" s="34">
@@ -7493,11 +7544,11 @@
       </c>
       <c r="M4" s="10">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="2"/>
@@ -7511,7 +7562,7 @@
       <c r="AG4" s="5"/>
       <c r="AJ4" s="7"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>4</v>
@@ -7524,10 +7575,7 @@
         <f>17.17*10^-3</f>
         <v>1.7170000000000001E-2</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>0</v>
       </c>
@@ -7535,7 +7583,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1">
         <v>7</v>
@@ -7566,7 +7614,7 @@
       <c r="AG5" s="5"/>
       <c r="AJ5" s="7"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="10">
         <v>5</v>
@@ -7579,10 +7627,7 @@
         <f>16.24*10^-3</f>
         <v>1.6239999999999997E-2</v>
       </c>
-      <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="10">
         <v>0</v>
       </c>
@@ -7590,7 +7635,7 @@
         <v>7</v>
       </c>
       <c r="H6" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="10">
         <v>7</v>
@@ -7620,7 +7665,7 @@
       <c r="AG6" s="5"/>
       <c r="AJ6" s="7"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>6</v>
@@ -7634,8 +7679,7 @@
         <v>1.585E-2</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -7644,14 +7688,14 @@
         <v>7</v>
       </c>
       <c r="H7" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="1">
         <v>7</v>
       </c>
       <c r="J7" s="29">
         <f>J2*0.965</f>
-        <v>2895000</v>
+        <v>1447500</v>
       </c>
       <c r="K7" s="37"/>
       <c r="L7" s="33">
@@ -7678,7 +7722,7 @@
       <c r="AG7" s="5"/>
       <c r="AJ7" s="7"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="10">
         <v>7</v>
@@ -7692,8 +7736,7 @@
         <v>1.5939999999999999E-2</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
@@ -7702,7 +7745,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="39">
         <v>7</v>
@@ -7729,7 +7772,7 @@
       <c r="AG8" s="5"/>
       <c r="AJ8" s="7"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>8</v>
@@ -7751,7 +7794,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="29">
         <f>J2*0.0183</f>
-        <v>54900</v>
+        <v>27450</v>
       </c>
       <c r="K9" s="37"/>
       <c r="L9" s="33"/>
@@ -7769,7 +7812,7 @@
       <c r="AG9" s="5"/>
       <c r="AJ9" s="7"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -7802,7 +7845,7 @@
       <c r="AG10" s="5"/>
       <c r="AJ10" s="7"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -7835,7 +7878,7 @@
       <c r="AG11" s="5"/>
       <c r="AJ11" s="7"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -7870,7 +7913,7 @@
       <c r="AG12" s="5"/>
       <c r="AJ12" s="7"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -7905,7 +7948,7 @@
       <c r="AG13" s="5"/>
       <c r="AJ13" s="7"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -7940,7 +7983,7 @@
       <c r="AG14" s="5"/>
       <c r="AJ14" s="7"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -7975,7 +8018,7 @@
       <c r="AG15" s="5"/>
       <c r="AJ15" s="7"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -8010,7 +8053,7 @@
       <c r="AG16" s="5"/>
       <c r="AJ16" s="7"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -8045,7 +8088,7 @@
       <c r="AG17" s="5"/>
       <c r="AJ17" s="7"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -8058,7 +8101,7 @@
       <c r="J18" s="29"/>
       <c r="K18" s="38">
         <f>SUM(M2:M18)</f>
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="L18" s="33"/>
       <c r="M18" s="1"/>
@@ -8083,7 +8126,7 @@
       <c r="AG18" s="5"/>
       <c r="AJ18" s="7"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -8118,7 +8161,7 @@
       <c r="AG19" s="5"/>
       <c r="AJ19" s="7"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8155,7 +8198,7 @@
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8192,7 +8235,7 @@
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -8212,7 +8255,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -8232,7 +8275,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -8252,7 +8295,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -8272,7 +8315,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -8292,7 +8335,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -8312,7 +8355,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -8332,14 +8375,14 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="87"/>
+      <c r="G29" s="96"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -8352,7 +8395,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -8372,7 +8415,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -8392,7 +8435,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -8412,7 +8455,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8432,7 +8475,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8452,7 +8495,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8477,4 +8520,452 @@
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041D2246-0C07-4E96-B19F-4C022DA4E97A}">
+  <dimension ref="B1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="16.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B2" s="5"/>
+      <c r="C2" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="5"/>
+      <c r="C3" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="47">
+        <v>1232.7385512887799</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1222.7</v>
+      </c>
+      <c r="E4" s="101">
+        <f>IF(C4&lt;D4,100-((C4/D4)*100),100-(D4/C4*100))</f>
+        <v>0.81432930594122865</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="5">
+        <f>1+B4</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="47">
+        <v>3688.4081380643102</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3632.5</v>
+      </c>
+      <c r="E5" s="101">
+        <f>IF(C5&lt;D5,100-((C5/D5)*100),100-(D5/C5*100))</f>
+        <v>1.5157795984489582</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="5">
+        <f t="shared" ref="B6:B23" si="0">1+B5</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="47">
+        <v>6044.46569603029</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5916.8</v>
+      </c>
+      <c r="E6" s="101">
+        <f>IF(C6&lt;D6,100-((C6/D6)*100),100-(D6/C6*100))</f>
+        <v>2.1121088686818865</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="47">
+        <v>8343.7591493051495</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7960.9</v>
+      </c>
+      <c r="E7" s="101">
+        <f>IF(C7&lt;D7,100-((C7/D7)*100),100-(D7/C7*100))</f>
+        <v>4.5885690424924803</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="47">
+        <v>10267.9308832312</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9766.1</v>
+      </c>
+      <c r="E8" s="101">
+        <f>IF(C8&lt;D8,100-((C8/D8)*100),100-(D8/C8*100))</f>
+        <v>4.8873613285686446</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="47">
+        <v>12218.163470179999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>11421</v>
+      </c>
+      <c r="E9" s="101">
+        <f>IF(C9&lt;D9,100-((C9/D9)*100),100-(D9/C9*100))</f>
+        <v>6.5244131994598007</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="47">
+        <v>13689.4874763315</v>
+      </c>
+      <c r="D10" s="1">
+        <v>12823</v>
+      </c>
+      <c r="E10" s="101">
+        <f>IF(C10&lt;D10,100-((C10/D10)*100),100-(D10/C10*100))</f>
+        <v>6.3295830309908752</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="47">
+        <v>14663.1791922462</v>
+      </c>
+      <c r="D11" s="1">
+        <v>13995</v>
+      </c>
+      <c r="E11" s="101">
+        <f>IF(C11&lt;D11,100-((C11/D11)*100),100-(D11/C11*100))</f>
+        <v>4.5568507585280571</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="47">
+        <v>15425.3282348509</v>
+      </c>
+      <c r="D12" s="1">
+        <v>14855</v>
+      </c>
+      <c r="E12" s="101">
+        <f>IF(C12&lt;D12,100-((C12/D12)*100),100-(D12/C12*100))</f>
+        <v>3.6973491012161475</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="47">
+        <v>15651.7853731172</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15361</v>
+      </c>
+      <c r="E13" s="101">
+        <f>IF(C13&lt;D13,100-((C13/D13)*100),100-(D13/C13*100))</f>
+        <v>1.857841557274611</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="47">
+        <v>15774.719898740301</v>
+      </c>
+      <c r="D14" s="1">
+        <v>15650</v>
+      </c>
+      <c r="E14" s="101">
+        <f>IF(C14&lt;D14,100-((C14/D14)*100),100-(D14/C14*100))</f>
+        <v>0.79063146313146149</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="47">
+        <v>16241.365728955299</v>
+      </c>
+      <c r="D15" s="1">
+        <v>15823</v>
+      </c>
+      <c r="E15" s="101">
+        <f>IF(C15&lt;D15,100-((C15/D15)*100),100-(D15/C15*100))</f>
+        <v>2.5759270244708006</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="47">
+        <v>16317.7620009697</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15936</v>
+      </c>
+      <c r="E16" s="101">
+        <f>IF(C16&lt;D16,100-((C16/D16)*100),100-(D16/C16*100))</f>
+        <v>2.3395487748075681</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="47">
+        <v>16338.9981814434</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16015</v>
+      </c>
+      <c r="E17" s="101">
+        <f>IF(C17&lt;D17,100-((C17/D17)*100),100-(D17/C17*100))</f>
+        <v>1.9829745853780167</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="47">
+        <v>16376.5463540774</v>
+      </c>
+      <c r="D18" s="1">
+        <v>16076</v>
+      </c>
+      <c r="E18" s="101">
+        <f>IF(C18&lt;D18,100-((C18/D18)*100),100-(D18/C18*100))</f>
+        <v>1.835224274882421</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="47">
+        <v>16379.697500758601</v>
+      </c>
+      <c r="D19" s="1">
+        <v>16125</v>
+      </c>
+      <c r="E19" s="101">
+        <f>IF(C19&lt;D19,100-((C19/D19)*100),100-(D19/C19*100))</f>
+        <v>1.5549585134084793</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="47">
+        <v>16380.304140603001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>16168</v>
+      </c>
+      <c r="E20" s="101">
+        <f>IF(C20&lt;D20,100-((C20/D20)*100),100-(D20/C20*100))</f>
+        <v>1.2960940088819655</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="47">
+        <v>16383.0202699331</v>
+      </c>
+      <c r="D21" s="1">
+        <v>16209</v>
+      </c>
+      <c r="E21" s="101">
+        <f>IF(C21&lt;D21,100-((C21/D21)*100),100-(D21/C21*100))</f>
+        <v>1.0621989539527732</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="47">
+        <v>16388.906207497399</v>
+      </c>
+      <c r="D22" s="1">
+        <v>16249</v>
+      </c>
+      <c r="E22" s="101">
+        <f>IF(C22&lt;D22,100-((C22/D22)*100),100-(D22/C22*100))</f>
+        <v>0.85366409280807432</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="45">
+        <v>16405.6700004743</v>
+      </c>
+      <c r="D23" s="44">
+        <v>16290</v>
+      </c>
+      <c r="E23" s="102">
+        <f>IF(C23&lt;D23,100-((C23/D23)*100),100-(D23/C23*100))</f>
+        <v>0.70506111893604384</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E4:E23">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TESTE ATUALIZADO/Livro1.xlsx
+++ b/TESTE ATUALIZADO/Livro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Documentos\Uni\4 ano\1 semestre\Mecânica Estrutural\Trabalho Estrutural\Estrutural clonado\Estrutural\TESTE ATUALIZADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9367F0-B33A-4984-B837-38E5473B12B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A97605-B292-4418-A9AE-E09656126CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="2" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="2" r:id="rId1"/>
@@ -5354,8 +5354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BBD36B-8DEB-4362-8948-9CFC06A35BB2}">
   <dimension ref="A1:AD81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="P80" sqref="P80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6989,7 +6989,7 @@
         <v>21.77</v>
       </c>
       <c r="Q63" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q63:Q81" si="2">P63*10^5</f>
         <v>2177000</v>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
         <v>18.84</v>
       </c>
       <c r="Q64" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1884000</v>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
         <v>15.91</v>
       </c>
       <c r="Q65" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1591000</v>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
         <v>14.44</v>
       </c>
       <c r="Q66" s="46">
-        <f t="shared" ref="Q66:Q81" si="2">P66*10^5</f>
+        <f t="shared" si="2"/>
         <v>1444000</v>
       </c>
     </row>
@@ -7225,7 +7225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C8E3EE-99AB-4972-A73D-D1EFEBD6EA1A}">
   <dimension ref="A1:AK35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="71" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>

--- a/TESTE ATUALIZADO/Livro1.xlsx
+++ b/TESTE ATUALIZADO/Livro1.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Documentos\Uni\4 ano\1 semestre\Mecânica Estrutural\Trabalho Estrutural\Estrutural clonado\Estrutural\TESTE ATUALIZADO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\Atualizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A97605-B292-4418-A9AE-E09656126CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FC8D7F-A3E7-41A9-9608-CD9E58E693A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="2" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="2" r:id="rId1"/>
     <sheet name="Materials" sheetId="3" r:id="rId2"/>
     <sheet name="Loading" sheetId="5" r:id="rId3"/>
     <sheet name="Input" sheetId="1" r:id="rId4"/>
+    <sheet name="Error Modal" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Points</t>
   </si>
@@ -132,9 +133,6 @@
   </si>
   <si>
     <t xml:space="preserve">Distance </t>
-  </si>
-  <si>
-    <t>AL6061-T6 @ 204ºC</t>
   </si>
   <si>
     <t>AL6061-T6 @ 316ºC</t>
@@ -269,7 +267,25 @@
     <t>PressureCol</t>
   </si>
   <si>
-    <t>AL6061-T6 @ 220ºC</t>
+    <t xml:space="preserve">AL6061-T6 </t>
+  </si>
+  <si>
+    <t>AISI 316</t>
+  </si>
+  <si>
+    <t>ERRO MODAL</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Ansys</t>
+  </si>
+  <si>
+    <t>Percentagem Erro</t>
+  </si>
+  <si>
+    <t>Mesh Type</t>
   </si>
 </sst>
 </file>
@@ -279,7 +295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +395,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -436,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -493,19 +514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -813,11 +821,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -913,22 +960,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,6 +982,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -953,154 +997,169 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1123,7 +1182,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2026,7 +2085,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3593,13 +3652,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>353523</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>125288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>227133</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
@@ -3617,8 +3676,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="41895555" y="876556"/>
-          <a:ext cx="5078822" cy="7513300"/>
+          <a:off x="44073273" y="851569"/>
+          <a:ext cx="5070689" cy="7292305"/>
           <a:chOff x="16846428" y="389059"/>
           <a:chExt cx="2086708" cy="2509107"/>
         </a:xfrm>
@@ -3827,13 +3886,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>241787</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>14653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>373671</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>139211</xdr:rowOff>
@@ -3890,13 +3949,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>254690</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>175847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>386574</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>117232</xdr:rowOff>
@@ -3953,13 +4012,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>527540</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>109904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>7327</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>51290</xdr:rowOff>
@@ -4016,13 +4075,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>293078</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>109904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>424962</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>51288</xdr:rowOff>
@@ -4079,13 +4138,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>219809</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>351693</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>161193</xdr:rowOff>
@@ -4142,13 +4201,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>395656</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>139212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>527540</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>80596</xdr:rowOff>
@@ -4205,13 +4264,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>298940</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>5863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>430824</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>130421</xdr:rowOff>
@@ -4268,13 +4327,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>367548</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>97526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>405648</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>25720</xdr:rowOff>
@@ -4322,13 +4381,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>508226</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>51288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>359020</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>157453</xdr:rowOff>
@@ -4375,13 +4434,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>320632</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>117232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>592760</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>51290</xdr:rowOff>
@@ -4428,13 +4487,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>273323</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>432289</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>80596</xdr:rowOff>
@@ -4524,13 +4583,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>261101</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>24104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>411510</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>32894</xdr:rowOff>
@@ -4577,16 +4636,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>221809</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>150567</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>255984</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>125016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>92506</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>48655</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>640193</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>84373</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4615,9 +4674,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Amarelo">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4625,34 +4684,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="39302A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E5DEDB"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="FFCA08"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="F8931D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="CE8D3E"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="EC7016"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="E64823"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="9C6A6A"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="2998E3"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="7F723D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
@@ -4917,99 +4976,99 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="83.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" s="13"/>
     </row>
-    <row r="3" spans="2:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B5" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="45" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:2" ht="45" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B10" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="13"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="13"/>
     </row>
-    <row r="19" spans="2:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B20" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B21" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="16"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="13"/>
     </row>
   </sheetData>
@@ -5022,22 +5081,22 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.921875" customWidth="1"/>
-    <col min="3" max="3" width="31.61328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="20.921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3828125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.9296875" customWidth="1"/>
+    <col min="3" max="3" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="26" t="s">
@@ -5053,13 +5112,13 @@
         <v>29</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="18">
         <f>COUNTIF(D1:BE1, "&lt;&gt;")</f>
         <v>5</v>
@@ -5068,278 +5127,278 @@
       <c r="C2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="83">
+      <c r="D2" s="81">
         <v>2700</v>
       </c>
       <c r="E2" s="12">
         <v>2700</v>
       </c>
-      <c r="F2" s="85">
-        <v>2700</v>
+      <c r="F2" s="95">
+        <v>8000</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="85">
+      <c r="H2" s="83">
         <v>2780</v>
       </c>
-      <c r="I2" s="40"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C3" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="83">
+        <v>41</v>
+      </c>
+      <c r="D3" s="81">
         <f>68.9*10^9</f>
         <v>68900000000</v>
       </c>
       <c r="E3" s="12">
-        <f>60*10^9</f>
-        <v>60000000000</v>
-      </c>
-      <c r="F3" s="85">
         <f>68.9*10^9</f>
         <v>68900000000</v>
       </c>
+      <c r="F3" s="95">
+        <f>193*10^9</f>
+        <v>193000000000</v>
+      </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="85">
+      <c r="H3" s="83">
         <v>73.099999999999994</v>
       </c>
-      <c r="I3" s="40"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="I3" s="38"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="83">
+      <c r="D4" s="81">
         <v>0.33</v>
       </c>
       <c r="E4" s="12">
         <v>0.33</v>
       </c>
-      <c r="F4" s="85">
+      <c r="F4" s="95">
         <v>0.33</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="85">
+      <c r="H4" s="83">
         <v>0.33</v>
       </c>
-      <c r="I4" s="40"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I4" s="38"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="83">
+        <v>42</v>
+      </c>
+      <c r="D5" s="81">
         <f>19*10^6</f>
         <v>19000000</v>
       </c>
       <c r="E5" s="12">
-        <f>250*10^6</f>
-        <v>250000000</v>
-      </c>
-      <c r="F5" s="85">
-        <f>103 *10^6</f>
-        <v>103000000</v>
+        <f>276*10^6</f>
+        <v>276000000</v>
+      </c>
+      <c r="F5" s="95">
+        <f>240 *10^6</f>
+        <v>240000000</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="85">
+      <c r="H5" s="83">
         <v>62</v>
       </c>
-      <c r="I5" s="40"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="83">
+        <v>43</v>
+      </c>
+      <c r="D6" s="81">
         <f>32*10^6</f>
         <v>32000000</v>
       </c>
       <c r="E6" s="12">
-        <f>275*10^6</f>
-        <v>275000000</v>
-      </c>
-      <c r="F6" s="85">
-        <f>131*10^6</f>
-        <v>131000000</v>
+        <f>310*10^6</f>
+        <v>310000000</v>
+      </c>
+      <c r="F6" s="95">
+        <f>550*10^6</f>
+        <v>550000000</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="85">
+      <c r="H6" s="83">
         <v>76</v>
       </c>
-      <c r="I6" s="40"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C7" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="84">
+        <v>44</v>
+      </c>
+      <c r="D7" s="82">
         <f>27*10^6</f>
         <v>27000000</v>
       </c>
       <c r="E7" s="22">
         <f>E6*0.85</f>
-        <v>233750000</v>
-      </c>
-      <c r="F7" s="86">
-        <f>110*10^6</f>
-        <v>110000000</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="86">
+        <v>263500000</v>
+      </c>
+      <c r="F7" s="22">
+        <f>F6*0.85</f>
+        <v>467500000</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="84">
         <v>65</v>
       </c>
-      <c r="I7" s="40"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="I7" s="38"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="83">
+        <v>45</v>
+      </c>
+      <c r="D8" s="81">
         <f>207*10^6</f>
         <v>207000000</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="81">
         <f>207*10^6</f>
         <v>207000000</v>
       </c>
-      <c r="F8" s="83">
+      <c r="F8" s="81">
         <f>207*10^6</f>
         <v>207000000</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="85">
+      <c r="H8" s="83">
         <v>283</v>
       </c>
-      <c r="I8" s="40"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="C9" s="40"/>
+      <c r="I8" s="38"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C9" s="38"/>
       <c r="D9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="40"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-    </row>
-    <row r="17" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-    </row>
-    <row r="18" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-    </row>
-    <row r="19" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-    </row>
-    <row r="20" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-    </row>
-    <row r="21" spans="3:9" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
+      <c r="I9" s="38"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="85"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+    </row>
+    <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5354,36 +5413,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BBD36B-8DEB-4362-8948-9CFC06A35BB2}">
   <dimension ref="A1:AD81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="P80" sqref="P80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.61328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.61328125" customWidth="1"/>
-    <col min="7" max="8" width="10.69140625" customWidth="1"/>
-    <col min="9" max="9" width="10.61328125" customWidth="1"/>
-    <col min="10" max="10" width="10.69140625" customWidth="1"/>
-    <col min="11" max="11" width="8.69140625" customWidth="1"/>
-    <col min="12" max="12" width="1.69140625" style="94" customWidth="1"/>
-    <col min="13" max="13" width="7.23046875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.69140625" customWidth="1"/>
-    <col min="15" max="16" width="12.69140625" customWidth="1"/>
-    <col min="17" max="17" width="12.07421875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.3046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.921875" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" customWidth="1"/>
+    <col min="7" max="8" width="10.73046875" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" customWidth="1"/>
+    <col min="10" max="10" width="10.73046875" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="1.73046875" style="91" customWidth="1"/>
+    <col min="13" max="13" width="7.19921875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.9296875" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="22.15234375" customWidth="1"/>
-    <col min="22" max="22" width="11.921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.1328125" customWidth="1"/>
+    <col min="22" max="22" width="11.9296875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.07421875" customWidth="1"/>
+    <col min="30" max="30" width="18.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5396,301 +5455,301 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="M1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="82" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="74" t="s">
-        <v>73</v>
+    </row>
+    <row r="2" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="72" t="s">
+        <v>72</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="91"/>
+      <c r="F2" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="88"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="M2" s="1">
         <f>COUNTA(O2:O697)</f>
         <v>80</v>
       </c>
-      <c r="O2" s="79">
+      <c r="O2" s="77">
         <v>0</v>
       </c>
-      <c r="P2" s="80">
+      <c r="P2" s="78">
         <v>0.51</v>
       </c>
-      <c r="Q2" s="81">
+      <c r="Q2" s="79">
         <f t="shared" ref="Q2:Q33" si="0">P2*10^5</f>
         <v>51000</v>
       </c>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-    </row>
-    <row r="3" spans="1:30" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+    </row>
+    <row r="3" spans="1:30" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="78" t="s">
+      <c r="C3" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="D3" s="93"/>
+      <c r="E3" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="F3" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="G3" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="H3" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="I3" s="73" t="s">
         <v>65</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>64</v>
       </c>
       <c r="K3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="47">
+      <c r="O3" s="45">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="P3" s="1">
         <v>1.25</v>
       </c>
-      <c r="Q3" s="46">
+      <c r="Q3" s="44">
         <f t="shared" si="0"/>
         <v>125000</v>
       </c>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-    </row>
-    <row r="4" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B4" s="5"/>
-      <c r="C4" s="47">
+      <c r="C4" s="45">
         <v>1</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="62" t="s">
+      <c r="D4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="73">
+      <c r="E4" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="71">
         <v>25</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="38">
+      <c r="G4" s="70"/>
+      <c r="H4" s="36">
         <v>5</v>
       </c>
-      <c r="I4" s="71">
+      <c r="I4" s="69">
         <v>1</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="47">
+      <c r="O4" s="45">
         <v>0.129</v>
       </c>
       <c r="P4" s="1">
         <v>4.91</v>
       </c>
-      <c r="Q4" s="46">
+      <c r="Q4" s="44">
         <f t="shared" si="0"/>
         <v>491000</v>
       </c>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-    </row>
-    <row r="5" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="47">
+      <c r="C5" s="45">
         <v>2</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="62" t="s">
+      <c r="D5" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="69">
+      <c r="E5" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="67">
         <v>1</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="34">
         <v>1</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="66">
+      <c r="H5" s="66"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="64">
         <v>5</v>
       </c>
       <c r="K5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="47">
+      <c r="O5" s="45">
         <v>0.192</v>
       </c>
       <c r="P5" s="1">
         <v>15.91</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="44">
         <f t="shared" si="0"/>
         <v>1591000</v>
       </c>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-    </row>
-    <row r="6" spans="1:30" ht="17.600000000000001" x14ac:dyDescent="0.4">
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+    </row>
+    <row r="6" spans="1:30" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="47">
+      <c r="C6" s="45">
         <v>3</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="62" t="s">
+      <c r="D6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="65">
+      <c r="E6" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="63">
         <v>-200</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="60"/>
       <c r="K6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="47">
+      <c r="O6" s="45">
         <v>0.25700000000000001</v>
       </c>
       <c r="P6" s="1">
         <v>18.84</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="44">
         <f t="shared" si="0"/>
         <v>1884000</v>
       </c>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="48"/>
-    </row>
-    <row r="7" spans="1:30" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="46"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="45">
+      <c r="C7" s="43">
         <v>4</v>
       </c>
-      <c r="D7" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="55" t="s">
+      <c r="D7" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="55"/>
+      <c r="E7" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="59"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="47">
+      <c r="O7" s="45">
         <v>0.32100000000000001</v>
       </c>
       <c r="P7" s="1">
         <v>18.11</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7" s="44">
         <f t="shared" si="0"/>
         <v>1811000</v>
       </c>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
       <c r="T7" s="25"/>
       <c r="U7" s="25"/>
       <c r="V7" s="5"/>
       <c r="W7" s="25"/>
       <c r="X7" s="25"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-    </row>
-    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5703,31 +5762,31 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="47">
+      <c r="O8" s="45">
         <v>0.38600000000000001</v>
       </c>
       <c r="P8" s="1">
         <v>18.11</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="44">
         <f t="shared" si="0"/>
         <v>1811000</v>
       </c>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
       <c r="T8" s="25"/>
       <c r="U8" s="25"/>
       <c r="V8" s="5"/>
       <c r="W8" s="25"/>
       <c r="X8" s="25"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-    </row>
-    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5740,31 +5799,31 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="47">
+      <c r="O9" s="45">
         <v>0.44900000000000001</v>
       </c>
       <c r="P9" s="1">
         <v>18.84</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="44">
         <f t="shared" si="0"/>
         <v>1884000</v>
       </c>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
       <c r="V9" s="5"/>
       <c r="W9" s="25"/>
       <c r="X9" s="25"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-    </row>
-    <row r="10" spans="1:30" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5776,39 +5835,39 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="47">
+      <c r="O10" s="45">
         <v>0.51400000000000001</v>
       </c>
       <c r="P10" s="1">
         <v>19.57</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="44">
         <f t="shared" si="0"/>
         <v>1957000</v>
       </c>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="57"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="55"/>
       <c r="X10" s="25"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-    </row>
-    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="93"/>
-      <c r="E11" s="56" t="s">
+      <c r="C11" s="89" t="s">
         <v>53</v>
+      </c>
+      <c r="D11" s="90"/>
+      <c r="E11" s="54" t="s">
+        <v>52</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -5817,38 +5876,38 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="47">
+      <c r="O11" s="45">
         <v>0.57800000000000007</v>
       </c>
       <c r="P11" s="1">
         <v>20.309999999999999</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="44">
         <f t="shared" si="0"/>
         <v>2030999.9999999998</v>
       </c>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-    </row>
-    <row r="12" spans="1:30" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+    </row>
+    <row r="12" spans="1:30" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="55"/>
+      <c r="C12" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -5856,37 +5915,37 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="47">
+      <c r="O12" s="45">
         <v>0.64300000000000002</v>
       </c>
       <c r="P12" s="1">
         <v>21.04</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="44">
         <f t="shared" si="0"/>
         <v>2104000</v>
       </c>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="48"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="46"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-    </row>
-    <row r="13" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="46"/>
+      <c r="C13" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="44"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -5895,37 +5954,37 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="47">
+      <c r="O13" s="45">
         <v>0.70599999999999996</v>
       </c>
       <c r="P13" s="1">
         <v>21.77</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13" s="44">
         <f t="shared" si="0"/>
         <v>2177000</v>
       </c>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-    </row>
-    <row r="14" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+    </row>
+    <row r="14" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="46"/>
+      <c r="C14" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="44"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -5934,37 +5993,37 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="47">
+      <c r="O14" s="45">
         <v>0.77099999999999991</v>
       </c>
       <c r="P14" s="1">
         <v>23.24</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="Q14" s="44">
         <f t="shared" si="0"/>
         <v>2324000</v>
       </c>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-    </row>
-    <row r="15" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+    </row>
+    <row r="15" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="43"/>
+      <c r="C15" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="41"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -5973,31 +6032,31 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="47">
+      <c r="O15" s="45">
         <v>0.83499999999999996</v>
       </c>
       <c r="P15" s="1">
         <v>23.24</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15" s="44">
         <f t="shared" si="0"/>
         <v>2324000</v>
       </c>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-    </row>
-    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+    </row>
+    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6010,31 +6069,31 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="47">
+      <c r="O16" s="45">
         <v>0.89999999999999991</v>
       </c>
       <c r="P16" s="1">
         <v>24.71</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16" s="44">
         <f t="shared" si="0"/>
         <v>2471000</v>
       </c>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-    </row>
-    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+    </row>
+    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -6047,31 +6106,31 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="47">
+      <c r="O17" s="45">
         <v>0.96299999999999986</v>
       </c>
       <c r="P17" s="1">
         <v>24.71</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="44">
         <f t="shared" si="0"/>
         <v>2471000</v>
       </c>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-    </row>
-    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+    </row>
+    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6084,31 +6143,31 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="47">
+      <c r="O18" s="45">
         <v>1.0279999999999998</v>
       </c>
       <c r="P18" s="1">
         <v>25.44</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="44">
         <f t="shared" si="0"/>
         <v>2544000</v>
       </c>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-    </row>
-    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
+    </row>
+    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6121,31 +6180,31 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="47">
+      <c r="O19" s="45">
         <v>1.0919999999999999</v>
       </c>
       <c r="P19" s="1">
         <v>25.44</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="44">
         <f t="shared" si="0"/>
         <v>2544000</v>
       </c>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-    </row>
-    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
+    </row>
+    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -6158,31 +6217,31 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="47">
+      <c r="O20" s="45">
         <v>1.1569999999999998</v>
       </c>
       <c r="P20" s="1">
         <v>26.17</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="44">
         <f t="shared" si="0"/>
         <v>2617000</v>
       </c>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-    </row>
-    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.4">
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="46"/>
+    </row>
+    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -6195,31 +6254,31 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="47">
+      <c r="O21" s="45">
         <v>1.2199999999999998</v>
       </c>
       <c r="P21" s="1">
         <v>26.17</v>
       </c>
-      <c r="Q21" s="46">
+      <c r="Q21" s="44">
         <f t="shared" si="0"/>
         <v>2617000</v>
       </c>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-    </row>
-    <row r="22" spans="1:30" ht="17.600000000000001" x14ac:dyDescent="0.4">
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+    </row>
+    <row r="22" spans="1:30" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -6232,31 +6291,31 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="47">
+      <c r="O22" s="45">
         <v>1.2849999999999997</v>
       </c>
       <c r="P22" s="1">
         <v>26.17</v>
       </c>
-      <c r="Q22" s="46">
+      <c r="Q22" s="44">
         <f t="shared" si="0"/>
         <v>2617000</v>
       </c>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="48"/>
-    </row>
-    <row r="23" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="46"/>
+    </row>
+    <row r="23" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -6269,31 +6328,31 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="47">
+      <c r="O23" s="45">
         <v>1.3489999999999998</v>
       </c>
       <c r="P23" s="1">
         <v>26.17</v>
       </c>
-      <c r="Q23" s="46">
+      <c r="Q23" s="44">
         <f t="shared" si="0"/>
         <v>2617000</v>
       </c>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="51"/>
-      <c r="AD23" s="48"/>
-    </row>
-    <row r="24" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="46"/>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -6306,905 +6365,905 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="47">
+      <c r="O24" s="45">
         <v>1.4139999999999997</v>
       </c>
       <c r="P24" s="1">
         <v>26.91</v>
       </c>
-      <c r="Q24" s="46">
+      <c r="Q24" s="44">
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
-      <c r="AD24" s="48"/>
-    </row>
-    <row r="25" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="O25" s="47">
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="46"/>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="O25" s="45">
         <v>1.4769999999999996</v>
       </c>
       <c r="P25" s="1">
         <v>26.91</v>
       </c>
-      <c r="Q25" s="46">
+      <c r="Q25" s="44">
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="48"/>
-    </row>
-    <row r="26" spans="1:30" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="O26" s="47">
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+    </row>
+    <row r="26" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="O26" s="45">
         <v>1.5419999999999996</v>
       </c>
       <c r="P26" s="1">
         <v>26.91</v>
       </c>
-      <c r="Q26" s="46">
+      <c r="Q26" s="44">
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
-    </row>
-    <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.4">
-      <c r="O27" s="47">
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="46"/>
+    </row>
+    <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="O27" s="45">
         <v>1.6059999999999997</v>
       </c>
       <c r="P27" s="1">
         <v>26.91</v>
       </c>
-      <c r="Q27" s="46">
+      <c r="Q27" s="44">
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="48"/>
-      <c r="AB27" s="48"/>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="48"/>
-    </row>
-    <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.4">
-      <c r="O28" s="47">
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="46"/>
+    </row>
+    <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="O28" s="45">
         <v>1.6709999999999996</v>
       </c>
       <c r="P28" s="1">
         <v>26.91</v>
       </c>
-      <c r="Q28" s="46">
+      <c r="Q28" s="44">
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="48"/>
-      <c r="AD28" s="48"/>
-    </row>
-    <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.4">
-      <c r="O29" s="47">
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="46"/>
+    </row>
+    <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="O29" s="45">
         <v>1.7339999999999995</v>
       </c>
       <c r="P29" s="1">
         <v>26.91</v>
       </c>
-      <c r="Q29" s="46">
+      <c r="Q29" s="44">
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="48"/>
-      <c r="AD29" s="48"/>
-    </row>
-    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.4">
-      <c r="O30" s="47">
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="46"/>
+      <c r="AB29" s="46"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="46"/>
+    </row>
+    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="O30" s="45">
         <v>1.7989999999999995</v>
       </c>
       <c r="P30" s="1">
         <v>26.91</v>
       </c>
-      <c r="Q30" s="46">
+      <c r="Q30" s="44">
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="48"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="48"/>
-      <c r="AD30" s="48"/>
-    </row>
-    <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.4">
-      <c r="O31" s="47">
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="46"/>
+    </row>
+    <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="O31" s="45">
         <v>1.8629999999999995</v>
       </c>
       <c r="P31" s="1">
         <v>26.91</v>
       </c>
-      <c r="Q31" s="46">
+      <c r="Q31" s="44">
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="48"/>
-    </row>
-    <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.4">
-      <c r="O32" s="47">
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="46"/>
+    </row>
+    <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="O32" s="45">
         <v>1.9279999999999995</v>
       </c>
       <c r="P32" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q32" s="46">
+      <c r="Q32" s="44">
         <f t="shared" si="0"/>
         <v>2764000</v>
       </c>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="48"/>
-      <c r="AC32" s="48"/>
-      <c r="AD32" s="48"/>
-    </row>
-    <row r="33" spans="15:30" ht="15" x14ac:dyDescent="0.4">
-      <c r="O33" s="47">
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
+    </row>
+    <row r="33" spans="15:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="O33" s="45">
         <v>1.9909999999999994</v>
       </c>
       <c r="P33" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q33" s="46">
+      <c r="Q33" s="44">
         <f t="shared" si="0"/>
         <v>2764000</v>
       </c>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="48"/>
-      <c r="AD33" s="48"/>
-    </row>
-    <row r="34" spans="15:30" ht="15" x14ac:dyDescent="0.4">
-      <c r="O34" s="47">
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="46"/>
+    </row>
+    <row r="34" spans="15:30" ht="15" x14ac:dyDescent="0.45">
+      <c r="O34" s="45">
         <v>2.0559999999999996</v>
       </c>
       <c r="P34" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q34" s="46">
+      <c r="Q34" s="44">
         <f t="shared" ref="Q34:Q65" si="1">P34*10^5</f>
         <v>2764000</v>
       </c>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="48"/>
-      <c r="AD34" s="48"/>
-    </row>
-    <row r="35" spans="15:30" x14ac:dyDescent="0.4">
-      <c r="O35" s="47">
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="46"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="46"/>
+    </row>
+    <row r="35" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O35" s="45">
         <v>2.1199999999999997</v>
       </c>
       <c r="P35" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q35" s="46">
+      <c r="Q35" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="48"/>
-      <c r="AC35" s="48"/>
-      <c r="AD35" s="48"/>
-    </row>
-    <row r="36" spans="15:30" x14ac:dyDescent="0.4">
-      <c r="O36" s="47">
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="46"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="46"/>
+      <c r="AA35" s="46"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="46"/>
+    </row>
+    <row r="36" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O36" s="45">
         <v>2.1849999999999996</v>
       </c>
       <c r="P36" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q36" s="46">
+      <c r="Q36" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="48"/>
-      <c r="AA36" s="48"/>
-      <c r="AB36" s="48"/>
-      <c r="AC36" s="48"/>
-      <c r="AD36" s="48"/>
-    </row>
-    <row r="37" spans="15:30" x14ac:dyDescent="0.4">
-      <c r="O37" s="47">
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="46"/>
+      <c r="AB36" s="46"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="46"/>
+    </row>
+    <row r="37" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O37" s="45">
         <v>2.2479999999999998</v>
       </c>
       <c r="P37" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q37" s="46">
+      <c r="Q37" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="48"/>
-    </row>
-    <row r="38" spans="15:30" x14ac:dyDescent="0.4">
-      <c r="O38" s="47">
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="46"/>
+    </row>
+    <row r="38" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O38" s="45">
         <v>2.3129999999999997</v>
       </c>
       <c r="P38" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q38" s="46">
+      <c r="Q38" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="48"/>
-      <c r="Z38" s="48"/>
-      <c r="AA38" s="48"/>
-      <c r="AB38" s="48"/>
-      <c r="AC38" s="48"/>
-      <c r="AD38" s="48"/>
-    </row>
-    <row r="39" spans="15:30" x14ac:dyDescent="0.4">
-      <c r="O39" s="47">
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="46"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="46"/>
+      <c r="AD38" s="46"/>
+    </row>
+    <row r="39" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O39" s="45">
         <v>2.3769999999999998</v>
       </c>
       <c r="P39" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q39" s="46">
+      <c r="Q39" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="48"/>
-      <c r="Y39" s="48"/>
-      <c r="Z39" s="48"/>
-      <c r="AA39" s="48"/>
-      <c r="AB39" s="48"/>
-      <c r="AC39" s="48"/>
-      <c r="AD39" s="48"/>
-    </row>
-    <row r="40" spans="15:30" x14ac:dyDescent="0.4">
-      <c r="O40" s="47">
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="46"/>
+    </row>
+    <row r="40" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O40" s="45">
         <v>2.4419999999999997</v>
       </c>
       <c r="P40" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q40" s="46">
+      <c r="Q40" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="41" spans="15:30" x14ac:dyDescent="0.4">
-      <c r="O41" s="47">
+    <row r="41" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O41" s="45">
         <v>2.5049999999999999</v>
       </c>
       <c r="P41" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q41" s="46">
+      <c r="Q41" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="42" spans="15:30" x14ac:dyDescent="0.4">
-      <c r="O42" s="47">
+    <row r="42" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O42" s="45">
         <v>2.57</v>
       </c>
       <c r="P42" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q42" s="46">
+      <c r="Q42" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="43" spans="15:30" x14ac:dyDescent="0.4">
-      <c r="O43" s="47">
+    <row r="43" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O43" s="45">
         <v>2.6339999999999999</v>
       </c>
       <c r="P43" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q43" s="46">
+      <c r="Q43" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="44" spans="15:30" x14ac:dyDescent="0.4">
-      <c r="O44" s="47">
+    <row r="44" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O44" s="45">
         <v>2.6989999999999998</v>
       </c>
       <c r="P44" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q44" s="46">
+      <c r="Q44" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="45" spans="15:30" x14ac:dyDescent="0.4">
-      <c r="O45" s="47">
+    <row r="45" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O45" s="45">
         <v>2.762</v>
       </c>
       <c r="P45" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q45" s="46">
+      <c r="Q45" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="46" spans="15:30" x14ac:dyDescent="0.4">
-      <c r="O46" s="47">
+    <row r="46" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O46" s="45">
         <v>2.827</v>
       </c>
       <c r="P46" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q46" s="46">
+      <c r="Q46" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="47" spans="15:30" x14ac:dyDescent="0.4">
-      <c r="O47" s="47">
+    <row r="47" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O47" s="45">
         <v>2.891</v>
       </c>
       <c r="P47" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q47" s="46">
+      <c r="Q47" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="48" spans="15:30" x14ac:dyDescent="0.4">
-      <c r="O48" s="47">
+    <row r="48" spans="15:30" x14ac:dyDescent="0.45">
+      <c r="O48" s="45">
         <v>2.956</v>
       </c>
       <c r="P48" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q48" s="46">
+      <c r="Q48" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="49" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O49" s="47">
+    <row r="49" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O49" s="45">
         <v>3.0190000000000001</v>
       </c>
       <c r="P49" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q49" s="46">
+      <c r="Q49" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="50" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O50" s="47">
+    <row r="50" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O50" s="45">
         <v>3.0840000000000001</v>
       </c>
       <c r="P50" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q50" s="46">
+      <c r="Q50" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="51" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O51" s="47">
+    <row r="51" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O51" s="45">
         <v>3.1480000000000001</v>
       </c>
       <c r="P51" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q51" s="46">
+      <c r="Q51" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="52" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O52" s="47">
+    <row r="52" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O52" s="45">
         <v>3.2130000000000001</v>
       </c>
       <c r="P52" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q52" s="46">
+      <c r="Q52" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="53" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O53" s="47">
+    <row r="53" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O53" s="45">
         <v>3.2760000000000002</v>
       </c>
       <c r="P53" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q53" s="46">
+      <c r="Q53" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="54" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O54" s="47">
+    <row r="54" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O54" s="45">
         <v>3.3410000000000002</v>
       </c>
       <c r="P54" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q54" s="46">
+      <c r="Q54" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="55" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O55" s="47">
+    <row r="55" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O55" s="45">
         <v>3.4050000000000002</v>
       </c>
       <c r="P55" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q55" s="46">
+      <c r="Q55" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="56" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O56" s="47">
+    <row r="56" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O56" s="45">
         <v>3.47</v>
       </c>
       <c r="P56" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q56" s="46">
+      <c r="Q56" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="57" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O57" s="47">
+    <row r="57" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O57" s="45">
         <v>3.5330000000000004</v>
       </c>
       <c r="P57" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q57" s="46">
+      <c r="Q57" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="58" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O58" s="47">
+    <row r="58" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O58" s="45">
         <v>3.5980000000000003</v>
       </c>
       <c r="P58" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q58" s="46">
+      <c r="Q58" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="59" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O59" s="47">
+    <row r="59" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O59" s="45">
         <v>3.6620000000000004</v>
       </c>
       <c r="P59" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q59" s="46">
+      <c r="Q59" s="44">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
-    <row r="60" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O60" s="47">
+    <row r="60" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O60" s="45">
         <v>3.7260000000000004</v>
       </c>
       <c r="P60" s="1">
         <v>26.91</v>
       </c>
-      <c r="Q60" s="46">
+      <c r="Q60" s="44">
         <f t="shared" si="1"/>
         <v>2691000</v>
       </c>
     </row>
-    <row r="61" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O61" s="47">
+    <row r="61" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O61" s="45">
         <v>3.7900000000000005</v>
       </c>
       <c r="P61" s="1">
         <v>25.44</v>
       </c>
-      <c r="Q61" s="46">
+      <c r="Q61" s="44">
         <f t="shared" si="1"/>
         <v>2544000</v>
       </c>
     </row>
-    <row r="62" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O62" s="47">
+    <row r="62" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O62" s="45">
         <v>3.8550000000000004</v>
       </c>
       <c r="P62" s="1">
         <v>23.97</v>
       </c>
-      <c r="Q62" s="46">
+      <c r="Q62" s="44">
         <f t="shared" si="1"/>
         <v>2397000</v>
       </c>
     </row>
-    <row r="63" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O63" s="47">
+    <row r="63" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O63" s="45">
         <v>3.9190000000000005</v>
       </c>
       <c r="P63" s="1">
         <v>21.77</v>
       </c>
-      <c r="Q63" s="46">
-        <f t="shared" ref="Q63:Q81" si="2">P63*10^5</f>
+      <c r="Q63" s="44">
+        <f t="shared" si="1"/>
         <v>2177000</v>
       </c>
     </row>
-    <row r="64" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O64" s="47">
+    <row r="64" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O64" s="45">
         <v>3.9830000000000005</v>
       </c>
       <c r="P64" s="1">
         <v>18.84</v>
       </c>
-      <c r="Q64" s="46">
-        <f t="shared" si="2"/>
+      <c r="Q64" s="44">
+        <f t="shared" si="1"/>
         <v>1884000</v>
       </c>
     </row>
-    <row r="65" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O65" s="47">
+    <row r="65" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O65" s="45">
         <v>4.0470000000000006</v>
       </c>
       <c r="P65" s="1">
         <v>15.91</v>
       </c>
-      <c r="Q65" s="46">
-        <f t="shared" si="2"/>
+      <c r="Q65" s="44">
+        <f t="shared" si="1"/>
         <v>1591000</v>
       </c>
     </row>
-    <row r="66" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O66" s="47">
+    <row r="66" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O66" s="45">
         <v>4.112000000000001</v>
       </c>
       <c r="P66" s="1">
         <v>14.44</v>
       </c>
-      <c r="Q66" s="46">
-        <f t="shared" si="2"/>
+      <c r="Q66" s="44">
+        <f t="shared" ref="Q66:Q81" si="2">P66*10^5</f>
         <v>1444000</v>
       </c>
     </row>
-    <row r="67" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O67" s="47">
+    <row r="67" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O67" s="45">
         <v>4.1770000000000014</v>
       </c>
       <c r="P67" s="1">
         <v>13.71</v>
       </c>
-      <c r="Q67" s="46">
+      <c r="Q67" s="44">
         <f t="shared" si="2"/>
         <v>1371000</v>
       </c>
     </row>
-    <row r="68" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O68" s="47">
+    <row r="68" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O68" s="45">
         <v>4.2400000000000011</v>
       </c>
       <c r="P68" s="1">
         <v>13.71</v>
       </c>
-      <c r="Q68" s="46">
+      <c r="Q68" s="44">
         <f t="shared" si="2"/>
         <v>1371000</v>
       </c>
     </row>
-    <row r="69" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O69" s="47">
+    <row r="69" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O69" s="45">
         <v>4.3050000000000015</v>
       </c>
       <c r="P69" s="1">
         <v>12.24</v>
       </c>
-      <c r="Q69" s="46">
+      <c r="Q69" s="44">
         <f t="shared" si="2"/>
         <v>1224000</v>
       </c>
     </row>
-    <row r="70" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O70" s="47">
+    <row r="70" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O70" s="45">
         <v>4.3690000000000015</v>
       </c>
       <c r="P70" s="1">
         <v>11.51</v>
       </c>
-      <c r="Q70" s="46">
+      <c r="Q70" s="44">
         <f t="shared" si="2"/>
         <v>1151000</v>
       </c>
     </row>
-    <row r="71" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O71" s="47">
+    <row r="71" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O71" s="45">
         <v>4.4340000000000019</v>
       </c>
       <c r="P71" s="1">
         <v>10.78</v>
       </c>
-      <c r="Q71" s="46">
+      <c r="Q71" s="44">
         <f t="shared" si="2"/>
         <v>1078000</v>
       </c>
     </row>
-    <row r="72" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O72" s="47">
+    <row r="72" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O72" s="45">
         <v>4.4970000000000017</v>
       </c>
       <c r="P72" s="1">
         <v>10.039999999999999</v>
       </c>
-      <c r="Q72" s="46">
+      <c r="Q72" s="44">
         <f t="shared" si="2"/>
         <v>1003999.9999999999</v>
       </c>
     </row>
-    <row r="73" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O73" s="47">
+    <row r="73" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O73" s="45">
         <v>4.5620000000000021</v>
       </c>
       <c r="P73" s="1">
         <v>9.31</v>
       </c>
-      <c r="Q73" s="46">
+      <c r="Q73" s="44">
         <f t="shared" si="2"/>
         <v>931000</v>
       </c>
     </row>
-    <row r="74" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O74" s="47">
+    <row r="74" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O74" s="45">
         <v>4.6260000000000021</v>
       </c>
       <c r="P74" s="1">
         <v>8.58</v>
       </c>
-      <c r="Q74" s="46">
+      <c r="Q74" s="44">
         <f t="shared" si="2"/>
         <v>858000</v>
       </c>
     </row>
-    <row r="75" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O75" s="47">
+    <row r="75" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O75" s="45">
         <v>4.6910000000000025</v>
       </c>
       <c r="P75" s="1">
         <v>7.11</v>
       </c>
-      <c r="Q75" s="46">
+      <c r="Q75" s="44">
         <f t="shared" si="2"/>
         <v>711000</v>
       </c>
     </row>
-    <row r="76" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O76" s="47">
+    <row r="76" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O76" s="45">
         <v>4.7540000000000022</v>
       </c>
       <c r="P76" s="1">
         <v>5.65</v>
       </c>
-      <c r="Q76" s="46">
+      <c r="Q76" s="44">
         <f t="shared" si="2"/>
         <v>565000</v>
       </c>
     </row>
-    <row r="77" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O77" s="47">
+    <row r="77" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O77" s="45">
         <v>4.8190000000000026</v>
       </c>
       <c r="P77" s="1">
         <v>4.18</v>
       </c>
-      <c r="Q77" s="46">
+      <c r="Q77" s="44">
         <f t="shared" si="2"/>
         <v>418000</v>
       </c>
     </row>
-    <row r="78" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O78" s="47">
+    <row r="78" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O78" s="45">
         <v>4.8830000000000027</v>
       </c>
       <c r="P78" s="1">
         <v>2.71</v>
       </c>
-      <c r="Q78" s="46">
+      <c r="Q78" s="44">
         <f t="shared" si="2"/>
         <v>271000</v>
       </c>
     </row>
-    <row r="79" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O79" s="47">
+    <row r="79" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O79" s="45">
         <v>4.9480000000000031</v>
       </c>
       <c r="P79" s="1">
         <v>1.98</v>
       </c>
-      <c r="Q79" s="46">
+      <c r="Q79" s="44">
         <f t="shared" si="2"/>
         <v>198000</v>
       </c>
     </row>
-    <row r="80" spans="15:17" x14ac:dyDescent="0.4">
-      <c r="O80" s="47">
+    <row r="80" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="O80" s="45">
         <v>5.0110000000000028</v>
       </c>
       <c r="P80" s="1">
         <v>0.51</v>
       </c>
-      <c r="Q80" s="46">
+      <c r="Q80" s="44">
         <f t="shared" si="2"/>
         <v>51000</v>
       </c>
     </row>
-    <row r="81" spans="15:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="O81" s="45">
+    <row r="81" spans="15:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="O81" s="43">
         <v>5.0740000000000025</v>
       </c>
-      <c r="P81" s="44">
+      <c r="P81" s="42">
         <v>0.51</v>
       </c>
-      <c r="Q81" s="43">
+      <c r="Q81" s="41">
         <f t="shared" si="2"/>
         <v>51000</v>
       </c>
@@ -7223,42 +7282,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C8E3EE-99AB-4972-A73D-D1EFEBD6EA1A}">
-  <dimension ref="A1:AK35"/>
+  <dimension ref="A1:AM35"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.3046875" customWidth="1"/>
-    <col min="8" max="8" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.69140625" customWidth="1"/>
-    <col min="10" max="10" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.15234375" customWidth="1"/>
-    <col min="14" max="14" width="5.84375" customWidth="1"/>
-    <col min="15" max="15" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.3046875" customWidth="1"/>
-    <col min="18" max="18" width="14.07421875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.07421875" customWidth="1"/>
-    <col min="20" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="28.07421875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.3046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.23046875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.61328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.53515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="83.69140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.23046875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="81.921875" customWidth="1"/>
-    <col min="39" max="39" width="9.15234375" customWidth="1"/>
+    <col min="1" max="1" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1328125" customWidth="1"/>
+    <col min="15" max="15" width="5.86328125" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="12.33203125" customWidth="1"/>
+    <col min="20" max="20" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.06640625" customWidth="1"/>
+    <col min="22" max="23" width="13" customWidth="1"/>
+    <col min="24" max="24" width="28.06640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.53125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="81.9296875" customWidth="1"/>
+    <col min="41" max="41" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.45">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -7290,40 +7350,44 @@
         <v>28</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="30"/>
+      <c r="P1" s="5"/>
       <c r="Q1" s="30"/>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
+      <c r="AB1" s="8"/>
       <c r="AF1" s="8"/>
       <c r="AG1" s="8"/>
-      <c r="AJ1" s="6"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AL1" s="6"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
         <f>COUNTIF(B2:B82, "&lt;&gt;")</f>
         <v>8</v>
@@ -7355,46 +7419,50 @@
       <c r="I2" s="10">
         <v>0</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="37">
         <f>3*10^6</f>
         <v>3000000</v>
       </c>
-      <c r="K2" s="35">
-        <v>100</v>
-      </c>
-      <c r="L2" s="10">
-        <f t="shared" ref="L2:L7" si="0">SQRT((D3-D2)^2+(C3-C2)^2)</f>
+      <c r="K2" s="33">
+        <v>230</v>
+      </c>
+      <c r="L2" s="33">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10">
+        <f t="shared" ref="M2:M7" si="0">SQRT((D3-D2)^2+(C3-C2)^2)</f>
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="M2" s="10">
-        <f>ROUNDUP($K$2*(L2/SUM($L$2:$L$7)),0)</f>
-        <v>5</v>
-      </c>
       <c r="N2" s="10">
-        <f>IF(M2=0,0,M2-1)</f>
-        <v>4</v>
-      </c>
-      <c r="O2" s="5"/>
+        <f>ROUNDUP($K$2*(M2/SUM($M$2:$M$7)),0)</f>
+        <v>11</v>
+      </c>
+      <c r="O2" s="10">
+        <f>IF(N2=0,0,N2-1)</f>
+        <v>10</v>
+      </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="27">
-        <v>1</v>
-      </c>
-      <c r="T2" s="27">
-        <v>1</v>
-      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="25"/>
       <c r="U2" s="27">
         <v>1</v>
       </c>
-      <c r="Z2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
+      <c r="V2" s="27">
+        <v>1</v>
+      </c>
+      <c r="W2" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="5"/>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
-      <c r="AJ2" s="7"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AL2" s="7"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>2</v>
@@ -7423,37 +7491,39 @@
       <c r="I3" s="1">
         <v>7</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="37">
         <f t="shared" ref="J3:J4" si="2">3*10^6</f>
         <v>3000000</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="33">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="1">
         <f t="shared" si="0"/>
         <v>0.91363000000000005</v>
       </c>
-      <c r="M3" s="10">
-        <f t="shared" ref="M3:M8" si="3">ROUNDUP($K$2*(L3/SUM($L$2:$L$7)),0)</f>
-        <v>89</v>
-      </c>
       <c r="N3" s="10">
-        <f t="shared" ref="N3:N8" si="4">IF(M3=0,0,M3-1)</f>
-        <v>88</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="2"/>
+        <f>ROUNDUP($K$2*(M3/SUM($M$2:$M$7)),0)</f>
+        <v>204</v>
+      </c>
+      <c r="O3" s="10">
+        <f t="shared" ref="O3:O8" si="3">IF(N3=0,0,N3-1)</f>
+        <v>203</v>
+      </c>
+      <c r="P3" s="5"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="AB3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
-      <c r="AJ3" s="7"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AL3" s="7"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="10">
         <v>3</v>
@@ -7477,41 +7547,43 @@
         <v>7</v>
       </c>
       <c r="H4" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="10">
         <v>7</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="37">
         <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="34">
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="10">
         <f t="shared" si="0"/>
         <v>6.4456538070237671E-2</v>
       </c>
-      <c r="M4" s="10">
+      <c r="N4" s="10">
+        <f>ROUNDUP($K$2*(M4/SUM($M$2:$M$7)),0)</f>
+        <v>15</v>
+      </c>
+      <c r="O4" s="10">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="N4" s="10">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="P4" s="5"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="T4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="V4" s="5"/>
+      <c r="AB4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
-      <c r="AJ4" s="7"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AL4" s="7"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>4</v>
@@ -7524,10 +7596,7 @@
         <f>17.17*10^-3</f>
         <v>1.7170000000000001E-2</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>0</v>
       </c>
@@ -7535,38 +7604,40 @@
         <v>7</v>
       </c>
       <c r="H5" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1">
         <v>7</v>
       </c>
       <c r="J5" s="32"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="33">
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="1">
         <f t="shared" si="0"/>
         <v>2.3608896628178177E-3</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
+        <f>ROUNDUP($K$2*(M5/SUM($M$2:$M$7)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N5" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="2"/>
+      <c r="P5" s="5"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="T5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="V5" s="5"/>
+      <c r="AB5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
-      <c r="AJ5" s="7"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AL5" s="7"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="10">
         <v>5</v>
@@ -7579,10 +7650,7 @@
         <f>16.24*10^-3</f>
         <v>1.6239999999999997E-2</v>
       </c>
-      <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="10">
         <v>0</v>
       </c>
@@ -7590,37 +7658,39 @@
         <v>7</v>
       </c>
       <c r="H6" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="10">
         <v>7</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="34">
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="10">
         <f t="shared" si="0"/>
         <v>2.1949259668607819E-3</v>
       </c>
-      <c r="M6" s="10">
+      <c r="N6" s="10">
+        <f>ROUNDUP($K$2*(M6/SUM($M$2:$M$7)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N6" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="2"/>
+      <c r="P6" s="5"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="T6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="V6" s="5"/>
+      <c r="AB6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
-      <c r="AJ6" s="7"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AL6" s="7"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>6</v>
@@ -7634,8 +7704,7 @@
         <v>1.585E-2</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -7644,7 +7713,7 @@
         <v>7</v>
       </c>
       <c r="H7" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="1">
         <v>7</v>
@@ -7653,32 +7722,34 @@
         <f>J2*0.965</f>
         <v>2895000</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="33">
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="1">
         <f t="shared" si="0"/>
         <v>2.1718655575335469E-3</v>
       </c>
-      <c r="M7" s="10">
+      <c r="N7" s="10">
+        <f>ROUNDUP($K$2*(M7/SUM($M$2:$M$7)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N7" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="2"/>
+      <c r="P7" s="5"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="T7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="V7" s="5"/>
+      <c r="AB7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
-      <c r="AJ7" s="7"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AL7" s="7"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="10">
         <v>7</v>
@@ -7692,8 +7763,7 @@
         <v>1.5939999999999999E-2</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
@@ -7702,34 +7772,36 @@
         <v>7</v>
       </c>
       <c r="H8" s="11">
-        <v>2</v>
-      </c>
-      <c r="I8" s="39">
+        <v>3</v>
+      </c>
+      <c r="I8" s="37">
         <v>7</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="10">
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10">
+        <f>ROUNDUP($K$2*(M8/SUM($M$2:$M$7)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N8" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="2"/>
+      <c r="P8" s="5"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="T8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="V8" s="5"/>
+      <c r="AB8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
-      <c r="AJ8" s="7"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AL8" s="7"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>8</v>
@@ -7753,23 +7825,25 @@
         <f>J2*0.0183</f>
         <v>54900</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="33"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="2"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="5"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="U9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="W9" s="5"/>
+      <c r="AB9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
-      <c r="AJ9" s="7"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AL9" s="7"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -7780,29 +7854,31 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="29"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="33"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="2"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="5"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
-      <c r="AJ10" s="7"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AL10" s="7"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -7813,29 +7889,31 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="32"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="33"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="2"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
-      <c r="AJ11" s="7"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AL11" s="7"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -7846,15 +7924,15 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="29"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="33"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="2"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
@@ -7862,15 +7940,17 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
-      <c r="AJ12" s="7"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AL12" s="7"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -7881,15 +7961,15 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="32"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="33"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="2"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="5"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
@@ -7897,15 +7977,17 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
-      <c r="AJ13" s="7"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AL13" s="7"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -7916,15 +7998,15 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="29"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="33"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="2"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
@@ -7932,15 +8014,17 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
-      <c r="AJ14" s="7"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AL14" s="7"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -7951,15 +8035,15 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="32"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="33"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="2"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
@@ -7967,15 +8051,17 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
-      <c r="AJ15" s="7"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AL15" s="7"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -7986,15 +8072,15 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="29"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="33"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="2"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="5"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
@@ -8002,15 +8088,17 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
-      <c r="AJ16" s="7"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AL16" s="7"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -8021,15 +8109,15 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="32"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="33"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="2"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="5"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
@@ -8037,15 +8125,17 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
-      <c r="AJ17" s="7"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AL17" s="7"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -8056,18 +8146,18 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="29"/>
-      <c r="K18" s="38">
-        <f>SUM(M2:M18)</f>
-        <v>104</v>
-      </c>
-      <c r="L18" s="33"/>
+      <c r="K18" s="36">
+        <f>SUM(N2:N18)</f>
+        <v>233</v>
+      </c>
+      <c r="L18" s="36"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="2"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="5"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
@@ -8075,15 +8165,17 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
-      <c r="AJ18" s="7"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AL18" s="7"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -8110,15 +8202,17 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
-      <c r="AJ19" s="7"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AL19" s="7"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8134,7 +8228,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="2"/>
+      <c r="P20" s="5"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -8145,17 +8239,19 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8171,7 +8267,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="2"/>
+      <c r="P21" s="5"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -8182,17 +8278,19 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
-      <c r="AK21" s="2"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -8208,11 +8306,13 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="2"/>
+      <c r="P22" s="5"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -8228,11 +8328,13 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="2"/>
+      <c r="P23" s="5"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -8248,11 +8350,13 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="2"/>
+      <c r="P24" s="5"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -8268,11 +8372,13 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="2"/>
+      <c r="P25" s="5"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -8288,11 +8394,13 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="2"/>
+      <c r="P26" s="5"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -8308,11 +8416,13 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="2"/>
+      <c r="P27" s="5"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -8328,18 +8438,20 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="2"/>
+      <c r="P28" s="5"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="87"/>
+      <c r="G29" s="94"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -8348,11 +8460,13 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="2"/>
+      <c r="P29" s="5"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -8368,11 +8482,13 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="2"/>
+      <c r="P30" s="5"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -8388,11 +8504,13 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="2"/>
+      <c r="P31" s="5"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -8408,11 +8526,13 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="2"/>
+      <c r="P32" s="5"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8431,8 +8551,10 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8451,8 +8573,10 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8471,10 +8595,460 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041D2246-0C07-4E96-B19F-4C022DA4E97A}">
+  <dimension ref="B1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="17.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="5"/>
+      <c r="C2" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="5"/>
+      <c r="C3" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="60">
+        <v>1232.7385512887799</v>
+      </c>
+      <c r="D4" s="60">
+        <v>1222.9000000000001</v>
+      </c>
+      <c r="E4" s="96">
+        <f>IF(C4&lt;D4,100-((C4/D4)*100),100-(D4/C4*100))</f>
+        <v>0.79810526558887318</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="5">
+        <f>1+B4</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="60">
+        <v>3688.4081380643102</v>
+      </c>
+      <c r="D5" s="60">
+        <v>3633.2</v>
+      </c>
+      <c r="E5" s="96">
+        <f>IF(C5&lt;D5,100-((C5/D5)*100),100-(D5/C5*100))</f>
+        <v>1.4968012214961561</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="5">
+        <f t="shared" ref="B6:B23" si="0">1+B5</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="60">
+        <v>6044.46569603029</v>
+      </c>
+      <c r="D6" s="60">
+        <v>5918.6</v>
+      </c>
+      <c r="E6" s="96">
+        <f>IF(C6&lt;D6,100-((C6/D6)*100),100-(D6/C6*100))</f>
+        <v>2.0823295616178683</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="60">
+        <v>8343.7591493051495</v>
+      </c>
+      <c r="D7" s="60">
+        <v>7963.3</v>
+      </c>
+      <c r="E7" s="96">
+        <f>IF(C7&lt;D7,100-((C7/D7)*100),100-(D7/C7*100))</f>
+        <v>4.5598050290897163</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="60">
+        <v>10267.9308832312</v>
+      </c>
+      <c r="D8" s="60">
+        <v>9766.4</v>
+      </c>
+      <c r="E8" s="96">
+        <f>IF(C8&lt;D8,100-((C8/D8)*100),100-(D8/C8*100))</f>
+        <v>4.8844396104210404</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="60">
+        <v>12218.163470179999</v>
+      </c>
+      <c r="D9" s="60">
+        <v>11422</v>
+      </c>
+      <c r="E9" s="96">
+        <f>IF(C9&lt;D9,100-((C9/D9)*100),100-(D9/C9*100))</f>
+        <v>6.5162286633595841</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="60">
+        <v>13689.4874763315</v>
+      </c>
+      <c r="D10" s="60">
+        <v>12830</v>
+      </c>
+      <c r="E10" s="96">
+        <f>IF(C10&lt;D10,100-((C10/D10)*100),100-(D10/C10*100))</f>
+        <v>6.2784489033465718</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="60">
+        <v>14663.1791922462</v>
+      </c>
+      <c r="D11" s="60">
+        <v>14002</v>
+      </c>
+      <c r="E11" s="96">
+        <f>IF(C11&lt;D11,100-((C11/D11)*100),100-(D11/C11*100))</f>
+        <v>4.5091121343987055</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="60">
+        <v>15425.3282348509</v>
+      </c>
+      <c r="D12" s="60">
+        <v>14859</v>
+      </c>
+      <c r="E12" s="96">
+        <f>IF(C12&lt;D12,100-((C12/D12)*100),100-(D12/C12*100))</f>
+        <v>3.6714177243332671</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="60">
+        <v>15651.7853731172</v>
+      </c>
+      <c r="D13" s="60">
+        <v>15365</v>
+      </c>
+      <c r="E13" s="96">
+        <f>IF(C13&lt;D13,100-((C13/D13)*100),100-(D13/C13*100))</f>
+        <v>1.8322853673279411</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="60">
+        <v>15774.719898740301</v>
+      </c>
+      <c r="D14" s="60">
+        <v>15651</v>
+      </c>
+      <c r="E14" s="96">
+        <f>IF(C14&lt;D14,100-((C14/D14)*100),100-(D14/C14*100))</f>
+        <v>0.78429220635594277</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="60">
+        <v>16241.365728955299</v>
+      </c>
+      <c r="D15" s="60">
+        <v>15824</v>
+      </c>
+      <c r="E15" s="96">
+        <f>IF(C15&lt;D15,100-((C15/D15)*100),100-(D15/C15*100))</f>
+        <v>2.5697699067955426</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="60">
+        <v>16317.7620009697</v>
+      </c>
+      <c r="D16" s="60">
+        <v>15937</v>
+      </c>
+      <c r="E16" s="96">
+        <f>IF(C16&lt;D16,100-((C16/D16)*100),100-(D16/C16*100))</f>
+        <v>2.3334204834405199</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="60">
+        <v>16338.9981814434</v>
+      </c>
+      <c r="D17" s="60">
+        <v>16018</v>
+      </c>
+      <c r="E17" s="96">
+        <f>IF(C17&lt;D17,100-((C17/D17)*100),100-(D17/C17*100))</f>
+        <v>1.9646136065304489</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="60">
+        <v>16376.5463540774</v>
+      </c>
+      <c r="D18" s="60">
+        <v>16080</v>
+      </c>
+      <c r="E18" s="96">
+        <f>IF(C18&lt;D18,100-((C18/D18)*100),100-(D18/C18*100))</f>
+        <v>1.8107991005293087</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="60">
+        <v>16379.697500758601</v>
+      </c>
+      <c r="D19" s="60">
+        <v>16131</v>
+      </c>
+      <c r="E19" s="96">
+        <f>IF(C19&lt;D19,100-((C19/D19)*100),100-(D19/C19*100))</f>
+        <v>1.5183278002971861</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="60">
+        <v>16380.304140603001</v>
+      </c>
+      <c r="D20" s="60">
+        <v>16176</v>
+      </c>
+      <c r="E20" s="96">
+        <f>IF(C20&lt;D20,100-((C20/D20)*100),100-(D20/C20*100))</f>
+        <v>1.247254866877455</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="60">
+        <v>16383.0202699331</v>
+      </c>
+      <c r="D21" s="60">
+        <v>16219</v>
+      </c>
+      <c r="E21" s="96">
+        <f>IF(C21&lt;D21,100-((C21/D21)*100),100-(D21/C21*100))</f>
+        <v>1.0011601477055905</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="60">
+        <v>16388.906207497399</v>
+      </c>
+      <c r="D22" s="60">
+        <v>16261</v>
+      </c>
+      <c r="E22" s="96">
+        <f>IF(C22&lt;D22,100-((C22/D22)*100),100-(D22/C22*100))</f>
+        <v>0.78044383119897986</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="53">
+        <v>16405.6700004743</v>
+      </c>
+      <c r="D23" s="53">
+        <v>16305</v>
+      </c>
+      <c r="E23" s="97">
+        <f>IF(C23&lt;D23,100-((C23/D23)*100),100-(D23/C23*100))</f>
+        <v>0.61362931517817287</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E4:E23">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TESTE ATUALIZADO/Livro1.xlsx
+++ b/TESTE ATUALIZADO/Livro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\Atualizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FC8D7F-A3E7-41A9-9608-CD9E58E693A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A880673-B0FE-492F-A9D7-F09E8BA122D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="4" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Points</t>
   </si>
@@ -282,26 +282,48 @@
     <t>Ansys</t>
   </si>
   <si>
-    <t>Percentagem Erro</t>
+    <t>Mesh Type</t>
   </si>
   <si>
-    <t>Mesh Type</t>
+    <t>Total Elementos</t>
+  </si>
+  <si>
+    <t>Modo</t>
+  </si>
+  <si>
+    <t>Em modos onde há choque de elementos ou valores de deformação elevados, há um aumento no erro</t>
+  </si>
+  <si>
+    <t>Erro Relativo, %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -401,7 +423,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,8 +478,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -825,341 +853,463 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3676,7 +3826,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="44073273" y="851569"/>
+          <a:off x="43299367" y="851569"/>
           <a:ext cx="5070689" cy="7292305"/>
           <a:chOff x="16846428" y="389059"/>
           <a:chExt cx="2086708" cy="2509107"/>
@@ -4637,15 +4787,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>255984</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>125016</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>640193</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>84373</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>717585</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>54608</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4982,10 +5132,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B1" s="13"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B2" s="13"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
@@ -4998,12 +5148,12 @@
       </c>
     </row>
     <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5013,36 +5163,36 @@
       </c>
     </row>
     <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B15" s="13"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B16" s="13"/>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="13"/>
+      <c r="B17" s="12"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="13"/>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
@@ -5050,26 +5200,26 @@
       </c>
     </row>
     <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="16"/>
+      <c r="B22" s="15"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B23" s="16"/>
+      <c r="B23" s="15"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B24" s="16"/>
+      <c r="B24" s="15"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B25" s="13"/>
+      <c r="B25" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5095,184 +5245,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="18">
+      <c r="A2" s="16">
         <f>COUNTIF(D1:BE1, "&lt;&gt;")</f>
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="81">
+      <c r="D2" s="74">
         <v>2700</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>2700</v>
       </c>
-      <c r="F2" s="95">
+      <c r="F2" s="79">
         <v>8000</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="83">
+      <c r="H2" s="76">
         <v>2780</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="81">
+      <c r="D3" s="74">
         <f>68.9*10^9</f>
         <v>68900000000</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <f>68.9*10^9</f>
         <v>68900000000</v>
       </c>
-      <c r="F3" s="95">
+      <c r="F3" s="79">
         <f>193*10^9</f>
         <v>193000000000</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="83">
+      <c r="H3" s="76">
         <v>73.099999999999994</v>
       </c>
-      <c r="I3" s="38"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="81">
+      <c r="D4" s="74">
         <v>0.33</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>0.33</v>
       </c>
-      <c r="F4" s="95">
+      <c r="F4" s="79">
         <v>0.33</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="83">
+      <c r="H4" s="76">
         <v>0.33</v>
       </c>
-      <c r="I4" s="38"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="81">
+      <c r="D5" s="74">
         <f>19*10^6</f>
         <v>19000000</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <f>276*10^6</f>
         <v>276000000</v>
       </c>
-      <c r="F5" s="95">
+      <c r="F5" s="79">
         <f>240 *10^6</f>
         <v>240000000</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="83">
+      <c r="H5" s="76">
         <v>62</v>
       </c>
-      <c r="I5" s="38"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="74">
         <f>32*10^6</f>
         <v>32000000</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <f>310*10^6</f>
         <v>310000000</v>
       </c>
-      <c r="F6" s="95">
+      <c r="F6" s="79">
         <f>550*10^6</f>
         <v>550000000</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="83">
+      <c r="H6" s="76">
         <v>76</v>
       </c>
-      <c r="I6" s="38"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="75">
         <f>27*10^6</f>
         <v>27000000</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <f>E6*0.85</f>
         <v>263500000</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <f>F6*0.85</f>
         <v>467500000</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="84">
+      <c r="G7" s="32"/>
+      <c r="H7" s="77">
         <v>65</v>
       </c>
-      <c r="I7" s="38"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="74">
         <f>207*10^6</f>
         <v>207000000</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="74">
         <f>207*10^6</f>
         <v>207000000</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="74">
         <f>207*10^6</f>
         <v>207000000</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="83">
+      <c r="G8" s="11"/>
+      <c r="H8" s="76">
         <v>283</v>
       </c>
-      <c r="I8" s="38"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C9" s="38"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="9" t="s">
         <v>31</v>
       </c>
@@ -5288,123 +5438,123 @@
       <c r="H9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="38"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="85" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E12:F13"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5428,7 +5578,7 @@
     <col min="9" max="9" width="10.59765625" customWidth="1"/>
     <col min="10" max="10" width="10.73046875" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="1.73046875" style="91" customWidth="1"/>
+    <col min="12" max="12" width="1.73046875" style="90" customWidth="1"/>
     <col min="13" max="13" width="7.19921875" style="5" customWidth="1"/>
     <col min="14" max="14" width="8.6640625" customWidth="1"/>
     <col min="15" max="16" width="12.6640625" customWidth="1"/>
@@ -5454,300 +5604,300 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="75" t="s">
+      <c r="O1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="74" t="s">
+      <c r="P1" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="80" t="s">
+      <c r="Q1" s="73" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="65" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="88"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="M2" s="1">
         <f>COUNTA(O2:O697)</f>
         <v>80</v>
       </c>
-      <c r="O2" s="77">
+      <c r="O2" s="70">
         <v>0</v>
       </c>
-      <c r="P2" s="78">
+      <c r="P2" s="71">
         <v>0.51</v>
       </c>
-      <c r="Q2" s="79">
+      <c r="Q2" s="72">
         <f t="shared" ref="Q2:Q33" si="0">P2*10^5</f>
         <v>51000</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
     </row>
     <row r="3" spans="1:30" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="76" t="s">
+      <c r="D3" s="92"/>
+      <c r="E3" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="47" t="s">
         <v>64</v>
       </c>
       <c r="K3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="45">
+      <c r="O3" s="38">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="P3" s="1">
         <v>1.25</v>
       </c>
-      <c r="Q3" s="44">
+      <c r="Q3" s="37">
         <f t="shared" si="0"/>
         <v>125000</v>
       </c>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
     </row>
     <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B4" s="5"/>
-      <c r="C4" s="45">
+      <c r="C4" s="38">
         <v>1</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="64">
         <v>25</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="36">
+      <c r="G4" s="63"/>
+      <c r="H4" s="30">
         <v>5</v>
       </c>
-      <c r="I4" s="69">
+      <c r="I4" s="62">
         <v>1</v>
       </c>
-      <c r="J4" s="68"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="45">
+      <c r="O4" s="38">
         <v>0.129</v>
       </c>
       <c r="P4" s="1">
         <v>4.91</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="Q4" s="37">
         <f t="shared" si="0"/>
         <v>491000</v>
       </c>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
     </row>
     <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="45">
+      <c r="C5" s="38">
         <v>2</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="60">
         <v>1</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="28">
         <v>1</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="64">
+      <c r="H5" s="59"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="57">
         <v>5</v>
       </c>
       <c r="K5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="45">
+      <c r="O5" s="38">
         <v>0.192</v>
       </c>
       <c r="P5" s="1">
         <v>15.91</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="37">
         <f t="shared" si="0"/>
         <v>1591000</v>
       </c>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
     </row>
     <row r="6" spans="1:30" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="45">
+      <c r="C6" s="38">
         <v>3</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="56">
         <v>-200</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="60"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="45">
+      <c r="O6" s="38">
         <v>0.25700000000000001</v>
       </c>
       <c r="P6" s="1">
         <v>18.84</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="37">
         <f t="shared" si="0"/>
         <v>1884000</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="46"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="39"/>
     </row>
     <row r="7" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="43">
+      <c r="C7" s="36">
         <v>4</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="53"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="46"/>
       <c r="K7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="45">
+      <c r="O7" s="38">
         <v>0.32100000000000001</v>
       </c>
       <c r="P7" s="1">
         <v>18.11</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="37">
         <f t="shared" si="0"/>
         <v>1811000</v>
       </c>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
     </row>
     <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
@@ -5762,29 +5912,29 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="45">
+      <c r="O8" s="38">
         <v>0.38600000000000001</v>
       </c>
       <c r="P8" s="1">
         <v>18.11</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="Q8" s="37">
         <f t="shared" si="0"/>
         <v>1811000</v>
       </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
     </row>
     <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
@@ -5799,29 +5949,29 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="45">
+      <c r="O9" s="38">
         <v>0.44900000000000001</v>
       </c>
       <c r="P9" s="1">
         <v>18.84</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="37">
         <f t="shared" si="0"/>
         <v>1884000</v>
       </c>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
     </row>
     <row r="10" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="5"/>
@@ -5835,38 +5985,38 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="45">
+      <c r="O10" s="38">
         <v>0.51400000000000001</v>
       </c>
       <c r="P10" s="1">
         <v>19.57</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="37">
         <f t="shared" si="0"/>
         <v>1957000</v>
       </c>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="46"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
     </row>
     <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="54" t="s">
+      <c r="D11" s="89"/>
+      <c r="E11" s="47" t="s">
         <v>52</v>
       </c>
       <c r="F11" s="5"/>
@@ -5876,38 +6026,38 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="45">
+      <c r="O11" s="38">
         <v>0.57800000000000007</v>
       </c>
       <c r="P11" s="1">
         <v>20.309999999999999</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="Q11" s="37">
         <f t="shared" si="0"/>
         <v>2030999.9999999998</v>
       </c>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
     </row>
     <row r="12" spans="1:30" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="53"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -5915,37 +6065,37 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="45">
+      <c r="O12" s="38">
         <v>0.64300000000000002</v>
       </c>
       <c r="P12" s="1">
         <v>21.04</v>
       </c>
-      <c r="Q12" s="44">
+      <c r="Q12" s="37">
         <f t="shared" si="0"/>
         <v>2104000</v>
       </c>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="46"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="39"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="46"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
     </row>
     <row r="13" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="44"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -5954,37 +6104,37 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="45">
+      <c r="O13" s="38">
         <v>0.70599999999999996</v>
       </c>
       <c r="P13" s="1">
         <v>21.77</v>
       </c>
-      <c r="Q13" s="44">
+      <c r="Q13" s="37">
         <f t="shared" si="0"/>
         <v>2177000</v>
       </c>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
     </row>
     <row r="14" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -5993,37 +6143,37 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="45">
+      <c r="O14" s="38">
         <v>0.77099999999999991</v>
       </c>
       <c r="P14" s="1">
         <v>23.24</v>
       </c>
-      <c r="Q14" s="44">
+      <c r="Q14" s="37">
         <f t="shared" si="0"/>
         <v>2324000</v>
       </c>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
     </row>
     <row r="15" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="41"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -6032,29 +6182,29 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="45">
+      <c r="O15" s="38">
         <v>0.83499999999999996</v>
       </c>
       <c r="P15" s="1">
         <v>23.24</v>
       </c>
-      <c r="Q15" s="44">
+      <c r="Q15" s="37">
         <f t="shared" si="0"/>
         <v>2324000</v>
       </c>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
     </row>
     <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
@@ -6069,29 +6219,29 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="45">
+      <c r="O16" s="38">
         <v>0.89999999999999991</v>
       </c>
       <c r="P16" s="1">
         <v>24.71</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="Q16" s="37">
         <f t="shared" si="0"/>
         <v>2471000</v>
       </c>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
     </row>
     <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
@@ -6106,29 +6256,29 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="45">
+      <c r="O17" s="38">
         <v>0.96299999999999986</v>
       </c>
       <c r="P17" s="1">
         <v>24.71</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="37">
         <f t="shared" si="0"/>
         <v>2471000</v>
       </c>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="46"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
     </row>
     <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
@@ -6143,29 +6293,29 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="45">
+      <c r="O18" s="38">
         <v>1.0279999999999998</v>
       </c>
       <c r="P18" s="1">
         <v>25.44</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="Q18" s="37">
         <f t="shared" si="0"/>
         <v>2544000</v>
       </c>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
     </row>
     <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
@@ -6180,29 +6330,29 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="45">
+      <c r="O19" s="38">
         <v>1.0919999999999999</v>
       </c>
       <c r="P19" s="1">
         <v>25.44</v>
       </c>
-      <c r="Q19" s="44">
+      <c r="Q19" s="37">
         <f t="shared" si="0"/>
         <v>2544000</v>
       </c>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="46"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
     </row>
     <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
@@ -6217,29 +6367,29 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="45">
+      <c r="O20" s="38">
         <v>1.1569999999999998</v>
       </c>
       <c r="P20" s="1">
         <v>26.17</v>
       </c>
-      <c r="Q20" s="44">
+      <c r="Q20" s="37">
         <f t="shared" si="0"/>
         <v>2617000</v>
       </c>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
     </row>
     <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
@@ -6254,29 +6404,29 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="45">
+      <c r="O21" s="38">
         <v>1.2199999999999998</v>
       </c>
       <c r="P21" s="1">
         <v>26.17</v>
       </c>
-      <c r="Q21" s="44">
+      <c r="Q21" s="37">
         <f t="shared" si="0"/>
         <v>2617000</v>
       </c>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
     </row>
     <row r="22" spans="1:30" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
@@ -6291,29 +6441,29 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="45">
+      <c r="O22" s="38">
         <v>1.2849999999999997</v>
       </c>
       <c r="P22" s="1">
         <v>26.17</v>
       </c>
-      <c r="Q22" s="44">
+      <c r="Q22" s="37">
         <f t="shared" si="0"/>
         <v>2617000</v>
       </c>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="46"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="39"/>
     </row>
     <row r="23" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A23" s="5"/>
@@ -6328,29 +6478,29 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="45">
+      <c r="O23" s="38">
         <v>1.3489999999999998</v>
       </c>
       <c r="P23" s="1">
         <v>26.17</v>
       </c>
-      <c r="Q23" s="44">
+      <c r="Q23" s="37">
         <f t="shared" si="0"/>
         <v>2617000</v>
       </c>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="49"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="46"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="39"/>
     </row>
     <row r="24" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
@@ -6365,905 +6515,905 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="45">
+      <c r="O24" s="38">
         <v>1.4139999999999997</v>
       </c>
       <c r="P24" s="1">
         <v>26.91</v>
       </c>
-      <c r="Q24" s="44">
+      <c r="Q24" s="37">
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="46"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="39"/>
     </row>
     <row r="25" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="O25" s="45">
+      <c r="O25" s="38">
         <v>1.4769999999999996</v>
       </c>
       <c r="P25" s="1">
         <v>26.91</v>
       </c>
-      <c r="Q25" s="44">
+      <c r="Q25" s="37">
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="46"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="46"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
     </row>
     <row r="26" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="O26" s="45">
+      <c r="O26" s="38">
         <v>1.5419999999999996</v>
       </c>
       <c r="P26" s="1">
         <v>26.91</v>
       </c>
-      <c r="Q26" s="44">
+      <c r="Q26" s="37">
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="46"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
     </row>
     <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.45">
-      <c r="O27" s="45">
+      <c r="O27" s="38">
         <v>1.6059999999999997</v>
       </c>
       <c r="P27" s="1">
         <v>26.91</v>
       </c>
-      <c r="Q27" s="44">
+      <c r="Q27" s="37">
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="46"/>
-      <c r="AB27" s="46"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="46"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
     </row>
     <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.45">
-      <c r="O28" s="45">
+      <c r="O28" s="38">
         <v>1.6709999999999996</v>
       </c>
       <c r="P28" s="1">
         <v>26.91</v>
       </c>
-      <c r="Q28" s="44">
+      <c r="Q28" s="37">
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="46"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
     </row>
     <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.45">
-      <c r="O29" s="45">
+      <c r="O29" s="38">
         <v>1.7339999999999995</v>
       </c>
       <c r="P29" s="1">
         <v>26.91</v>
       </c>
-      <c r="Q29" s="44">
+      <c r="Q29" s="37">
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="46"/>
-      <c r="AB29" s="46"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="46"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="39"/>
     </row>
     <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.45">
-      <c r="O30" s="45">
+      <c r="O30" s="38">
         <v>1.7989999999999995</v>
       </c>
       <c r="P30" s="1">
         <v>26.91</v>
       </c>
-      <c r="Q30" s="44">
+      <c r="Q30" s="37">
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="46"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
     </row>
     <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.45">
-      <c r="O31" s="45">
+      <c r="O31" s="38">
         <v>1.8629999999999995</v>
       </c>
       <c r="P31" s="1">
         <v>26.91</v>
       </c>
-      <c r="Q31" s="44">
+      <c r="Q31" s="37">
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="46"/>
-      <c r="AB31" s="46"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="46"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
     </row>
     <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.45">
-      <c r="O32" s="45">
+      <c r="O32" s="38">
         <v>1.9279999999999995</v>
       </c>
       <c r="P32" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q32" s="44">
+      <c r="Q32" s="37">
         <f t="shared" si="0"/>
         <v>2764000</v>
       </c>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="46"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
     </row>
     <row r="33" spans="15:30" ht="15" x14ac:dyDescent="0.45">
-      <c r="O33" s="45">
+      <c r="O33" s="38">
         <v>1.9909999999999994</v>
       </c>
       <c r="P33" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q33" s="44">
+      <c r="Q33" s="37">
         <f t="shared" si="0"/>
         <v>2764000</v>
       </c>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="46"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
     </row>
     <row r="34" spans="15:30" ht="15" x14ac:dyDescent="0.45">
-      <c r="O34" s="45">
+      <c r="O34" s="38">
         <v>2.0559999999999996</v>
       </c>
       <c r="P34" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q34" s="44">
+      <c r="Q34" s="37">
         <f t="shared" ref="Q34:Q65" si="1">P34*10^5</f>
         <v>2764000</v>
       </c>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="46"/>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="46"/>
-      <c r="AA34" s="46"/>
-      <c r="AB34" s="46"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="46"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
     </row>
     <row r="35" spans="15:30" x14ac:dyDescent="0.45">
-      <c r="O35" s="45">
+      <c r="O35" s="38">
         <v>2.1199999999999997</v>
       </c>
       <c r="P35" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q35" s="44">
+      <c r="Q35" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="46"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="46"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
     </row>
     <row r="36" spans="15:30" x14ac:dyDescent="0.45">
-      <c r="O36" s="45">
+      <c r="O36" s="38">
         <v>2.1849999999999996</v>
       </c>
       <c r="P36" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q36" s="44">
+      <c r="Q36" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="46"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="46"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
     </row>
     <row r="37" spans="15:30" x14ac:dyDescent="0.45">
-      <c r="O37" s="45">
+      <c r="O37" s="38">
         <v>2.2479999999999998</v>
       </c>
       <c r="P37" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q37" s="44">
+      <c r="Q37" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="46"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="46"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="39"/>
     </row>
     <row r="38" spans="15:30" x14ac:dyDescent="0.45">
-      <c r="O38" s="45">
+      <c r="O38" s="38">
         <v>2.3129999999999997</v>
       </c>
       <c r="P38" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q38" s="44">
+      <c r="Q38" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="46"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="46"/>
-      <c r="AD38" s="46"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
     </row>
     <row r="39" spans="15:30" x14ac:dyDescent="0.45">
-      <c r="O39" s="45">
+      <c r="O39" s="38">
         <v>2.3769999999999998</v>
       </c>
       <c r="P39" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q39" s="44">
+      <c r="Q39" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="46"/>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="46"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="46"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
     </row>
     <row r="40" spans="15:30" x14ac:dyDescent="0.45">
-      <c r="O40" s="45">
+      <c r="O40" s="38">
         <v>2.4419999999999997</v>
       </c>
       <c r="P40" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q40" s="44">
+      <c r="Q40" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="41" spans="15:30" x14ac:dyDescent="0.45">
-      <c r="O41" s="45">
+      <c r="O41" s="38">
         <v>2.5049999999999999</v>
       </c>
       <c r="P41" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q41" s="44">
+      <c r="Q41" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="42" spans="15:30" x14ac:dyDescent="0.45">
-      <c r="O42" s="45">
+      <c r="O42" s="38">
         <v>2.57</v>
       </c>
       <c r="P42" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q42" s="44">
+      <c r="Q42" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="43" spans="15:30" x14ac:dyDescent="0.45">
-      <c r="O43" s="45">
+      <c r="O43" s="38">
         <v>2.6339999999999999</v>
       </c>
       <c r="P43" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q43" s="44">
+      <c r="Q43" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="44" spans="15:30" x14ac:dyDescent="0.45">
-      <c r="O44" s="45">
+      <c r="O44" s="38">
         <v>2.6989999999999998</v>
       </c>
       <c r="P44" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q44" s="44">
+      <c r="Q44" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="45" spans="15:30" x14ac:dyDescent="0.45">
-      <c r="O45" s="45">
+      <c r="O45" s="38">
         <v>2.762</v>
       </c>
       <c r="P45" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q45" s="44">
+      <c r="Q45" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="46" spans="15:30" x14ac:dyDescent="0.45">
-      <c r="O46" s="45">
+      <c r="O46" s="38">
         <v>2.827</v>
       </c>
       <c r="P46" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q46" s="44">
+      <c r="Q46" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="47" spans="15:30" x14ac:dyDescent="0.45">
-      <c r="O47" s="45">
+      <c r="O47" s="38">
         <v>2.891</v>
       </c>
       <c r="P47" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q47" s="44">
+      <c r="Q47" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="48" spans="15:30" x14ac:dyDescent="0.45">
-      <c r="O48" s="45">
+      <c r="O48" s="38">
         <v>2.956</v>
       </c>
       <c r="P48" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q48" s="44">
+      <c r="Q48" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="49" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O49" s="45">
+      <c r="O49" s="38">
         <v>3.0190000000000001</v>
       </c>
       <c r="P49" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q49" s="44">
+      <c r="Q49" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="50" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O50" s="45">
+      <c r="O50" s="38">
         <v>3.0840000000000001</v>
       </c>
       <c r="P50" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q50" s="44">
+      <c r="Q50" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="51" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O51" s="45">
+      <c r="O51" s="38">
         <v>3.1480000000000001</v>
       </c>
       <c r="P51" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q51" s="44">
+      <c r="Q51" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="52" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O52" s="45">
+      <c r="O52" s="38">
         <v>3.2130000000000001</v>
       </c>
       <c r="P52" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q52" s="44">
+      <c r="Q52" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="53" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O53" s="45">
+      <c r="O53" s="38">
         <v>3.2760000000000002</v>
       </c>
       <c r="P53" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q53" s="44">
+      <c r="Q53" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="54" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O54" s="45">
+      <c r="O54" s="38">
         <v>3.3410000000000002</v>
       </c>
       <c r="P54" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q54" s="44">
+      <c r="Q54" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="55" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O55" s="45">
+      <c r="O55" s="38">
         <v>3.4050000000000002</v>
       </c>
       <c r="P55" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q55" s="44">
+      <c r="Q55" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="56" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O56" s="45">
+      <c r="O56" s="38">
         <v>3.47</v>
       </c>
       <c r="P56" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q56" s="44">
+      <c r="Q56" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="57" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O57" s="45">
+      <c r="O57" s="38">
         <v>3.5330000000000004</v>
       </c>
       <c r="P57" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q57" s="44">
+      <c r="Q57" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="58" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O58" s="45">
+      <c r="O58" s="38">
         <v>3.5980000000000003</v>
       </c>
       <c r="P58" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q58" s="44">
+      <c r="Q58" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="59" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O59" s="45">
+      <c r="O59" s="38">
         <v>3.6620000000000004</v>
       </c>
       <c r="P59" s="1">
         <v>27.64</v>
       </c>
-      <c r="Q59" s="44">
+      <c r="Q59" s="37">
         <f t="shared" si="1"/>
         <v>2764000</v>
       </c>
     </row>
     <row r="60" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O60" s="45">
+      <c r="O60" s="38">
         <v>3.7260000000000004</v>
       </c>
       <c r="P60" s="1">
         <v>26.91</v>
       </c>
-      <c r="Q60" s="44">
+      <c r="Q60" s="37">
         <f t="shared" si="1"/>
         <v>2691000</v>
       </c>
     </row>
     <row r="61" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O61" s="45">
+      <c r="O61" s="38">
         <v>3.7900000000000005</v>
       </c>
       <c r="P61" s="1">
         <v>25.44</v>
       </c>
-      <c r="Q61" s="44">
+      <c r="Q61" s="37">
         <f t="shared" si="1"/>
         <v>2544000</v>
       </c>
     </row>
     <row r="62" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O62" s="45">
+      <c r="O62" s="38">
         <v>3.8550000000000004</v>
       </c>
       <c r="P62" s="1">
         <v>23.97</v>
       </c>
-      <c r="Q62" s="44">
+      <c r="Q62" s="37">
         <f t="shared" si="1"/>
         <v>2397000</v>
       </c>
     </row>
     <row r="63" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O63" s="45">
+      <c r="O63" s="38">
         <v>3.9190000000000005</v>
       </c>
       <c r="P63" s="1">
         <v>21.77</v>
       </c>
-      <c r="Q63" s="44">
+      <c r="Q63" s="37">
         <f t="shared" si="1"/>
         <v>2177000</v>
       </c>
     </row>
     <row r="64" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O64" s="45">
+      <c r="O64" s="38">
         <v>3.9830000000000005</v>
       </c>
       <c r="P64" s="1">
         <v>18.84</v>
       </c>
-      <c r="Q64" s="44">
+      <c r="Q64" s="37">
         <f t="shared" si="1"/>
         <v>1884000</v>
       </c>
     </row>
     <row r="65" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O65" s="45">
+      <c r="O65" s="38">
         <v>4.0470000000000006</v>
       </c>
       <c r="P65" s="1">
         <v>15.91</v>
       </c>
-      <c r="Q65" s="44">
+      <c r="Q65" s="37">
         <f t="shared" si="1"/>
         <v>1591000</v>
       </c>
     </row>
     <row r="66" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O66" s="45">
+      <c r="O66" s="38">
         <v>4.112000000000001</v>
       </c>
       <c r="P66" s="1">
         <v>14.44</v>
       </c>
-      <c r="Q66" s="44">
+      <c r="Q66" s="37">
         <f t="shared" ref="Q66:Q81" si="2">P66*10^5</f>
         <v>1444000</v>
       </c>
     </row>
     <row r="67" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O67" s="45">
+      <c r="O67" s="38">
         <v>4.1770000000000014</v>
       </c>
       <c r="P67" s="1">
         <v>13.71</v>
       </c>
-      <c r="Q67" s="44">
+      <c r="Q67" s="37">
         <f t="shared" si="2"/>
         <v>1371000</v>
       </c>
     </row>
     <row r="68" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O68" s="45">
+      <c r="O68" s="38">
         <v>4.2400000000000011</v>
       </c>
       <c r="P68" s="1">
         <v>13.71</v>
       </c>
-      <c r="Q68" s="44">
+      <c r="Q68" s="37">
         <f t="shared" si="2"/>
         <v>1371000</v>
       </c>
     </row>
     <row r="69" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O69" s="45">
+      <c r="O69" s="38">
         <v>4.3050000000000015</v>
       </c>
       <c r="P69" s="1">
         <v>12.24</v>
       </c>
-      <c r="Q69" s="44">
+      <c r="Q69" s="37">
         <f t="shared" si="2"/>
         <v>1224000</v>
       </c>
     </row>
     <row r="70" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O70" s="45">
+      <c r="O70" s="38">
         <v>4.3690000000000015</v>
       </c>
       <c r="P70" s="1">
         <v>11.51</v>
       </c>
-      <c r="Q70" s="44">
+      <c r="Q70" s="37">
         <f t="shared" si="2"/>
         <v>1151000</v>
       </c>
     </row>
     <row r="71" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O71" s="45">
+      <c r="O71" s="38">
         <v>4.4340000000000019</v>
       </c>
       <c r="P71" s="1">
         <v>10.78</v>
       </c>
-      <c r="Q71" s="44">
+      <c r="Q71" s="37">
         <f t="shared" si="2"/>
         <v>1078000</v>
       </c>
     </row>
     <row r="72" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O72" s="45">
+      <c r="O72" s="38">
         <v>4.4970000000000017</v>
       </c>
       <c r="P72" s="1">
         <v>10.039999999999999</v>
       </c>
-      <c r="Q72" s="44">
+      <c r="Q72" s="37">
         <f t="shared" si="2"/>
         <v>1003999.9999999999</v>
       </c>
     </row>
     <row r="73" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O73" s="45">
+      <c r="O73" s="38">
         <v>4.5620000000000021</v>
       </c>
       <c r="P73" s="1">
         <v>9.31</v>
       </c>
-      <c r="Q73" s="44">
+      <c r="Q73" s="37">
         <f t="shared" si="2"/>
         <v>931000</v>
       </c>
     </row>
     <row r="74" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O74" s="45">
+      <c r="O74" s="38">
         <v>4.6260000000000021</v>
       </c>
       <c r="P74" s="1">
         <v>8.58</v>
       </c>
-      <c r="Q74" s="44">
+      <c r="Q74" s="37">
         <f t="shared" si="2"/>
         <v>858000</v>
       </c>
     </row>
     <row r="75" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O75" s="45">
+      <c r="O75" s="38">
         <v>4.6910000000000025</v>
       </c>
       <c r="P75" s="1">
         <v>7.11</v>
       </c>
-      <c r="Q75" s="44">
+      <c r="Q75" s="37">
         <f t="shared" si="2"/>
         <v>711000</v>
       </c>
     </row>
     <row r="76" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O76" s="45">
+      <c r="O76" s="38">
         <v>4.7540000000000022</v>
       </c>
       <c r="P76" s="1">
         <v>5.65</v>
       </c>
-      <c r="Q76" s="44">
+      <c r="Q76" s="37">
         <f t="shared" si="2"/>
         <v>565000</v>
       </c>
     </row>
     <row r="77" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O77" s="45">
+      <c r="O77" s="38">
         <v>4.8190000000000026</v>
       </c>
       <c r="P77" s="1">
         <v>4.18</v>
       </c>
-      <c r="Q77" s="44">
+      <c r="Q77" s="37">
         <f t="shared" si="2"/>
         <v>418000</v>
       </c>
     </row>
     <row r="78" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O78" s="45">
+      <c r="O78" s="38">
         <v>4.8830000000000027</v>
       </c>
       <c r="P78" s="1">
         <v>2.71</v>
       </c>
-      <c r="Q78" s="44">
+      <c r="Q78" s="37">
         <f t="shared" si="2"/>
         <v>271000</v>
       </c>
     </row>
     <row r="79" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O79" s="45">
+      <c r="O79" s="38">
         <v>4.9480000000000031</v>
       </c>
       <c r="P79" s="1">
         <v>1.98</v>
       </c>
-      <c r="Q79" s="44">
+      <c r="Q79" s="37">
         <f t="shared" si="2"/>
         <v>198000</v>
       </c>
     </row>
     <row r="80" spans="15:17" x14ac:dyDescent="0.45">
-      <c r="O80" s="45">
+      <c r="O80" s="38">
         <v>5.0110000000000028</v>
       </c>
       <c r="P80" s="1">
         <v>0.51</v>
       </c>
-      <c r="Q80" s="44">
+      <c r="Q80" s="37">
         <f t="shared" si="2"/>
         <v>51000</v>
       </c>
     </row>
     <row r="81" spans="15:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="O81" s="43">
+      <c r="O81" s="36">
         <v>5.0740000000000025</v>
       </c>
-      <c r="P81" s="42">
+      <c r="P81" s="35">
         <v>0.51</v>
       </c>
-      <c r="Q81" s="41">
+      <c r="Q81" s="34">
         <f t="shared" si="2"/>
         <v>51000</v>
       </c>
@@ -7284,8 +7434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C8E3EE-99AB-4972-A73D-D1EFEBD6EA1A}">
   <dimension ref="A1:AM35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L26" sqref="L25:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7298,11 +7448,13 @@
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
     <col min="12" max="12" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.1328125" customWidth="1"/>
     <col min="15" max="15" width="5.86328125" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.796875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.06640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.06640625" customWidth="1"/>
     <col min="22" max="23" width="13" customWidth="1"/>
@@ -7319,65 +7471,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" s="23" t="s">
+      <c r="L1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="31" t="s">
+      <c r="P1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="Q1" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="R1" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="S1" s="99" t="s">
         <v>39</v>
       </c>
       <c r="AB1" s="8"/>
@@ -7392,68 +7540,64 @@
         <f>COUNTIF(B2:B82, "&lt;&gt;")</f>
         <v>8</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="100">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="100">
         <f>0*10^-3</f>
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="100">
         <f>0*10^-3</f>
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="100">
         <f>2.5*10^-3</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="100">
+        <v>1</v>
+      </c>
+      <c r="G2" s="100">
         <v>0</v>
       </c>
-      <c r="G2" s="10">
+      <c r="H2" s="105">
+        <v>2</v>
+      </c>
+      <c r="I2" s="100">
         <v>0</v>
       </c>
-      <c r="H2" s="11">
-        <v>2</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0</v>
-      </c>
-      <c r="J2" s="37">
+      <c r="J2" s="106">
         <f>3*10^6</f>
         <v>3000000</v>
       </c>
-      <c r="K2" s="33">
-        <v>230</v>
-      </c>
-      <c r="L2" s="33">
+      <c r="K2" s="27">
+        <v>250</v>
+      </c>
+      <c r="L2" s="27">
         <v>1</v>
       </c>
-      <c r="M2" s="10">
-        <f t="shared" ref="M2:M7" si="0">SQRT((D3-D2)^2+(C3-C2)^2)</f>
+      <c r="M2" s="100">
+        <f t="shared" ref="M2:M8" si="0">SQRT((D3-D2)^2+(C3-C2)^2)</f>
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="N2" s="10">
-        <f>ROUNDUP($K$2*(M2/SUM($M$2:$M$7)),0)</f>
+      <c r="N2" s="100">
+        <f>ROUNDUP($K$2*(M2/SUM($M$2:$M$8)),0)</f>
+        <v>12</v>
+      </c>
+      <c r="O2" s="100">
+        <f>IF(N2=0,0,N2-1)</f>
         <v>11</v>
       </c>
-      <c r="O2" s="10">
-        <f>IF(N2=0,0,N2-1)</f>
-        <v>10</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="27">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="25">
         <v>1</v>
       </c>
-      <c r="V2" s="27">
-        <v>1</v>
-      </c>
-      <c r="W2" s="27">
-        <v>1</v>
+      <c r="R2" s="25">
+        <v>2</v>
+      </c>
+      <c r="S2" s="25">
+        <v>3</v>
       </c>
       <c r="AB2" s="5"/>
       <c r="AF2" s="5"/>
@@ -7464,50 +7608,50 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
-      <c r="B3" s="1">
+      <c r="B3" s="100">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="100">
         <f>0*10^-3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="100">
         <f>49.4*10^-3</f>
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E8" si="1">2.5*10^-3</f>
+      <c r="E3" s="100">
+        <f t="shared" ref="E3:E4" si="1">2.5*10^-3</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="100">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="100">
         <v>0</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="105">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="100">
         <v>7</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="106">
         <f t="shared" ref="J3:J4" si="2">3*10^6</f>
         <v>3000000</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="1">
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="100">
         <f t="shared" si="0"/>
         <v>0.91363000000000005</v>
       </c>
-      <c r="N3" s="10">
-        <f>ROUNDUP($K$2*(M3/SUM($M$2:$M$7)),0)</f>
-        <v>204</v>
-      </c>
-      <c r="O3" s="10">
-        <f t="shared" ref="O3:O8" si="3">IF(N3=0,0,N3-1)</f>
-        <v>203</v>
+      <c r="N3" s="100">
+        <f t="shared" ref="N3:N8" si="3">ROUNDUP($K$2*(M3/SUM($M$2:$M$8)),0)</f>
+        <v>211</v>
+      </c>
+      <c r="O3" s="100">
+        <f t="shared" ref="O3:O8" si="4">IF(N3=0,0,N3-1)</f>
+        <v>210</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="2"/>
@@ -7525,49 +7669,49 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
-      <c r="B4" s="10">
+      <c r="B4" s="100">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="100">
         <f>913.63*10^-3</f>
         <v>0.91363000000000005</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="100">
         <f>49.4*10^-3</f>
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="100">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="100">
         <v>1</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="100">
         <v>7</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="105">
         <v>3</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="100">
         <v>7</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="106">
         <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="10">
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="100">
         <f t="shared" si="0"/>
         <v>6.4456538070237671E-2</v>
       </c>
-      <c r="N4" s="10">
-        <f>ROUNDUP($K$2*(M4/SUM($M$2:$M$7)),0)</f>
+      <c r="N4" s="100">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="O4" s="10">
-        <f t="shared" si="3"/>
+      <c r="O4" s="100">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="P4" s="5"/>
@@ -7585,43 +7729,43 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
-      <c r="B5" s="1">
+      <c r="B5" s="100">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="100">
         <f>969.45*10^-3</f>
         <v>0.96945000000000003</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="100">
         <f>17.17*10^-3</f>
         <v>1.7170000000000001E-2</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="E5" s="100"/>
+      <c r="F5" s="100">
+        <v>1</v>
+      </c>
+      <c r="G5" s="100">
         <v>7</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="105">
         <v>3</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="100">
         <v>7</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="1">
+      <c r="J5" s="101"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="100">
         <f t="shared" si="0"/>
         <v>2.3608896628178177E-3</v>
       </c>
-      <c r="N5" s="10">
-        <f>ROUNDUP($K$2*(M5/SUM($M$2:$M$7)),0)</f>
+      <c r="N5" s="100">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O5" s="10">
-        <f t="shared" si="3"/>
+      <c r="O5" s="100">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P5" s="5"/>
@@ -7639,42 +7783,43 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
-      <c r="B6" s="10">
+      <c r="B6" s="100">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="100">
         <f>971.62*10^-3</f>
         <v>0.97162000000000004</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="100">
         <f>16.24*10^-3</f>
         <v>1.6239999999999997E-2</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="E6" s="100"/>
+      <c r="F6" s="100">
+        <v>1</v>
+      </c>
+      <c r="G6" s="100">
         <v>7</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="105">
         <v>3</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="100">
         <v>7</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="10">
+      <c r="J6" s="103"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="100">
         <f t="shared" si="0"/>
         <v>2.1949259668607819E-3</v>
       </c>
-      <c r="N6" s="10">
-        <f>ROUNDUP($K$2*(M6/SUM($M$2:$M$7)),0)</f>
+      <c r="N6" s="100">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O6" s="10">
-        <f t="shared" si="3"/>
+      <c r="O6" s="100">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P6" s="5"/>
@@ -7692,48 +7837,48 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
-      <c r="B7" s="1">
+      <c r="B7" s="100">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="100">
         <f>973.78*10^-3</f>
         <v>0.97377999999999998</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="100">
         <f>15.85*10^-3</f>
         <v>1.585E-2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="100">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="100">
+        <v>1</v>
+      </c>
+      <c r="G7" s="100">
         <v>7</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="105">
         <v>3</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="100">
         <v>7</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="101">
         <f>J2*0.965</f>
         <v>2895000</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="1">
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="100">
         <f t="shared" si="0"/>
         <v>2.1718655575335469E-3</v>
       </c>
-      <c r="N7" s="10">
-        <f>ROUNDUP($K$2*(M7/SUM($M$2:$M$7)),0)</f>
+      <c r="N7" s="100">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O7" s="10">
-        <f t="shared" si="3"/>
+      <c r="O7" s="100">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P7" s="5"/>
@@ -7751,42 +7896,44 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
-      <c r="B8" s="10">
+      <c r="B8" s="107">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="107">
         <f>975.95*10^-3</f>
         <v>0.9759500000000001</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="107">
         <f>15.94*10^-3</f>
         <v>1.5939999999999999E-2</v>
       </c>
-      <c r="E8" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="E8" s="107"/>
+      <c r="F8" s="107">
+        <v>1</v>
+      </c>
+      <c r="G8" s="107">
         <v>7</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="108">
         <v>3</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="109">
         <v>7</v>
       </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10">
-        <f>ROUNDUP($K$2*(M8/SUM($M$2:$M$7)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
+      <c r="J8" s="103"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="100">
+        <f t="shared" si="0"/>
+        <v>4.9828571121395729E-2</v>
+      </c>
+      <c r="N8" s="100">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="O8" s="100">
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="2"/>
@@ -7803,33 +7950,37 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
-      <c r="B9" s="1">
+      <c r="B9" s="100">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="100">
         <f>1025.22*10^-3</f>
         <v>1.02522</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="100">
         <f>23.38*10^-3</f>
         <v>2.3379999999999998E-2</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
+      <c r="E9" s="100">
+        <v>1E-3</v>
+      </c>
+      <c r="F9" s="100">
+        <v>1</v>
+      </c>
+      <c r="G9" s="100">
         <v>7</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="29">
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="100">
         <f>J2*0.0183</f>
         <v>54900</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="122"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -7845,20 +7996,25 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="100">
+        <f>SUM(N2:N8)</f>
+        <v>253</v>
+      </c>
+      <c r="O10" s="104"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -7880,20 +8036,20 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -7915,20 +8071,20 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -7952,20 +8108,20 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -7989,20 +8145,20 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -8026,20 +8182,20 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -8063,20 +8219,20 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -8100,20 +8256,20 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -8137,23 +8293,20 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="36">
-        <f>SUM(N2:N18)</f>
-        <v>233</v>
-      </c>
-      <c r="L18" s="36"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -8451,7 +8604,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="94"/>
+      <c r="G29" s="78"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -8607,10 +8760,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041D2246-0C07-4E96-B19F-4C022DA4E97A}">
-  <dimension ref="B1:G26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8618,427 +8771,556 @@
     <col min="5" max="5" width="17.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="5"/>
-      <c r="C2" s="98" t="s">
+    <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="80"/>
+      <c r="B2" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B3" s="5"/>
-      <c r="C3" s="76" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="80"/>
+      <c r="B3" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="5">
+      <c r="E3" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="80"/>
+      <c r="B4" s="117">
         <v>1</v>
       </c>
-      <c r="C4" s="60">
-        <v>1232.7385512887799</v>
-      </c>
-      <c r="D4" s="60">
-        <v>1222.9000000000001</v>
-      </c>
-      <c r="E4" s="96">
-        <f>IF(C4&lt;D4,100-((C4/D4)*100),100-(D4/C4*100))</f>
-        <v>0.79810526558887318</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="5">
+      <c r="C4" s="110">
+        <v>1224.3781849006</v>
+      </c>
+      <c r="D4" s="82">
+        <v>1227.3</v>
+      </c>
+      <c r="E4" s="120">
+        <f>ABS((D4-C4)/D4)*100</f>
+        <v>0.23806853250223781</v>
+      </c>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="80"/>
+      <c r="B5" s="117">
         <f>1+B4</f>
         <v>2</v>
       </c>
-      <c r="C5" s="60">
-        <v>3688.4081380643102</v>
-      </c>
-      <c r="D5" s="60">
-        <v>3633.2</v>
-      </c>
-      <c r="E5" s="96">
-        <f>IF(C5&lt;D5,100-((C5/D5)*100),100-(D5/C5*100))</f>
-        <v>1.4968012214961561</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="5">
-        <f t="shared" ref="B6:B23" si="0">1+B5</f>
+      <c r="C5" s="110">
+        <v>3655.85155330306</v>
+      </c>
+      <c r="D5" s="82">
+        <v>3644.8</v>
+      </c>
+      <c r="E5" s="120">
+        <f t="shared" ref="E5:E23" si="0">ABS((D5-C5)/D5)*100</f>
+        <v>0.30321425875383534</v>
+      </c>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="80"/>
+      <c r="B6" s="117">
+        <f t="shared" ref="B6:B23" si="1">1+B5</f>
         <v>3</v>
       </c>
-      <c r="C6" s="60">
-        <v>6044.46569603029</v>
-      </c>
-      <c r="D6" s="60">
-        <v>5918.6</v>
-      </c>
-      <c r="E6" s="96">
-        <f>IF(C6&lt;D6,100-((C6/D6)*100),100-(D6/C6*100))</f>
-        <v>2.0823295616178683</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="5">
+      <c r="C6" s="110">
+        <v>6028.7785271016201</v>
+      </c>
+      <c r="D6" s="82">
+        <v>5917.3</v>
+      </c>
+      <c r="E6" s="120">
         <f t="shared" si="0"/>
+        <v>1.8839424585811073</v>
+      </c>
+      <c r="F6" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="80"/>
+      <c r="B7" s="117">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C7" s="60">
-        <v>8343.7591493051495</v>
-      </c>
-      <c r="D7" s="60">
-        <v>7963.3</v>
-      </c>
-      <c r="E7" s="96">
-        <f>IF(C7&lt;D7,100-((C7/D7)*100),100-(D7/C7*100))</f>
-        <v>4.5598050290897163</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="5">
+      <c r="C7" s="110">
+        <v>8286.0217039463896</v>
+      </c>
+      <c r="D7" s="82">
+        <v>7856.4</v>
+      </c>
+      <c r="E7" s="120">
         <f t="shared" si="0"/>
+        <v>5.4684296108445345</v>
+      </c>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="80"/>
+      <c r="B8" s="117">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C8" s="60">
-        <v>10267.9308832312</v>
-      </c>
-      <c r="D8" s="60">
-        <v>9766.4</v>
-      </c>
-      <c r="E8" s="96">
-        <f>IF(C8&lt;D8,100-((C8/D8)*100),100-(D8/C8*100))</f>
-        <v>4.8844396104210404</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="5">
+      <c r="C8" s="110">
+        <v>10362.528258185501</v>
+      </c>
+      <c r="D8" s="82">
+        <v>9509.6</v>
+      </c>
+      <c r="E8" s="120">
         <f t="shared" si="0"/>
+        <v>8.9691286508948895</v>
+      </c>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="80"/>
+      <c r="B9" s="117">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C9" s="60">
-        <v>12218.163470179999</v>
-      </c>
-      <c r="D9" s="60">
-        <v>11422</v>
-      </c>
-      <c r="E9" s="96">
-        <f>IF(C9&lt;D9,100-((C9/D9)*100),100-(D9/C9*100))</f>
-        <v>6.5162286633595841</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="5">
+      <c r="C9" s="110">
+        <v>12193.810813137699</v>
+      </c>
+      <c r="D9" s="82">
+        <v>11189</v>
+      </c>
+      <c r="E9" s="120">
         <f t="shared" si="0"/>
+        <v>8.9803450990946416</v>
+      </c>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="80"/>
+      <c r="B10" s="117">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C10" s="60">
-        <v>13689.4874763315</v>
-      </c>
-      <c r="D10" s="60">
-        <v>12830</v>
-      </c>
-      <c r="E10" s="96">
-        <f>IF(C10&lt;D10,100-((C10/D10)*100),100-(D10/C10*100))</f>
-        <v>6.2784489033465718</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="5">
+      <c r="C10" s="110">
+        <v>13647.2234043383</v>
+      </c>
+      <c r="D10" s="82">
+        <v>12727</v>
+      </c>
+      <c r="E10" s="120">
         <f t="shared" si="0"/>
+        <v>7.2304816872656525</v>
+      </c>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="80"/>
+      <c r="B11" s="117">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C11" s="60">
-        <v>14663.1791922462</v>
-      </c>
-      <c r="D11" s="60">
-        <v>14002</v>
-      </c>
-      <c r="E11" s="96">
-        <f>IF(C11&lt;D11,100-((C11/D11)*100),100-(D11/C11*100))</f>
-        <v>4.5091121343987055</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="5">
+      <c r="C11" s="110">
+        <v>14562.2417119494</v>
+      </c>
+      <c r="D11" s="82">
+        <v>13983</v>
+      </c>
+      <c r="E11" s="120">
         <f t="shared" si="0"/>
+        <v>4.1424709429264128</v>
+      </c>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="80"/>
+      <c r="B12" s="117">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C12" s="60">
-        <v>15425.3282348509</v>
-      </c>
-      <c r="D12" s="60">
-        <v>14859</v>
-      </c>
-      <c r="E12" s="96">
-        <f>IF(C12&lt;D12,100-((C12/D12)*100),100-(D12/C12*100))</f>
-        <v>3.6714177243332671</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="5">
+      <c r="C12" s="110">
+        <v>15076.205786431299</v>
+      </c>
+      <c r="D12" s="82">
+        <v>14858</v>
+      </c>
+      <c r="E12" s="120">
         <f t="shared" si="0"/>
+        <v>1.4686080658991736</v>
+      </c>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="80"/>
+      <c r="B13" s="117">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C13" s="60">
-        <v>15651.7853731172</v>
-      </c>
-      <c r="D13" s="60">
-        <v>15365</v>
-      </c>
-      <c r="E13" s="96">
-        <f>IF(C13&lt;D13,100-((C13/D13)*100),100-(D13/C13*100))</f>
-        <v>1.8322853673279411</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="5">
+      <c r="C13" s="110">
+        <v>15443.810207861001</v>
+      </c>
+      <c r="D13" s="82">
+        <v>15366</v>
+      </c>
+      <c r="E13" s="120">
         <f t="shared" si="0"/>
+        <v>0.50637906977092861</v>
+      </c>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="80"/>
+      <c r="B14" s="117">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C14" s="60">
-        <v>15774.719898740301</v>
-      </c>
-      <c r="D14" s="60">
-        <v>15651</v>
-      </c>
-      <c r="E14" s="96">
-        <f>IF(C14&lt;D14,100-((C14/D14)*100),100-(D14/C14*100))</f>
-        <v>0.78429220635594277</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="5">
+      <c r="C14" s="110">
+        <v>15693.348227905801</v>
+      </c>
+      <c r="D14" s="82">
+        <v>15654</v>
+      </c>
+      <c r="E14" s="120">
         <f t="shared" si="0"/>
+        <v>0.25136213048294836</v>
+      </c>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="80"/>
+      <c r="B15" s="117">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C15" s="60">
-        <v>16241.365728955299</v>
-      </c>
-      <c r="D15" s="60">
-        <v>15824</v>
-      </c>
-      <c r="E15" s="96">
-        <f>IF(C15&lt;D15,100-((C15/D15)*100),100-(D15/C15*100))</f>
-        <v>2.5697699067955426</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="5">
+      <c r="C15" s="110">
+        <v>15854.9253236164</v>
+      </c>
+      <c r="D15" s="82">
+        <v>15827</v>
+      </c>
+      <c r="E15" s="120">
         <f t="shared" si="0"/>
+        <v>0.17644104136223174</v>
+      </c>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="80"/>
+      <c r="B16" s="117">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C16" s="60">
-        <v>16317.7620009697</v>
-      </c>
-      <c r="D16" s="60">
-        <v>15937</v>
-      </c>
-      <c r="E16" s="96">
-        <f>IF(C16&lt;D16,100-((C16/D16)*100),100-(D16/C16*100))</f>
-        <v>2.3334204834405199</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="5">
+      <c r="C16" s="110">
+        <v>15964.955679934799</v>
+      </c>
+      <c r="D16" s="82">
+        <v>15941</v>
+      </c>
+      <c r="E16" s="120">
         <f t="shared" si="0"/>
+        <v>0.150277146570474</v>
+      </c>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="80"/>
+      <c r="B17" s="117">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C17" s="60">
-        <v>16338.9981814434</v>
-      </c>
-      <c r="D17" s="60">
-        <v>16018</v>
-      </c>
-      <c r="E17" s="96">
-        <f>IF(C17&lt;D17,100-((C17/D17)*100),100-(D17/C17*100))</f>
-        <v>1.9646136065304489</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="5">
+      <c r="C17" s="110">
+        <v>16045.644487329</v>
+      </c>
+      <c r="D17" s="82">
+        <v>16023</v>
+      </c>
+      <c r="E17" s="120">
         <f t="shared" si="0"/>
+        <v>0.14132489127504327</v>
+      </c>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="80"/>
+      <c r="B18" s="117">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C18" s="60">
-        <v>16376.5463540774</v>
-      </c>
-      <c r="D18" s="60">
-        <v>16080</v>
-      </c>
-      <c r="E18" s="96">
-        <f>IF(C18&lt;D18,100-((C18/D18)*100),100-(D18/C18*100))</f>
-        <v>1.8107991005293087</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="5">
+      <c r="C18" s="110">
+        <v>16109.5809148392</v>
+      </c>
+      <c r="D18" s="82">
+        <v>16086</v>
+      </c>
+      <c r="E18" s="120">
         <f t="shared" si="0"/>
+        <v>0.1465927815441998</v>
+      </c>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="80"/>
+      <c r="B19" s="117">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C19" s="60">
-        <v>16379.697500758601</v>
-      </c>
-      <c r="D19" s="60">
-        <v>16131</v>
-      </c>
-      <c r="E19" s="96">
-        <f>IF(C19&lt;D19,100-((C19/D19)*100),100-(D19/C19*100))</f>
-        <v>1.5183278002971861</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="5">
+      <c r="C19" s="110">
+        <v>16164.2144662799</v>
+      </c>
+      <c r="D19" s="82">
+        <v>16140</v>
+      </c>
+      <c r="E19" s="120">
         <f t="shared" si="0"/>
+        <v>0.15002767211834001</v>
+      </c>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="80"/>
+      <c r="B20" s="117">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C20" s="60">
-        <v>16380.304140603001</v>
-      </c>
-      <c r="D20" s="60">
-        <v>16176</v>
-      </c>
-      <c r="E20" s="96">
-        <f>IF(C20&lt;D20,100-((C20/D20)*100),100-(D20/C20*100))</f>
-        <v>1.247254866877455</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="5">
+      <c r="C20" s="110">
+        <v>16214.2507463889</v>
+      </c>
+      <c r="D20" s="82">
+        <v>16188</v>
+      </c>
+      <c r="E20" s="120">
         <f t="shared" si="0"/>
+        <v>0.162161764201258</v>
+      </c>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="80"/>
+      <c r="B21" s="117">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C21" s="60">
-        <v>16383.0202699331</v>
-      </c>
-      <c r="D21" s="60">
-        <v>16219</v>
-      </c>
-      <c r="E21" s="96">
-        <f>IF(C21&lt;D21,100-((C21/D21)*100),100-(D21/C21*100))</f>
-        <v>1.0011601477055905</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B22" s="5">
+      <c r="C21" s="110">
+        <v>16262.8626695603</v>
+      </c>
+      <c r="D21" s="82">
+        <v>16235</v>
+      </c>
+      <c r="E21" s="120">
         <f t="shared" si="0"/>
+        <v>0.1716210012953481</v>
+      </c>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="80"/>
+      <c r="B22" s="117">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C22" s="60">
-        <v>16388.906207497399</v>
-      </c>
-      <c r="D22" s="60">
-        <v>16261</v>
-      </c>
-      <c r="E22" s="96">
-        <f>IF(C22&lt;D22,100-((C22/D22)*100),100-(D22/C22*100))</f>
-        <v>0.78044383119897986</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="5">
+      <c r="C22" s="110">
+        <v>16312.330232571499</v>
+      </c>
+      <c r="D22" s="82">
+        <v>16282</v>
+      </c>
+      <c r="E22" s="120">
         <f t="shared" si="0"/>
+        <v>0.18628075526040683</v>
+      </c>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="80"/>
+      <c r="B23" s="118">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C23" s="53">
-        <v>16405.6700004743</v>
-      </c>
-      <c r="D23" s="53">
-        <v>16305</v>
-      </c>
-      <c r="E23" s="97">
-        <f>IF(C23&lt;D23,100-((C23/D23)*100),100-(D23/C23*100))</f>
-        <v>0.61362931517817287</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C23" s="111">
+        <v>16364.3885504804</v>
+      </c>
+      <c r="D23" s="83">
+        <v>16332</v>
+      </c>
+      <c r="E23" s="120">
+        <f t="shared" si="0"/>
+        <v>0.19831343669115983</v>
+      </c>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="80"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="80"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:E2"/>
+  <mergeCells count="2">
+    <mergeCell ref="F6:H12"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E23">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/TESTE ATUALIZADO/Livro1.xlsx
+++ b/TESTE ATUALIZADO/Livro1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\Atualizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A880673-B0FE-492F-A9D7-F09E8BA122D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DD0772-FF88-43DD-AF11-D494763CF653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="4" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="2" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Points</t>
   </si>
@@ -296,6 +296,12 @@
   <si>
     <t>Erro Relativo, %</t>
   </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Delta_t [s]</t>
+  </si>
 </sst>
 </file>
 
@@ -485,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -948,11 +954,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1166,9 +1211,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1310,6 +1352,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3759,16 +3810,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>716755</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>21432</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>316704</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>116680</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>230979</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>154782</xdr:rowOff>
+      <xdr:rowOff>92870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4826,7 +4877,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Amarelo">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4834,34 +4885,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="39302A"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E5DEDB"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="FFCA08"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="F8931D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="CE8D3E"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="EC7016"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="E64823"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="9C6A6A"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="2998E3"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7F723D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
@@ -5123,12 +5174,12 @@
   <dimension ref="B1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.45">
@@ -5236,12 +5287,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.9296875" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="20.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.59765625" customWidth="1"/>
+    <col min="4" max="6" width="20.9296875" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" customWidth="1"/>
+    <col min="8" max="8" width="20.9296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5277,17 +5328,17 @@
       <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="73">
         <v>2700</v>
       </c>
       <c r="E2" s="11">
         <v>2700</v>
       </c>
-      <c r="F2" s="79">
+      <c r="F2" s="78">
         <v>8000</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="76">
+      <c r="H2" s="75">
         <v>2780</v>
       </c>
       <c r="I2" s="31"/>
@@ -5296,7 +5347,7 @@
       <c r="C3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="73">
         <f>68.9*10^9</f>
         <v>68900000000</v>
       </c>
@@ -5304,12 +5355,12 @@
         <f>68.9*10^9</f>
         <v>68900000000</v>
       </c>
-      <c r="F3" s="79">
+      <c r="F3" s="78">
         <f>193*10^9</f>
         <v>193000000000</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="76">
+      <c r="H3" s="75">
         <v>73.099999999999994</v>
       </c>
       <c r="I3" s="31"/>
@@ -5318,17 +5369,17 @@
       <c r="C4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="73">
         <v>0.33</v>
       </c>
       <c r="E4" s="11">
         <v>0.33</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="78">
         <v>0.33</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="76">
+      <c r="H4" s="75">
         <v>0.33</v>
       </c>
       <c r="I4" s="31"/>
@@ -5337,7 +5388,7 @@
       <c r="C5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="73">
         <f>19*10^6</f>
         <v>19000000</v>
       </c>
@@ -5345,12 +5396,12 @@
         <f>276*10^6</f>
         <v>276000000</v>
       </c>
-      <c r="F5" s="79">
+      <c r="F5" s="78">
         <f>240 *10^6</f>
         <v>240000000</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="76">
+      <c r="H5" s="75">
         <v>62</v>
       </c>
       <c r="I5" s="31"/>
@@ -5359,7 +5410,7 @@
       <c r="C6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="73">
         <f>32*10^6</f>
         <v>32000000</v>
       </c>
@@ -5367,12 +5418,12 @@
         <f>310*10^6</f>
         <v>310000000</v>
       </c>
-      <c r="F6" s="79">
+      <c r="F6" s="78">
         <f>550*10^6</f>
         <v>550000000</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="76">
+      <c r="H6" s="75">
         <v>76</v>
       </c>
       <c r="I6" s="31"/>
@@ -5381,7 +5432,7 @@
       <c r="C7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="74">
         <f>27*10^6</f>
         <v>27000000</v>
       </c>
@@ -5394,7 +5445,7 @@
         <v>467500000</v>
       </c>
       <c r="G7" s="32"/>
-      <c r="H7" s="77">
+      <c r="H7" s="76">
         <v>65</v>
       </c>
       <c r="I7" s="31"/>
@@ -5403,20 +5454,20 @@
       <c r="C8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="73">
         <f>207*10^6</f>
         <v>207000000</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="73">
         <f>207*10^6</f>
         <v>207000000</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="73">
         <f>207*10^6</f>
         <v>207000000</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="76">
+      <c r="H8" s="75">
         <v>283</v>
       </c>
       <c r="I8" s="31"/>
@@ -5461,10 +5512,10 @@
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="84"/>
+      <c r="F12" s="83"/>
       <c r="G12" s="33"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
@@ -5472,8 +5523,8 @@
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="33"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
@@ -5563,32 +5614,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BBD36B-8DEB-4362-8948-9CFC06A35BB2}">
   <dimension ref="A1:AD81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" customWidth="1"/>
+    <col min="3" max="3" width="3.9296875" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="10.59765625" customWidth="1"/>
     <col min="7" max="8" width="10.73046875" customWidth="1"/>
     <col min="9" max="9" width="10.59765625" customWidth="1"/>
     <col min="10" max="10" width="10.73046875" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="1.73046875" style="90" customWidth="1"/>
+    <col min="12" max="12" width="1.73046875" style="89" customWidth="1"/>
     <col min="13" max="13" width="7.19921875" style="5" customWidth="1"/>
     <col min="14" max="14" width="8.6640625" customWidth="1"/>
     <col min="15" max="16" width="12.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.06640625" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" customWidth="1"/>
     <col min="19" max="19" width="21.9296875" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
     <col min="21" max="21" width="22.1328125" customWidth="1"/>
-    <col min="22" max="22" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.9296875" customWidth="1"/>
+    <col min="27" max="27" width="9" customWidth="1"/>
     <col min="30" max="30" width="18.06640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5613,8 +5664,14 @@
       <c r="P1" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="Q1" s="122" t="s">
         <v>74</v>
+      </c>
+      <c r="R1" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="124" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
@@ -5625,12 +5682,12 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="M2" s="1">
@@ -5647,8 +5704,13 @@
         <f t="shared" ref="Q2:Q33" si="0">P2*10^5</f>
         <v>51000</v>
       </c>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
+      <c r="R2" s="12">
+        <f>ROUNDUP((O3-O2)/$S$2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="S2" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="T2" s="39"/>
       <c r="U2" s="39"/>
       <c r="V2" s="39"/>
@@ -5666,10 +5728,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="69" t="s">
         <v>69</v>
       </c>
@@ -5700,7 +5762,10 @@
         <f t="shared" si="0"/>
         <v>125000</v>
       </c>
-      <c r="R3" s="45"/>
+      <c r="R3" s="12">
+        <f t="shared" ref="R3:R66" si="1">ROUNDUP((O4-O3)/$S$2,0)</f>
+        <v>13</v>
+      </c>
       <c r="S3" s="45"/>
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
@@ -5748,7 +5813,10 @@
         <f t="shared" si="0"/>
         <v>491000</v>
       </c>
-      <c r="R4" s="45"/>
+      <c r="R4" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S4" s="45"/>
       <c r="T4" s="45"/>
       <c r="U4" s="45"/>
@@ -5797,7 +5865,10 @@
         <f t="shared" si="0"/>
         <v>1591000</v>
       </c>
-      <c r="R5" s="45"/>
+      <c r="R5" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S5" s="45"/>
       <c r="T5" s="45"/>
       <c r="U5" s="45"/>
@@ -5842,7 +5913,10 @@
         <f t="shared" si="0"/>
         <v>1884000</v>
       </c>
-      <c r="R6" s="43"/>
+      <c r="R6" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S6" s="43"/>
       <c r="T6" s="43"/>
       <c r="U6" s="43"/>
@@ -5885,7 +5959,10 @@
         <f t="shared" si="0"/>
         <v>1811000</v>
       </c>
-      <c r="R7" s="40"/>
+      <c r="R7" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S7" s="40"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
@@ -5922,7 +5999,10 @@
         <f t="shared" si="0"/>
         <v>1811000</v>
       </c>
-      <c r="R8" s="40"/>
+      <c r="R8" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S8" s="40"/>
       <c r="T8" s="23"/>
       <c r="U8" s="23"/>
@@ -5959,7 +6039,10 @@
         <f t="shared" si="0"/>
         <v>1884000</v>
       </c>
-      <c r="R9" s="40"/>
+      <c r="R9" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S9" s="40"/>
       <c r="T9" s="23"/>
       <c r="U9" s="23"/>
@@ -5995,7 +6078,10 @@
         <f t="shared" si="0"/>
         <v>1957000</v>
       </c>
-      <c r="R10" s="40"/>
+      <c r="R10" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S10" s="40"/>
       <c r="T10" s="48"/>
       <c r="U10" s="48"/>
@@ -6012,10 +6098,10 @@
     <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="89"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="47" t="s">
         <v>52</v>
       </c>
@@ -6036,7 +6122,10 @@
         <f t="shared" si="0"/>
         <v>2030999.9999999998</v>
       </c>
-      <c r="R11" s="40"/>
+      <c r="R11" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S11" s="40"/>
       <c r="T11" s="39"/>
       <c r="U11" s="39"/>
@@ -6075,7 +6164,10 @@
         <f t="shared" si="0"/>
         <v>2104000</v>
       </c>
-      <c r="R12" s="45"/>
+      <c r="R12" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S12" s="45"/>
       <c r="T12" s="45"/>
       <c r="U12" s="39"/>
@@ -6114,7 +6206,10 @@
         <f t="shared" si="0"/>
         <v>2177000</v>
       </c>
-      <c r="R13" s="45"/>
+      <c r="R13" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S13" s="45"/>
       <c r="T13" s="45"/>
       <c r="U13" s="39"/>
@@ -6153,7 +6248,10 @@
         <f t="shared" si="0"/>
         <v>2324000</v>
       </c>
-      <c r="R14" s="45"/>
+      <c r="R14" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S14" s="45"/>
       <c r="T14" s="45"/>
       <c r="U14" s="39"/>
@@ -6192,7 +6290,10 @@
         <f t="shared" si="0"/>
         <v>2324000</v>
       </c>
-      <c r="R15" s="43"/>
+      <c r="R15" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S15" s="43"/>
       <c r="T15" s="39"/>
       <c r="U15" s="39"/>
@@ -6229,7 +6330,10 @@
         <f t="shared" si="0"/>
         <v>2471000</v>
       </c>
-      <c r="R16" s="40"/>
+      <c r="R16" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S16" s="40"/>
       <c r="T16" s="39"/>
       <c r="U16" s="39"/>
@@ -6266,7 +6370,10 @@
         <f t="shared" si="0"/>
         <v>2471000</v>
       </c>
-      <c r="R17" s="40"/>
+      <c r="R17" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S17" s="40"/>
       <c r="T17" s="39"/>
       <c r="U17" s="39"/>
@@ -6303,7 +6410,10 @@
         <f t="shared" si="0"/>
         <v>2544000</v>
       </c>
-      <c r="R18" s="40"/>
+      <c r="R18" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S18" s="40"/>
       <c r="T18" s="39"/>
       <c r="U18" s="39"/>
@@ -6340,7 +6450,10 @@
         <f t="shared" si="0"/>
         <v>2544000</v>
       </c>
-      <c r="R19" s="40"/>
+      <c r="R19" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S19" s="40"/>
       <c r="T19" s="39"/>
       <c r="U19" s="39"/>
@@ -6377,7 +6490,10 @@
         <f t="shared" si="0"/>
         <v>2617000</v>
       </c>
-      <c r="R20" s="40"/>
+      <c r="R20" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S20" s="40"/>
       <c r="T20" s="39"/>
       <c r="U20" s="39"/>
@@ -6414,7 +6530,10 @@
         <f t="shared" si="0"/>
         <v>2617000</v>
       </c>
-      <c r="R21" s="40"/>
+      <c r="R21" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S21" s="40"/>
       <c r="T21" s="39"/>
       <c r="U21" s="39"/>
@@ -6451,7 +6570,10 @@
         <f t="shared" si="0"/>
         <v>2617000</v>
       </c>
-      <c r="R22" s="40"/>
+      <c r="R22" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S22" s="40"/>
       <c r="T22" s="39"/>
       <c r="U22" s="39"/>
@@ -6488,7 +6610,10 @@
         <f t="shared" si="0"/>
         <v>2617000</v>
       </c>
-      <c r="R23" s="40"/>
+      <c r="R23" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S23" s="40"/>
       <c r="T23" s="39"/>
       <c r="U23" s="39"/>
@@ -6525,7 +6650,10 @@
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R24" s="40"/>
+      <c r="R24" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S24" s="40"/>
       <c r="T24" s="39"/>
       <c r="U24" s="39"/>
@@ -6550,7 +6678,10 @@
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R25" s="40"/>
+      <c r="R25" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S25" s="40"/>
       <c r="T25" s="39"/>
       <c r="U25" s="39"/>
@@ -6575,7 +6706,10 @@
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R26" s="40"/>
+      <c r="R26" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S26" s="40"/>
       <c r="T26" s="39"/>
       <c r="U26" s="39"/>
@@ -6600,7 +6734,10 @@
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R27" s="40"/>
+      <c r="R27" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S27" s="40"/>
       <c r="T27" s="39"/>
       <c r="U27" s="39"/>
@@ -6625,7 +6762,10 @@
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R28" s="40"/>
+      <c r="R28" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S28" s="40"/>
       <c r="T28" s="39"/>
       <c r="U28" s="39"/>
@@ -6650,7 +6790,10 @@
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R29" s="40"/>
+      <c r="R29" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S29" s="40"/>
       <c r="T29" s="39"/>
       <c r="U29" s="39"/>
@@ -6675,7 +6818,10 @@
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R30" s="40"/>
+      <c r="R30" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S30" s="40"/>
       <c r="T30" s="39"/>
       <c r="U30" s="39"/>
@@ -6700,7 +6846,10 @@
         <f t="shared" si="0"/>
         <v>2691000</v>
       </c>
-      <c r="R31" s="40"/>
+      <c r="R31" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S31" s="40"/>
       <c r="T31" s="39"/>
       <c r="U31" s="39"/>
@@ -6725,7 +6874,10 @@
         <f t="shared" si="0"/>
         <v>2764000</v>
       </c>
-      <c r="R32" s="40"/>
+      <c r="R32" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S32" s="40"/>
       <c r="T32" s="39"/>
       <c r="U32" s="39"/>
@@ -6750,7 +6902,10 @@
         <f t="shared" si="0"/>
         <v>2764000</v>
       </c>
-      <c r="R33" s="40"/>
+      <c r="R33" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S33" s="40"/>
       <c r="T33" s="39"/>
       <c r="U33" s="39"/>
@@ -6772,10 +6927,13 @@
         <v>27.64</v>
       </c>
       <c r="Q34" s="37">
-        <f t="shared" ref="Q34:Q65" si="1">P34*10^5</f>
+        <f t="shared" ref="Q34:Q65" si="2">P34*10^5</f>
         <v>2764000</v>
       </c>
-      <c r="R34" s="40"/>
+      <c r="R34" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="S34" s="40"/>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -6797,10 +6955,13 @@
         <v>27.64</v>
       </c>
       <c r="Q35" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R35" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
-      </c>
-      <c r="R35" s="39"/>
+        <v>13</v>
+      </c>
       <c r="S35" s="39"/>
       <c r="T35" s="39"/>
       <c r="U35" s="39"/>
@@ -6822,10 +6983,13 @@
         <v>27.64</v>
       </c>
       <c r="Q36" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R36" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
-      </c>
-      <c r="R36" s="39"/>
+        <v>13</v>
+      </c>
       <c r="S36" s="39"/>
       <c r="T36" s="39"/>
       <c r="U36" s="39"/>
@@ -6847,10 +7011,13 @@
         <v>27.64</v>
       </c>
       <c r="Q37" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R37" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
-      </c>
-      <c r="R37" s="39"/>
+        <v>13</v>
+      </c>
       <c r="S37" s="39"/>
       <c r="T37" s="39"/>
       <c r="U37" s="39"/>
@@ -6872,10 +7039,13 @@
         <v>27.64</v>
       </c>
       <c r="Q38" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R38" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
-      </c>
-      <c r="R38" s="39"/>
+        <v>13</v>
+      </c>
       <c r="S38" s="39"/>
       <c r="T38" s="39"/>
       <c r="U38" s="39"/>
@@ -6897,10 +7067,13 @@
         <v>27.64</v>
       </c>
       <c r="Q39" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R39" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
-      </c>
-      <c r="R39" s="39"/>
+        <v>13</v>
+      </c>
       <c r="S39" s="39"/>
       <c r="T39" s="39"/>
       <c r="U39" s="39"/>
@@ -6922,8 +7095,12 @@
         <v>27.64</v>
       </c>
       <c r="Q40" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R40" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="15:30" x14ac:dyDescent="0.45">
@@ -6934,8 +7111,12 @@
         <v>27.64</v>
       </c>
       <c r="Q41" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R41" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="15:30" x14ac:dyDescent="0.45">
@@ -6946,8 +7127,12 @@
         <v>27.64</v>
       </c>
       <c r="Q42" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R42" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="15:30" x14ac:dyDescent="0.45">
@@ -6958,8 +7143,12 @@
         <v>27.64</v>
       </c>
       <c r="Q43" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R43" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="15:30" x14ac:dyDescent="0.45">
@@ -6970,8 +7159,12 @@
         <v>27.64</v>
       </c>
       <c r="Q44" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R44" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="15:30" x14ac:dyDescent="0.45">
@@ -6982,8 +7175,12 @@
         <v>27.64</v>
       </c>
       <c r="Q45" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R45" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="15:30" x14ac:dyDescent="0.45">
@@ -6994,8 +7191,12 @@
         <v>27.64</v>
       </c>
       <c r="Q46" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R46" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="15:30" x14ac:dyDescent="0.45">
@@ -7006,8 +7207,12 @@
         <v>27.64</v>
       </c>
       <c r="Q47" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R47" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="15:30" x14ac:dyDescent="0.45">
@@ -7018,11 +7223,15 @@
         <v>27.64</v>
       </c>
       <c r="Q48" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R48" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
-      </c>
-    </row>
-    <row r="49" spans="15:17" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O49" s="38">
         <v>3.0190000000000001</v>
       </c>
@@ -7030,11 +7239,15 @@
         <v>27.64</v>
       </c>
       <c r="Q49" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R49" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
-      </c>
-    </row>
-    <row r="50" spans="15:17" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O50" s="38">
         <v>3.0840000000000001</v>
       </c>
@@ -7042,11 +7255,15 @@
         <v>27.64</v>
       </c>
       <c r="Q50" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R50" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
-      </c>
-    </row>
-    <row r="51" spans="15:17" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O51" s="38">
         <v>3.1480000000000001</v>
       </c>
@@ -7054,11 +7271,15 @@
         <v>27.64</v>
       </c>
       <c r="Q51" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R51" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
-      </c>
-    </row>
-    <row r="52" spans="15:17" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O52" s="38">
         <v>3.2130000000000001</v>
       </c>
@@ -7066,11 +7287,15 @@
         <v>27.64</v>
       </c>
       <c r="Q52" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R52" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
-      </c>
-    </row>
-    <row r="53" spans="15:17" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O53" s="38">
         <v>3.2760000000000002</v>
       </c>
@@ -7078,11 +7303,15 @@
         <v>27.64</v>
       </c>
       <c r="Q53" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R53" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
-      </c>
-    </row>
-    <row r="54" spans="15:17" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O54" s="38">
         <v>3.3410000000000002</v>
       </c>
@@ -7090,11 +7319,15 @@
         <v>27.64</v>
       </c>
       <c r="Q54" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R54" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
-      </c>
-    </row>
-    <row r="55" spans="15:17" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O55" s="38">
         <v>3.4050000000000002</v>
       </c>
@@ -7102,11 +7335,15 @@
         <v>27.64</v>
       </c>
       <c r="Q55" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R55" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
-      </c>
-    </row>
-    <row r="56" spans="15:17" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O56" s="38">
         <v>3.47</v>
       </c>
@@ -7114,11 +7351,15 @@
         <v>27.64</v>
       </c>
       <c r="Q56" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R56" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
-      </c>
-    </row>
-    <row r="57" spans="15:17" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O57" s="38">
         <v>3.5330000000000004</v>
       </c>
@@ -7126,11 +7367,15 @@
         <v>27.64</v>
       </c>
       <c r="Q57" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R57" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
-      </c>
-    </row>
-    <row r="58" spans="15:17" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O58" s="38">
         <v>3.5980000000000003</v>
       </c>
@@ -7138,11 +7383,15 @@
         <v>27.64</v>
       </c>
       <c r="Q58" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R58" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
-      </c>
-    </row>
-    <row r="59" spans="15:17" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O59" s="38">
         <v>3.6620000000000004</v>
       </c>
@@ -7150,11 +7399,15 @@
         <v>27.64</v>
       </c>
       <c r="Q59" s="37">
+        <f t="shared" si="2"/>
+        <v>2764000</v>
+      </c>
+      <c r="R59" s="12">
         <f t="shared" si="1"/>
-        <v>2764000</v>
-      </c>
-    </row>
-    <row r="60" spans="15:17" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O60" s="38">
         <v>3.7260000000000004</v>
       </c>
@@ -7162,11 +7415,15 @@
         <v>26.91</v>
       </c>
       <c r="Q60" s="37">
+        <f t="shared" si="2"/>
+        <v>2691000</v>
+      </c>
+      <c r="R60" s="12">
         <f t="shared" si="1"/>
-        <v>2691000</v>
-      </c>
-    </row>
-    <row r="61" spans="15:17" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O61" s="38">
         <v>3.7900000000000005</v>
       </c>
@@ -7174,11 +7431,15 @@
         <v>25.44</v>
       </c>
       <c r="Q61" s="37">
+        <f t="shared" si="2"/>
+        <v>2544000</v>
+      </c>
+      <c r="R61" s="12">
         <f t="shared" si="1"/>
-        <v>2544000</v>
-      </c>
-    </row>
-    <row r="62" spans="15:17" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O62" s="38">
         <v>3.8550000000000004</v>
       </c>
@@ -7186,11 +7447,15 @@
         <v>23.97</v>
       </c>
       <c r="Q62" s="37">
+        <f t="shared" si="2"/>
+        <v>2397000</v>
+      </c>
+      <c r="R62" s="12">
         <f t="shared" si="1"/>
-        <v>2397000</v>
-      </c>
-    </row>
-    <row r="63" spans="15:17" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O63" s="38">
         <v>3.9190000000000005</v>
       </c>
@@ -7198,11 +7463,15 @@
         <v>21.77</v>
       </c>
       <c r="Q63" s="37">
+        <f t="shared" si="2"/>
+        <v>2177000</v>
+      </c>
+      <c r="R63" s="12">
         <f t="shared" si="1"/>
-        <v>2177000</v>
-      </c>
-    </row>
-    <row r="64" spans="15:17" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O64" s="38">
         <v>3.9830000000000005</v>
       </c>
@@ -7210,11 +7479,15 @@
         <v>18.84</v>
       </c>
       <c r="Q64" s="37">
+        <f t="shared" si="2"/>
+        <v>1884000</v>
+      </c>
+      <c r="R64" s="12">
         <f t="shared" si="1"/>
-        <v>1884000</v>
-      </c>
-    </row>
-    <row r="65" spans="15:17" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O65" s="38">
         <v>4.0470000000000006</v>
       </c>
@@ -7222,11 +7495,15 @@
         <v>15.91</v>
       </c>
       <c r="Q65" s="37">
+        <f t="shared" si="2"/>
+        <v>1591000</v>
+      </c>
+      <c r="R65" s="12">
         <f t="shared" si="1"/>
-        <v>1591000</v>
-      </c>
-    </row>
-    <row r="66" spans="15:17" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O66" s="38">
         <v>4.112000000000001</v>
       </c>
@@ -7234,11 +7511,15 @@
         <v>14.44</v>
       </c>
       <c r="Q66" s="37">
-        <f t="shared" ref="Q66:Q81" si="2">P66*10^5</f>
+        <f t="shared" ref="Q66:Q81" si="3">P66*10^5</f>
         <v>1444000</v>
       </c>
-    </row>
-    <row r="67" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="R66" s="12">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O67" s="38">
         <v>4.1770000000000014</v>
       </c>
@@ -7246,11 +7527,15 @@
         <v>13.71</v>
       </c>
       <c r="Q67" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1371000</v>
       </c>
-    </row>
-    <row r="68" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="R67" s="12">
+        <f t="shared" ref="R67:R81" si="4">ROUNDUP((O68-O67)/$S$2,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O68" s="38">
         <v>4.2400000000000011</v>
       </c>
@@ -7258,11 +7543,15 @@
         <v>13.71</v>
       </c>
       <c r="Q68" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1371000</v>
       </c>
-    </row>
-    <row r="69" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="R68" s="12">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O69" s="38">
         <v>4.3050000000000015</v>
       </c>
@@ -7270,11 +7559,15 @@
         <v>12.24</v>
       </c>
       <c r="Q69" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1224000</v>
       </c>
-    </row>
-    <row r="70" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="R69" s="12">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O70" s="38">
         <v>4.3690000000000015</v>
       </c>
@@ -7282,11 +7575,15 @@
         <v>11.51</v>
       </c>
       <c r="Q70" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1151000</v>
       </c>
-    </row>
-    <row r="71" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="R70" s="12">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O71" s="38">
         <v>4.4340000000000019</v>
       </c>
@@ -7294,11 +7591,15 @@
         <v>10.78</v>
       </c>
       <c r="Q71" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1078000</v>
       </c>
-    </row>
-    <row r="72" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="R71" s="12">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O72" s="38">
         <v>4.4970000000000017</v>
       </c>
@@ -7306,11 +7607,15 @@
         <v>10.039999999999999</v>
       </c>
       <c r="Q72" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1003999.9999999999</v>
       </c>
-    </row>
-    <row r="73" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="R72" s="12">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O73" s="38">
         <v>4.5620000000000021</v>
       </c>
@@ -7318,11 +7623,15 @@
         <v>9.31</v>
       </c>
       <c r="Q73" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>931000</v>
       </c>
-    </row>
-    <row r="74" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="R73" s="12">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O74" s="38">
         <v>4.6260000000000021</v>
       </c>
@@ -7330,11 +7639,15 @@
         <v>8.58</v>
       </c>
       <c r="Q74" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>858000</v>
       </c>
-    </row>
-    <row r="75" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="R74" s="12">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O75" s="38">
         <v>4.6910000000000025</v>
       </c>
@@ -7342,11 +7655,15 @@
         <v>7.11</v>
       </c>
       <c r="Q75" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>711000</v>
       </c>
-    </row>
-    <row r="76" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="R75" s="12">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O76" s="38">
         <v>4.7540000000000022</v>
       </c>
@@ -7354,11 +7671,15 @@
         <v>5.65</v>
       </c>
       <c r="Q76" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>565000</v>
       </c>
-    </row>
-    <row r="77" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="R76" s="12">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O77" s="38">
         <v>4.8190000000000026</v>
       </c>
@@ -7366,11 +7687,15 @@
         <v>4.18</v>
       </c>
       <c r="Q77" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>418000</v>
       </c>
-    </row>
-    <row r="78" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="R77" s="12">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O78" s="38">
         <v>4.8830000000000027</v>
       </c>
@@ -7378,11 +7703,15 @@
         <v>2.71</v>
       </c>
       <c r="Q78" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>271000</v>
       </c>
-    </row>
-    <row r="79" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="R78" s="12">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O79" s="38">
         <v>4.9480000000000031</v>
       </c>
@@ -7390,11 +7719,15 @@
         <v>1.98</v>
       </c>
       <c r="Q79" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>198000</v>
       </c>
-    </row>
-    <row r="80" spans="15:17" x14ac:dyDescent="0.45">
+      <c r="R79" s="12">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="15:18" x14ac:dyDescent="0.45">
       <c r="O80" s="38">
         <v>5.0110000000000028</v>
       </c>
@@ -7402,8 +7735,12 @@
         <v>0.51</v>
       </c>
       <c r="Q80" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51000</v>
+      </c>
+      <c r="R80" s="12">
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="15:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -7414,7 +7751,7 @@
         <v>0.51</v>
       </c>
       <c r="Q81" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51000</v>
       </c>
     </row>
@@ -7435,37 +7772,33 @@
   <dimension ref="A1:AM35"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L26" sqref="L25:L26"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.46484375" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.796875" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
     <col min="14" max="14" width="6.1328125" customWidth="1"/>
     <col min="15" max="15" width="5.86328125" customWidth="1"/>
-    <col min="16" max="16" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.3984375" customWidth="1"/>
+    <col min="17" max="17" width="6.265625" customWidth="1"/>
+    <col min="18" max="18" width="6.46484375" customWidth="1"/>
+    <col min="19" max="19" width="8.796875" customWidth="1"/>
+    <col min="20" max="20" width="14.06640625" customWidth="1"/>
     <col min="21" max="21" width="13.06640625" customWidth="1"/>
     <col min="22" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="28.06640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.53125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="83.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.06640625" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" customWidth="1"/>
+    <col min="26" max="26" width="15.265625" customWidth="1"/>
+    <col min="27" max="27" width="14.59765625" customWidth="1"/>
+    <col min="28" max="28" width="28.53125" customWidth="1"/>
+    <col min="29" max="29" width="83.6640625" customWidth="1"/>
+    <col min="30" max="30" width="15" customWidth="1"/>
+    <col min="36" max="36" width="13.265625" customWidth="1"/>
     <col min="37" max="37" width="81.9296875" customWidth="1"/>
     <col min="41" max="41" width="9.1328125" customWidth="1"/>
   </cols>
@@ -7519,13 +7852,13 @@
       <c r="P1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="99" t="s">
+      <c r="Q1" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="99" t="s">
+      <c r="R1" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="99" t="s">
+      <c r="S1" s="98" t="s">
         <v>39</v>
       </c>
       <c r="AB1" s="8"/>
@@ -7540,34 +7873,34 @@
         <f>COUNTIF(B2:B82, "&lt;&gt;")</f>
         <v>8</v>
       </c>
-      <c r="B2" s="100">
+      <c r="B2" s="99">
         <v>1</v>
       </c>
-      <c r="C2" s="100">
+      <c r="C2" s="99">
         <f>0*10^-3</f>
         <v>0</v>
       </c>
-      <c r="D2" s="100">
+      <c r="D2" s="99">
         <f>0*10^-3</f>
         <v>0</v>
       </c>
-      <c r="E2" s="100">
+      <c r="E2" s="99">
         <f>2.5*10^-3</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F2" s="100">
+      <c r="F2" s="99">
         <v>1</v>
       </c>
-      <c r="G2" s="100">
+      <c r="G2" s="99">
         <v>0</v>
       </c>
-      <c r="H2" s="105">
+      <c r="H2" s="104">
         <v>2</v>
       </c>
-      <c r="I2" s="100">
+      <c r="I2" s="99">
         <v>0</v>
       </c>
-      <c r="J2" s="106">
+      <c r="J2" s="105">
         <f>3*10^6</f>
         <v>3000000</v>
       </c>
@@ -7577,15 +7910,15 @@
       <c r="L2" s="27">
         <v>1</v>
       </c>
-      <c r="M2" s="100">
+      <c r="M2" s="99">
         <f t="shared" ref="M2:M8" si="0">SQRT((D3-D2)^2+(C3-C2)^2)</f>
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="N2" s="100">
+      <c r="N2" s="99">
         <f>ROUNDUP($K$2*(M2/SUM($M$2:$M$8)),0)</f>
         <v>12</v>
       </c>
-      <c r="O2" s="100">
+      <c r="O2" s="99">
         <f>IF(N2=0,0,N2-1)</f>
         <v>11</v>
       </c>
@@ -7608,48 +7941,48 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
-      <c r="B3" s="100">
+      <c r="B3" s="99">
         <v>2</v>
       </c>
-      <c r="C3" s="100">
+      <c r="C3" s="99">
         <f>0*10^-3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="100">
+      <c r="D3" s="99">
         <f>49.4*10^-3</f>
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="E3" s="100">
+      <c r="E3" s="99">
         <f t="shared" ref="E3:E4" si="1">2.5*10^-3</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F3" s="100">
+      <c r="F3" s="99">
         <v>1</v>
       </c>
-      <c r="G3" s="100">
+      <c r="G3" s="99">
         <v>0</v>
       </c>
-      <c r="H3" s="105">
+      <c r="H3" s="104">
         <v>2</v>
       </c>
-      <c r="I3" s="100">
+      <c r="I3" s="99">
         <v>7</v>
       </c>
-      <c r="J3" s="106">
+      <c r="J3" s="105">
         <f t="shared" ref="J3:J4" si="2">3*10^6</f>
         <v>3000000</v>
       </c>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
-      <c r="M3" s="100">
+      <c r="M3" s="99">
         <f t="shared" si="0"/>
         <v>0.91363000000000005</v>
       </c>
-      <c r="N3" s="100">
+      <c r="N3" s="99">
         <f t="shared" ref="N3:N8" si="3">ROUNDUP($K$2*(M3/SUM($M$2:$M$8)),0)</f>
         <v>211</v>
       </c>
-      <c r="O3" s="100">
+      <c r="O3" s="99">
         <f t="shared" ref="O3:O8" si="4">IF(N3=0,0,N3-1)</f>
         <v>210</v>
       </c>
@@ -7669,48 +8002,48 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
-      <c r="B4" s="100">
+      <c r="B4" s="99">
         <v>3</v>
       </c>
-      <c r="C4" s="100">
+      <c r="C4" s="99">
         <f>913.63*10^-3</f>
         <v>0.91363000000000005</v>
       </c>
-      <c r="D4" s="100">
+      <c r="D4" s="99">
         <f>49.4*10^-3</f>
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="E4" s="100">
+      <c r="E4" s="99">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F4" s="100">
+      <c r="F4" s="99">
         <v>1</v>
       </c>
-      <c r="G4" s="100">
+      <c r="G4" s="99">
         <v>7</v>
       </c>
-      <c r="H4" s="105">
+      <c r="H4" s="104">
         <v>3</v>
       </c>
-      <c r="I4" s="100">
+      <c r="I4" s="99">
         <v>7</v>
       </c>
-      <c r="J4" s="106">
+      <c r="J4" s="105">
         <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
-      <c r="M4" s="100">
+      <c r="M4" s="99">
         <f t="shared" si="0"/>
         <v>6.4456538070237671E-2</v>
       </c>
-      <c r="N4" s="100">
+      <c r="N4" s="99">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="O4" s="100">
+      <c r="O4" s="99">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
@@ -7729,42 +8062,42 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
-      <c r="B5" s="100">
+      <c r="B5" s="99">
         <v>4</v>
       </c>
-      <c r="C5" s="100">
+      <c r="C5" s="99">
         <f>969.45*10^-3</f>
         <v>0.96945000000000003</v>
       </c>
-      <c r="D5" s="100">
+      <c r="D5" s="99">
         <f>17.17*10^-3</f>
         <v>1.7170000000000001E-2</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100">
+      <c r="E5" s="99"/>
+      <c r="F5" s="99">
         <v>1</v>
       </c>
-      <c r="G5" s="100">
+      <c r="G5" s="99">
         <v>7</v>
       </c>
-      <c r="H5" s="105">
+      <c r="H5" s="104">
         <v>3</v>
       </c>
-      <c r="I5" s="100">
+      <c r="I5" s="99">
         <v>7</v>
       </c>
-      <c r="J5" s="101"/>
+      <c r="J5" s="100"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
-      <c r="M5" s="100">
+      <c r="M5" s="99">
         <f t="shared" si="0"/>
         <v>2.3608896628178177E-3</v>
       </c>
-      <c r="N5" s="100">
+      <c r="N5" s="99">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O5" s="100">
+      <c r="O5" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7783,42 +8116,42 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
-      <c r="B6" s="100">
+      <c r="B6" s="99">
         <v>5</v>
       </c>
-      <c r="C6" s="100">
+      <c r="C6" s="99">
         <f>971.62*10^-3</f>
         <v>0.97162000000000004</v>
       </c>
-      <c r="D6" s="100">
+      <c r="D6" s="99">
         <f>16.24*10^-3</f>
         <v>1.6239999999999997E-2</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100">
+      <c r="E6" s="99"/>
+      <c r="F6" s="99">
         <v>1</v>
       </c>
-      <c r="G6" s="100">
+      <c r="G6" s="99">
         <v>7</v>
       </c>
-      <c r="H6" s="105">
+      <c r="H6" s="104">
         <v>3</v>
       </c>
-      <c r="I6" s="100">
+      <c r="I6" s="99">
         <v>7</v>
       </c>
-      <c r="J6" s="103"/>
+      <c r="J6" s="102"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
-      <c r="M6" s="100">
+      <c r="M6" s="99">
         <f t="shared" si="0"/>
         <v>2.1949259668607819E-3</v>
       </c>
-      <c r="N6" s="100">
+      <c r="N6" s="99">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O6" s="100">
+      <c r="O6" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7837,47 +8170,47 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
-      <c r="B7" s="100">
+      <c r="B7" s="99">
         <v>6</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="99">
         <f>973.78*10^-3</f>
         <v>0.97377999999999998</v>
       </c>
-      <c r="D7" s="100">
+      <c r="D7" s="99">
         <f>15.85*10^-3</f>
         <v>1.585E-2</v>
       </c>
-      <c r="E7" s="100">
+      <c r="E7" s="99">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F7" s="100">
+      <c r="F7" s="99">
         <v>1</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="99">
         <v>7</v>
       </c>
-      <c r="H7" s="105">
+      <c r="H7" s="104">
         <v>3</v>
       </c>
-      <c r="I7" s="100">
+      <c r="I7" s="99">
         <v>7</v>
       </c>
-      <c r="J7" s="101">
+      <c r="J7" s="100">
         <f>J2*0.965</f>
         <v>2895000</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
-      <c r="M7" s="100">
+      <c r="M7" s="99">
         <f t="shared" si="0"/>
         <v>2.1718655575335469E-3</v>
       </c>
-      <c r="N7" s="100">
+      <c r="N7" s="99">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O7" s="100">
+      <c r="O7" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7896,42 +8229,42 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
-      <c r="B8" s="107">
+      <c r="B8" s="106">
         <v>7</v>
       </c>
-      <c r="C8" s="107">
+      <c r="C8" s="106">
         <f>975.95*10^-3</f>
         <v>0.9759500000000001</v>
       </c>
-      <c r="D8" s="107">
+      <c r="D8" s="106">
         <f>15.94*10^-3</f>
         <v>1.5939999999999999E-2</v>
       </c>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107">
+      <c r="E8" s="106"/>
+      <c r="F8" s="106">
         <v>1</v>
       </c>
-      <c r="G8" s="107">
+      <c r="G8" s="106">
         <v>7</v>
       </c>
-      <c r="H8" s="108">
+      <c r="H8" s="107">
         <v>3</v>
       </c>
-      <c r="I8" s="109">
+      <c r="I8" s="108">
         <v>7</v>
       </c>
-      <c r="J8" s="103"/>
+      <c r="J8" s="102"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
-      <c r="M8" s="100">
+      <c r="M8" s="99">
         <f t="shared" si="0"/>
         <v>4.9828571121395729E-2</v>
       </c>
-      <c r="N8" s="100">
+      <c r="N8" s="99">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="O8" s="100">
+      <c r="O8" s="99">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
@@ -7950,37 +8283,37 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
-      <c r="B9" s="100">
+      <c r="B9" s="99">
         <v>8</v>
       </c>
-      <c r="C9" s="100">
+      <c r="C9" s="99">
         <f>1025.22*10^-3</f>
         <v>1.02522</v>
       </c>
-      <c r="D9" s="100">
+      <c r="D9" s="99">
         <f>23.38*10^-3</f>
         <v>2.3379999999999998E-2</v>
       </c>
-      <c r="E9" s="100">
+      <c r="E9" s="99">
         <v>1E-3</v>
       </c>
-      <c r="F9" s="100">
+      <c r="F9" s="99">
         <v>1</v>
       </c>
-      <c r="G9" s="100">
+      <c r="G9" s="99">
         <v>7</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="100">
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="99">
         <f>J2*0.0183</f>
         <v>54900</v>
       </c>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="122"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="121"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -7996,25 +8329,25 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
       <c r="M10" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="N10" s="100">
+      <c r="N10" s="99">
         <f>SUM(N2:N8)</f>
         <v>253</v>
       </c>
-      <c r="O10" s="104"/>
+      <c r="O10" s="103"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -8036,20 +8369,20 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -8071,20 +8404,20 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -8108,20 +8441,20 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -8145,20 +8478,20 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -8182,20 +8515,20 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -8219,20 +8552,20 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -8256,20 +8589,20 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -8293,20 +8626,20 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -8604,7 +8937,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="78"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -8762,549 +9095,549 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041D2246-0C07-4E96-B19F-4C022DA4E97A}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="17.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="80"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="80"/>
-      <c r="B2" s="114" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="80"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="80"/>
-      <c r="B4" s="117">
+      <c r="A4" s="79"/>
+      <c r="B4" s="116">
         <v>1</v>
       </c>
-      <c r="C4" s="110">
-        <v>1224.3781849006</v>
-      </c>
-      <c r="D4" s="82">
+      <c r="C4" s="109">
+        <v>1224.0574328008199</v>
+      </c>
+      <c r="D4" s="81">
         <v>1227.3</v>
       </c>
-      <c r="E4" s="120">
+      <c r="E4" s="119">
         <f>ABS((D4-C4)/D4)*100</f>
-        <v>0.23806853250223781</v>
-      </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
+        <v>0.26420330800782449</v>
+      </c>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
     </row>
     <row r="5" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="80"/>
-      <c r="B5" s="117">
+      <c r="A5" s="79"/>
+      <c r="B5" s="116">
         <f>1+B4</f>
         <v>2</v>
       </c>
-      <c r="C5" s="110">
-        <v>3655.85155330306</v>
-      </c>
-      <c r="D5" s="82">
+      <c r="C5" s="109">
+        <v>3655.0159955861</v>
+      </c>
+      <c r="D5" s="81">
         <v>3644.8</v>
       </c>
-      <c r="E5" s="120">
+      <c r="E5" s="119">
         <f t="shared" ref="E5:E23" si="0">ABS((D5-C5)/D5)*100</f>
-        <v>0.30321425875383534</v>
-      </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+        <v>0.28028960673013004</v>
+      </c>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="80"/>
-      <c r="B6" s="117">
+      <c r="A6" s="79"/>
+      <c r="B6" s="116">
         <f t="shared" ref="B6:B23" si="1">1+B5</f>
         <v>3</v>
       </c>
-      <c r="C6" s="110">
-        <v>6028.7785271016201</v>
-      </c>
-      <c r="D6" s="82">
+      <c r="C6" s="109">
+        <v>6027.8199448843798</v>
+      </c>
+      <c r="D6" s="81">
         <v>5917.3</v>
       </c>
-      <c r="E6" s="120">
+      <c r="E6" s="119">
         <f t="shared" si="0"/>
-        <v>1.8839424585811073</v>
-      </c>
-      <c r="F6" s="119" t="s">
+        <v>1.8677428030415828</v>
+      </c>
+      <c r="F6" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="80"/>
-      <c r="B7" s="117">
+      <c r="A7" s="79"/>
+      <c r="B7" s="116">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C7" s="110">
-        <v>8286.0217039463896</v>
-      </c>
-      <c r="D7" s="82">
+      <c r="C7" s="109">
+        <v>8285.5976243760197</v>
+      </c>
+      <c r="D7" s="81">
         <v>7856.4</v>
       </c>
-      <c r="E7" s="120">
+      <c r="E7" s="119">
         <f t="shared" si="0"/>
-        <v>5.4684296108445345</v>
-      </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
+        <v>5.4630317241487205</v>
+      </c>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="80"/>
-      <c r="B8" s="117">
+      <c r="A8" s="79"/>
+      <c r="B8" s="116">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C8" s="110">
-        <v>10362.528258185501</v>
-      </c>
-      <c r="D8" s="82">
+      <c r="C8" s="109">
+        <v>10363.2954785158</v>
+      </c>
+      <c r="D8" s="81">
         <v>9509.6</v>
       </c>
-      <c r="E8" s="120">
+      <c r="E8" s="119">
         <f t="shared" si="0"/>
-        <v>8.9691286508948895</v>
-      </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
+        <v>8.9771965015962767</v>
+      </c>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="80"/>
-      <c r="B9" s="117">
+      <c r="A9" s="79"/>
+      <c r="B9" s="116">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C9" s="110">
-        <v>12193.810813137699</v>
-      </c>
-      <c r="D9" s="82">
+      <c r="C9" s="109">
+        <v>12195.820932557001</v>
+      </c>
+      <c r="D9" s="81">
         <v>11189</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="119">
         <f t="shared" si="0"/>
-        <v>8.9803450990946416</v>
-      </c>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
+        <v>8.9983102382429223</v>
+      </c>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="80"/>
-      <c r="B10" s="117">
+      <c r="A10" s="79"/>
+      <c r="B10" s="116">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C10" s="110">
-        <v>13647.2234043383</v>
-      </c>
-      <c r="D10" s="82">
+      <c r="C10" s="109">
+        <v>13650.336630313601</v>
+      </c>
+      <c r="D10" s="81">
         <v>12727</v>
       </c>
-      <c r="E10" s="120">
+      <c r="E10" s="119">
         <f t="shared" si="0"/>
-        <v>7.2304816872656525</v>
-      </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
+        <v>7.254943272676992</v>
+      </c>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="80"/>
-      <c r="B11" s="117">
+      <c r="A11" s="79"/>
+      <c r="B11" s="116">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C11" s="110">
-        <v>14562.2417119494</v>
-      </c>
-      <c r="D11" s="82">
+      <c r="C11" s="109">
+        <v>14566.9533917804</v>
+      </c>
+      <c r="D11" s="81">
         <v>13983</v>
       </c>
-      <c r="E11" s="120">
+      <c r="E11" s="119">
         <f t="shared" si="0"/>
-        <v>4.1424709429264128</v>
-      </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
+        <v>4.1761667151569775</v>
+      </c>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
     </row>
     <row r="12" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="80"/>
-      <c r="B12" s="117">
+      <c r="A12" s="79"/>
+      <c r="B12" s="116">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C12" s="110">
-        <v>15076.205786431299</v>
-      </c>
-      <c r="D12" s="82">
+      <c r="C12" s="109">
+        <v>15080.0907367857</v>
+      </c>
+      <c r="D12" s="81">
         <v>14858</v>
       </c>
-      <c r="E12" s="120">
+      <c r="E12" s="119">
         <f t="shared" si="0"/>
-        <v>1.4686080658991736</v>
-      </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
+        <v>1.494755261715573</v>
+      </c>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="80"/>
-      <c r="B13" s="117">
+      <c r="A13" s="79"/>
+      <c r="B13" s="116">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C13" s="110">
-        <v>15443.810207861001</v>
-      </c>
-      <c r="D13" s="82">
+      <c r="C13" s="109">
+        <v>15445.555483161899</v>
+      </c>
+      <c r="D13" s="81">
         <v>15366</v>
       </c>
-      <c r="E13" s="120">
+      <c r="E13" s="119">
         <f t="shared" si="0"/>
-        <v>0.50637906977092861</v>
-      </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
+        <v>0.51773710244630511</v>
+      </c>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="80"/>
-      <c r="B14" s="117">
+      <c r="A14" s="79"/>
+      <c r="B14" s="116">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C14" s="110">
-        <v>15693.348227905801</v>
-      </c>
-      <c r="D14" s="82">
+      <c r="C14" s="109">
+        <v>15694.346313874399</v>
+      </c>
+      <c r="D14" s="81">
         <v>15654</v>
       </c>
-      <c r="E14" s="120">
+      <c r="E14" s="119">
         <f t="shared" si="0"/>
-        <v>0.25136213048294836</v>
-      </c>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
+        <v>0.25773804698095776</v>
+      </c>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="80"/>
-      <c r="B15" s="117">
+      <c r="A15" s="79"/>
+      <c r="B15" s="116">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C15" s="110">
-        <v>15854.9253236164</v>
-      </c>
-      <c r="D15" s="82">
+      <c r="C15" s="109">
+        <v>15855.7063918319</v>
+      </c>
+      <c r="D15" s="81">
         <v>15827</v>
       </c>
-      <c r="E15" s="120">
+      <c r="E15" s="119">
         <f t="shared" si="0"/>
-        <v>0.17644104136223174</v>
-      </c>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
+        <v>0.18137607779048437</v>
+      </c>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="80"/>
-      <c r="B16" s="117">
+      <c r="A16" s="79"/>
+      <c r="B16" s="116">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C16" s="110">
-        <v>15964.955679934799</v>
-      </c>
-      <c r="D16" s="82">
+      <c r="C16" s="109">
+        <v>15965.682478463001</v>
+      </c>
+      <c r="D16" s="81">
         <v>15941</v>
       </c>
-      <c r="E16" s="120">
+      <c r="E16" s="119">
         <f t="shared" si="0"/>
-        <v>0.150277146570474</v>
-      </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
+        <v>0.15483644980240094</v>
+      </c>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="80"/>
-      <c r="B17" s="117">
+      <c r="A17" s="79"/>
+      <c r="B17" s="116">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C17" s="110">
-        <v>16045.644487329</v>
-      </c>
-      <c r="D17" s="82">
+      <c r="C17" s="109">
+        <v>16046.3799479031</v>
+      </c>
+      <c r="D17" s="81">
         <v>16023</v>
       </c>
-      <c r="E17" s="120">
+      <c r="E17" s="119">
         <f t="shared" si="0"/>
-        <v>0.14132489127504327</v>
-      </c>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
+        <v>0.14591492169444173</v>
+      </c>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="80"/>
-      <c r="B18" s="117">
+      <c r="A18" s="79"/>
+      <c r="B18" s="116">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C18" s="110">
-        <v>16109.5809148392</v>
-      </c>
-      <c r="D18" s="82">
+      <c r="C18" s="109">
+        <v>16110.355167158999</v>
+      </c>
+      <c r="D18" s="81">
         <v>16086</v>
       </c>
-      <c r="E18" s="120">
+      <c r="E18" s="119">
         <f t="shared" si="0"/>
-        <v>0.1465927815441998</v>
-      </c>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
+        <v>0.15140598756060794</v>
+      </c>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="80"/>
-      <c r="B19" s="117">
+      <c r="A19" s="79"/>
+      <c r="B19" s="116">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C19" s="110">
-        <v>16164.2144662799</v>
-      </c>
-      <c r="D19" s="82">
+      <c r="C19" s="109">
+        <v>16165.046588368101</v>
+      </c>
+      <c r="D19" s="81">
         <v>16140</v>
       </c>
-      <c r="E19" s="120">
+      <c r="E19" s="119">
         <f t="shared" si="0"/>
-        <v>0.15002767211834001</v>
-      </c>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
+        <v>0.15518332322243406</v>
+      </c>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="80"/>
-      <c r="B20" s="117">
+      <c r="A20" s="79"/>
+      <c r="B20" s="116">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C20" s="110">
-        <v>16214.2507463889</v>
-      </c>
-      <c r="D20" s="82">
+      <c r="C20" s="109">
+        <v>16215.151657919199</v>
+      </c>
+      <c r="D20" s="81">
         <v>16188</v>
       </c>
-      <c r="E20" s="120">
+      <c r="E20" s="119">
         <f t="shared" si="0"/>
-        <v>0.162161764201258</v>
-      </c>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
+        <v>0.1677270689350096</v>
+      </c>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="80"/>
-      <c r="B21" s="117">
+      <c r="A21" s="79"/>
+      <c r="B21" s="116">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C21" s="110">
-        <v>16262.8626695603</v>
-      </c>
-      <c r="D21" s="82">
+      <c r="C21" s="109">
+        <v>16263.842733339199</v>
+      </c>
+      <c r="D21" s="81">
         <v>16235</v>
       </c>
-      <c r="E21" s="120">
+      <c r="E21" s="119">
         <f t="shared" si="0"/>
-        <v>0.1716210012953481</v>
-      </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
+        <v>0.17765773538157797</v>
+      </c>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="80"/>
-      <c r="B22" s="117">
+      <c r="A22" s="79"/>
+      <c r="B22" s="116">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C22" s="110">
-        <v>16312.330232571499</v>
-      </c>
-      <c r="D22" s="82">
+      <c r="C22" s="109">
+        <v>16313.3943960092</v>
+      </c>
+      <c r="D22" s="81">
         <v>16282</v>
       </c>
-      <c r="E22" s="120">
+      <c r="E22" s="119">
         <f t="shared" si="0"/>
-        <v>0.18628075526040683</v>
-      </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
+        <v>0.19281658278589936</v>
+      </c>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
     </row>
     <row r="23" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="80"/>
-      <c r="B23" s="118">
+      <c r="A23" s="79"/>
+      <c r="B23" s="117">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C23" s="111">
-        <v>16364.3885504804</v>
-      </c>
-      <c r="D23" s="83">
+      <c r="C23" s="110">
+        <v>16365.5438634494</v>
+      </c>
+      <c r="D23" s="82">
         <v>16332</v>
       </c>
-      <c r="E23" s="120">
+      <c r="E23" s="119">
         <f t="shared" si="0"/>
-        <v>0.19831343669115983</v>
-      </c>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
+        <v>0.20538735886235798</v>
+      </c>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="80"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="80"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="80"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/TESTE ATUALIZADO/Livro1.xlsx
+++ b/TESTE ATUALIZADO/Livro1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\Atualizado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\OneDrive - Universidade da Beira Interior\Universidade\4ºAno(23-24)\1º Semestre\Mecânica Estrutural\Projeto\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DD0772-FF88-43DD-AF11-D494763CF653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0760BF5-B9FC-491F-9CF2-2D5CEFB87C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="2" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="2" r:id="rId1"/>
@@ -285,13 +285,7 @@
     <t>Mesh Type</t>
   </si>
   <si>
-    <t>Total Elementos</t>
-  </si>
-  <si>
     <t>Modo</t>
-  </si>
-  <si>
-    <t>Em modos onde há choque de elementos ou valores de deformação elevados, há um aumento no erro</t>
   </si>
   <si>
     <t>Erro Relativo, %</t>
@@ -301,6 +295,12 @@
   </si>
   <si>
     <t>Delta_t [s]</t>
+  </si>
+  <si>
+    <t>Total Elements</t>
+  </si>
+  <si>
+    <t>In modes where there is collision of elements or high deformation values, there is an increase in the error</t>
   </si>
 </sst>
 </file>
@@ -997,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1239,6 +1239,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1266,6 +1320,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1284,49 +1341,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1334,33 +1348,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1383,7 +1370,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1448,7 +1435,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2066,7 +2053,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2104,7 +2091,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="518653535"/>
@@ -2186,7 +2173,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2224,7 +2211,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="41890671"/>
@@ -2272,7 +2259,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2286,7 +2273,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2502,7 +2489,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2537,7 +2524,7 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1681096207"/>
@@ -2624,7 +2611,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2661,7 +2648,7 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="38367088"/>
@@ -2709,7 +2696,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3877,8 +3864,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="43299367" y="851569"/>
-          <a:ext cx="5070689" cy="7292305"/>
+          <a:off x="41263398" y="868238"/>
+          <a:ext cx="4769460" cy="7389936"/>
           <a:chOff x="16846428" y="389059"/>
           <a:chExt cx="2086708" cy="2509107"/>
         </a:xfrm>
@@ -4875,7 +4862,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -5177,99 +5164,99 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="83.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" s="12"/>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
     </row>
-    <row r="3" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="45" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2" ht="45" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:2" ht="15" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
     </row>
-    <row r="19" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="15"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="15"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="12"/>
     </row>
   </sheetData>
@@ -5285,17 +5272,17 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.9296875" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" customWidth="1"/>
-    <col min="4" max="6" width="20.9296875" customWidth="1"/>
-    <col min="7" max="7" width="20.3984375" customWidth="1"/>
-    <col min="8" max="8" width="20.9296875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>34</v>
       </c>
@@ -5319,7 +5306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <f>COUNTIF(D1:BE1, "&lt;&gt;")</f>
         <v>5</v>
@@ -5343,7 +5330,7 @@
       </c>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C3" s="17" t="s">
         <v>41</v>
       </c>
@@ -5365,7 +5352,7 @@
       </c>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
         <v>12</v>
       </c>
@@ -5384,7 +5371,7 @@
       </c>
       <c r="I4" s="31"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="17" t="s">
         <v>42</v>
       </c>
@@ -5406,7 +5393,7 @@
       </c>
       <c r="I5" s="31"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C6" s="17" t="s">
         <v>43</v>
       </c>
@@ -5428,7 +5415,7 @@
       </c>
       <c r="I6" s="31"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" s="17" t="s">
         <v>44</v>
       </c>
@@ -5450,7 +5437,7 @@
       </c>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8" s="17" t="s">
         <v>45</v>
       </c>
@@ -5472,7 +5459,7 @@
       </c>
       <c r="I8" s="31"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C9" s="31"/>
       <c r="D9" s="9" t="s">
         <v>31</v>
@@ -5491,7 +5478,7 @@
       </c>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
@@ -5500,7 +5487,7 @@
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
@@ -5509,27 +5496,27 @@
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="83"/>
+      <c r="F12" s="101"/>
       <c r="G12" s="33"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="33"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
       <c r="E14" s="33"/>
@@ -5538,7 +5525,7 @@
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
@@ -5547,7 +5534,7 @@
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
@@ -5556,7 +5543,7 @@
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
@@ -5565,7 +5552,7 @@
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
@@ -5574,7 +5561,7 @@
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
@@ -5583,7 +5570,7 @@
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
@@ -5592,7 +5579,7 @@
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="3:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
@@ -5614,36 +5601,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BBD36B-8DEB-4362-8948-9CFC06A35BB2}">
   <dimension ref="A1:AD81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O81" sqref="O81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" customWidth="1"/>
-    <col min="3" max="3" width="3.9296875" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" customWidth="1"/>
-    <col min="7" max="8" width="10.73046875" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" customWidth="1"/>
-    <col min="10" max="10" width="10.73046875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="1.73046875" style="89" customWidth="1"/>
-    <col min="13" max="13" width="7.19921875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="0.88671875" style="107" customWidth="1"/>
+    <col min="13" max="13" width="7.21875" style="5" customWidth="1"/>
     <col min="14" max="14" width="8.6640625" customWidth="1"/>
     <col min="15" max="16" width="12.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.06640625" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.33203125" customWidth="1"/>
-    <col min="19" max="19" width="21.9296875" customWidth="1"/>
+    <col min="19" max="19" width="21.88671875" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="22.1328125" customWidth="1"/>
-    <col min="22" max="22" width="11.9296875" customWidth="1"/>
+    <col min="21" max="21" width="22.109375" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" customWidth="1"/>
     <col min="27" max="27" width="9" customWidth="1"/>
-    <col min="30" max="30" width="18.06640625" customWidth="1"/>
+    <col min="30" max="30" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5664,17 +5651,17 @@
       <c r="P1" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="122" t="s">
+      <c r="Q1" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="123" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" s="124" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="R1" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" s="100" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="65" t="s">
         <v>72</v>
       </c>
@@ -5682,12 +5669,12 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="104"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="M2" s="1">
@@ -5723,15 +5710,15 @@
       <c r="AC2" s="39"/>
       <c r="AD2" s="39"/>
     </row>
-    <row r="3" spans="1:30" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="91"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="69" t="s">
         <v>69</v>
       </c>
@@ -5779,7 +5766,7 @@
       <c r="AC3" s="39"/>
       <c r="AD3" s="39"/>
     </row>
-    <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="38">
         <v>1</v>
@@ -5830,7 +5817,7 @@
       <c r="AC4" s="44"/>
       <c r="AD4" s="44"/>
     </row>
-    <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="38">
@@ -5882,7 +5869,7 @@
       <c r="AC5" s="44"/>
       <c r="AD5" s="44"/>
     </row>
-    <row r="6" spans="1:30" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="38">
@@ -5930,7 +5917,7 @@
       <c r="AC6" s="44"/>
       <c r="AD6" s="39"/>
     </row>
-    <row r="7" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="36">
@@ -5976,7 +5963,7 @@
       <c r="AC7" s="39"/>
       <c r="AD7" s="39"/>
     </row>
-    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -6016,7 +6003,7 @@
       <c r="AC8" s="39"/>
       <c r="AD8" s="39"/>
     </row>
-    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -6056,7 +6043,7 @@
       <c r="AC9" s="39"/>
       <c r="AD9" s="39"/>
     </row>
-    <row r="10" spans="1:30" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -6095,13 +6082,13 @@
       <c r="AC10" s="39"/>
       <c r="AD10" s="39"/>
     </row>
-    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="88"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="47" t="s">
         <v>52</v>
       </c>
@@ -6139,7 +6126,7 @@
       <c r="AC11" s="39"/>
       <c r="AD11" s="39"/>
     </row>
-    <row r="12" spans="1:30" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="38" t="s">
@@ -6181,7 +6168,7 @@
       <c r="AC12" s="39"/>
       <c r="AD12" s="39"/>
     </row>
-    <row r="13" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="38" t="s">
@@ -6223,7 +6210,7 @@
       <c r="AC13" s="39"/>
       <c r="AD13" s="39"/>
     </row>
-    <row r="14" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="38" t="s">
@@ -6265,7 +6252,7 @@
       <c r="AC14" s="39"/>
       <c r="AD14" s="39"/>
     </row>
-    <row r="15" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="36" t="s">
@@ -6307,7 +6294,7 @@
       <c r="AC15" s="39"/>
       <c r="AD15" s="39"/>
     </row>
-    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6347,7 +6334,7 @@
       <c r="AC16" s="39"/>
       <c r="AD16" s="39"/>
     </row>
-    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -6387,7 +6374,7 @@
       <c r="AC17" s="39"/>
       <c r="AD17" s="39"/>
     </row>
-    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6427,7 +6414,7 @@
       <c r="AC18" s="39"/>
       <c r="AD18" s="39"/>
     </row>
-    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6467,7 +6454,7 @@
       <c r="AC19" s="39"/>
       <c r="AD19" s="39"/>
     </row>
-    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -6507,7 +6494,7 @@
       <c r="AC20" s="39"/>
       <c r="AD20" s="39"/>
     </row>
-    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -6547,7 +6534,7 @@
       <c r="AC21" s="39"/>
       <c r="AD21" s="39"/>
     </row>
-    <row r="22" spans="1:30" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -6587,7 +6574,7 @@
       <c r="AC22" s="43"/>
       <c r="AD22" s="39"/>
     </row>
-    <row r="23" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -6627,7 +6614,7 @@
       <c r="AC23" s="42"/>
       <c r="AD23" s="39"/>
     </row>
-    <row r="24" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -6667,7 +6654,7 @@
       <c r="AC24" s="42"/>
       <c r="AD24" s="39"/>
     </row>
-    <row r="25" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O25" s="38">
         <v>1.4769999999999996</v>
       </c>
@@ -6695,7 +6682,7 @@
       <c r="AC25" s="39"/>
       <c r="AD25" s="39"/>
     </row>
-    <row r="26" spans="1:30" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O26" s="38">
         <v>1.5419999999999996</v>
       </c>
@@ -6723,7 +6710,7 @@
       <c r="AC26" s="39"/>
       <c r="AD26" s="39"/>
     </row>
-    <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="O27" s="38">
         <v>1.6059999999999997</v>
       </c>
@@ -6751,7 +6738,7 @@
       <c r="AC27" s="39"/>
       <c r="AD27" s="39"/>
     </row>
-    <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="O28" s="38">
         <v>1.6709999999999996</v>
       </c>
@@ -6779,7 +6766,7 @@
       <c r="AC28" s="39"/>
       <c r="AD28" s="39"/>
     </row>
-    <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="O29" s="38">
         <v>1.7339999999999995</v>
       </c>
@@ -6807,7 +6794,7 @@
       <c r="AC29" s="39"/>
       <c r="AD29" s="39"/>
     </row>
-    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="O30" s="38">
         <v>1.7989999999999995</v>
       </c>
@@ -6835,7 +6822,7 @@
       <c r="AC30" s="39"/>
       <c r="AD30" s="39"/>
     </row>
-    <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="O31" s="38">
         <v>1.8629999999999995</v>
       </c>
@@ -6863,7 +6850,7 @@
       <c r="AC31" s="39"/>
       <c r="AD31" s="39"/>
     </row>
-    <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="O32" s="38">
         <v>1.9279999999999995</v>
       </c>
@@ -6891,7 +6878,7 @@
       <c r="AC32" s="39"/>
       <c r="AD32" s="39"/>
     </row>
-    <row r="33" spans="15:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="33" spans="15:30" ht="15" x14ac:dyDescent="0.3">
       <c r="O33" s="38">
         <v>1.9909999999999994</v>
       </c>
@@ -6919,7 +6906,7 @@
       <c r="AC33" s="39"/>
       <c r="AD33" s="39"/>
     </row>
-    <row r="34" spans="15:30" ht="15" x14ac:dyDescent="0.45">
+    <row r="34" spans="15:30" ht="15" x14ac:dyDescent="0.3">
       <c r="O34" s="38">
         <v>2.0559999999999996</v>
       </c>
@@ -6947,7 +6934,7 @@
       <c r="AC34" s="39"/>
       <c r="AD34" s="39"/>
     </row>
-    <row r="35" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="35" spans="15:30" x14ac:dyDescent="0.3">
       <c r="O35" s="38">
         <v>2.1199999999999997</v>
       </c>
@@ -6975,7 +6962,7 @@
       <c r="AC35" s="39"/>
       <c r="AD35" s="39"/>
     </row>
-    <row r="36" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="36" spans="15:30" x14ac:dyDescent="0.3">
       <c r="O36" s="38">
         <v>2.1849999999999996</v>
       </c>
@@ -7003,7 +6990,7 @@
       <c r="AC36" s="39"/>
       <c r="AD36" s="39"/>
     </row>
-    <row r="37" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="37" spans="15:30" x14ac:dyDescent="0.3">
       <c r="O37" s="38">
         <v>2.2479999999999998</v>
       </c>
@@ -7031,7 +7018,7 @@
       <c r="AC37" s="39"/>
       <c r="AD37" s="39"/>
     </row>
-    <row r="38" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="38" spans="15:30" x14ac:dyDescent="0.3">
       <c r="O38" s="38">
         <v>2.3129999999999997</v>
       </c>
@@ -7059,7 +7046,7 @@
       <c r="AC38" s="39"/>
       <c r="AD38" s="39"/>
     </row>
-    <row r="39" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="39" spans="15:30" x14ac:dyDescent="0.3">
       <c r="O39" s="38">
         <v>2.3769999999999998</v>
       </c>
@@ -7087,7 +7074,7 @@
       <c r="AC39" s="39"/>
       <c r="AD39" s="39"/>
     </row>
-    <row r="40" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="40" spans="15:30" x14ac:dyDescent="0.3">
       <c r="O40" s="38">
         <v>2.4419999999999997</v>
       </c>
@@ -7103,7 +7090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="41" spans="15:30" x14ac:dyDescent="0.3">
       <c r="O41" s="38">
         <v>2.5049999999999999</v>
       </c>
@@ -7119,7 +7106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="42" spans="15:30" x14ac:dyDescent="0.3">
       <c r="O42" s="38">
         <v>2.57</v>
       </c>
@@ -7135,7 +7122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="43" spans="15:30" x14ac:dyDescent="0.3">
       <c r="O43" s="38">
         <v>2.6339999999999999</v>
       </c>
@@ -7151,7 +7138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="44" spans="15:30" x14ac:dyDescent="0.3">
       <c r="O44" s="38">
         <v>2.6989999999999998</v>
       </c>
@@ -7167,7 +7154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="45" spans="15:30" x14ac:dyDescent="0.3">
       <c r="O45" s="38">
         <v>2.762</v>
       </c>
@@ -7183,7 +7170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="46" spans="15:30" x14ac:dyDescent="0.3">
       <c r="O46" s="38">
         <v>2.827</v>
       </c>
@@ -7199,7 +7186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="47" spans="15:30" x14ac:dyDescent="0.3">
       <c r="O47" s="38">
         <v>2.891</v>
       </c>
@@ -7215,7 +7202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="15:30" x14ac:dyDescent="0.45">
+    <row r="48" spans="15:30" x14ac:dyDescent="0.3">
       <c r="O48" s="38">
         <v>2.956</v>
       </c>
@@ -7231,7 +7218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O49" s="38">
         <v>3.0190000000000001</v>
       </c>
@@ -7247,7 +7234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O50" s="38">
         <v>3.0840000000000001</v>
       </c>
@@ -7263,7 +7250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O51" s="38">
         <v>3.1480000000000001</v>
       </c>
@@ -7279,7 +7266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O52" s="38">
         <v>3.2130000000000001</v>
       </c>
@@ -7295,7 +7282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O53" s="38">
         <v>3.2760000000000002</v>
       </c>
@@ -7311,7 +7298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O54" s="38">
         <v>3.3410000000000002</v>
       </c>
@@ -7327,7 +7314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O55" s="38">
         <v>3.4050000000000002</v>
       </c>
@@ -7343,7 +7330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O56" s="38">
         <v>3.47</v>
       </c>
@@ -7359,7 +7346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O57" s="38">
         <v>3.5330000000000004</v>
       </c>
@@ -7375,7 +7362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="58" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O58" s="38">
         <v>3.5980000000000003</v>
       </c>
@@ -7391,7 +7378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="59" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O59" s="38">
         <v>3.6620000000000004</v>
       </c>
@@ -7407,7 +7394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O60" s="38">
         <v>3.7260000000000004</v>
       </c>
@@ -7423,7 +7410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="61" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O61" s="38">
         <v>3.7900000000000005</v>
       </c>
@@ -7439,7 +7426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="62" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O62" s="38">
         <v>3.8550000000000004</v>
       </c>
@@ -7455,7 +7442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="63" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O63" s="38">
         <v>3.9190000000000005</v>
       </c>
@@ -7471,7 +7458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="64" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O64" s="38">
         <v>3.9830000000000005</v>
       </c>
@@ -7487,7 +7474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="65" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O65" s="38">
         <v>4.0470000000000006</v>
       </c>
@@ -7503,7 +7490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="66" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O66" s="38">
         <v>4.112000000000001</v>
       </c>
@@ -7519,7 +7506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="67" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O67" s="38">
         <v>4.1770000000000014</v>
       </c>
@@ -7531,11 +7518,11 @@
         <v>1371000</v>
       </c>
       <c r="R67" s="12">
-        <f t="shared" ref="R67:R81" si="4">ROUNDUP((O68-O67)/$S$2,0)</f>
+        <f t="shared" ref="R67:R80" si="4">ROUNDUP((O68-O67)/$S$2,0)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="68" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O68" s="38">
         <v>4.2400000000000011</v>
       </c>
@@ -7551,7 +7538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="69" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O69" s="38">
         <v>4.3050000000000015</v>
       </c>
@@ -7567,7 +7554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="70" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O70" s="38">
         <v>4.3690000000000015</v>
       </c>
@@ -7583,7 +7570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="71" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O71" s="38">
         <v>4.4340000000000019</v>
       </c>
@@ -7599,7 +7586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="72" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O72" s="38">
         <v>4.4970000000000017</v>
       </c>
@@ -7615,7 +7602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="73" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O73" s="38">
         <v>4.5620000000000021</v>
       </c>
@@ -7631,7 +7618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="74" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O74" s="38">
         <v>4.6260000000000021</v>
       </c>
@@ -7647,7 +7634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="75" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O75" s="38">
         <v>4.6910000000000025</v>
       </c>
@@ -7663,7 +7650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="76" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O76" s="38">
         <v>4.7540000000000022</v>
       </c>
@@ -7679,7 +7666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="77" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O77" s="38">
         <v>4.8190000000000026</v>
       </c>
@@ -7695,7 +7682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="78" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O78" s="38">
         <v>4.8830000000000027</v>
       </c>
@@ -7711,7 +7698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="79" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O79" s="38">
         <v>4.9480000000000031</v>
       </c>
@@ -7727,7 +7714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="80" spans="15:18" x14ac:dyDescent="0.3">
       <c r="O80" s="38">
         <v>5.0110000000000028</v>
       </c>
@@ -7743,7 +7730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="15:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="15:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O81" s="36">
         <v>5.0740000000000025</v>
       </c>
@@ -7771,39 +7758,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C8E3EE-99AB-4972-A73D-D1EFEBD6EA1A}">
   <dimension ref="A1:AM35"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.46484375" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="6" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.796875" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="6.1328125" customWidth="1"/>
-    <col min="15" max="15" width="5.86328125" customWidth="1"/>
-    <col min="16" max="16" width="13.3984375" customWidth="1"/>
-    <col min="17" max="17" width="6.265625" customWidth="1"/>
-    <col min="18" max="18" width="6.46484375" customWidth="1"/>
-    <col min="19" max="19" width="8.796875" customWidth="1"/>
-    <col min="20" max="20" width="14.06640625" customWidth="1"/>
-    <col min="21" max="21" width="13.06640625" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" customWidth="1"/>
+    <col min="17" max="17" width="6.21875" customWidth="1"/>
+    <col min="18" max="18" width="6.44140625" customWidth="1"/>
+    <col min="19" max="19" width="8.77734375" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" customWidth="1"/>
     <col min="22" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="28.06640625" customWidth="1"/>
+    <col min="24" max="24" width="28.109375" customWidth="1"/>
     <col min="25" max="25" width="15.33203125" customWidth="1"/>
-    <col min="26" max="26" width="15.265625" customWidth="1"/>
-    <col min="27" max="27" width="14.59765625" customWidth="1"/>
-    <col min="28" max="28" width="28.53125" customWidth="1"/>
+    <col min="26" max="26" width="15.21875" customWidth="1"/>
+    <col min="27" max="27" width="14.5546875" customWidth="1"/>
+    <col min="28" max="28" width="28.5546875" customWidth="1"/>
     <col min="29" max="29" width="83.6640625" customWidth="1"/>
     <col min="30" max="30" width="15" customWidth="1"/>
-    <col min="36" max="36" width="13.265625" customWidth="1"/>
-    <col min="37" max="37" width="81.9296875" customWidth="1"/>
-    <col min="41" max="41" width="9.1328125" customWidth="1"/>
+    <col min="36" max="36" width="13.21875" customWidth="1"/>
+    <col min="37" max="37" width="81.88671875" customWidth="1"/>
+    <col min="41" max="41" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
@@ -7852,13 +7841,13 @@
       <c r="P1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="98" t="s">
+      <c r="Q1" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="98" t="s">
+      <c r="R1" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="98" t="s">
+      <c r="S1" s="83" t="s">
         <v>39</v>
       </c>
       <c r="AB1" s="8"/>
@@ -7868,39 +7857,39 @@
       <c r="AI1" s="8"/>
       <c r="AL1" s="6"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <f>COUNTIF(B2:B82, "&lt;&gt;")</f>
         <v>8</v>
       </c>
-      <c r="B2" s="99">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="99">
+      <c r="C2" s="1">
         <f>0*10^-3</f>
         <v>0</v>
       </c>
-      <c r="D2" s="99">
+      <c r="D2" s="1">
         <f>0*10^-3</f>
         <v>0</v>
       </c>
-      <c r="E2" s="99">
+      <c r="E2" s="1">
         <f>2.5*10^-3</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F2" s="99">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="99">
+      <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="104">
+      <c r="H2" s="85">
         <v>2</v>
       </c>
-      <c r="I2" s="99">
+      <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="105">
+      <c r="J2" s="86">
         <f>3*10^6</f>
         <v>3000000</v>
       </c>
@@ -7910,15 +7899,15 @@
       <c r="L2" s="27">
         <v>1</v>
       </c>
-      <c r="M2" s="99">
+      <c r="M2" s="1">
         <f t="shared" ref="M2:M8" si="0">SQRT((D3-D2)^2+(C3-C2)^2)</f>
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="N2" s="99">
+      <c r="N2" s="1">
         <f>ROUNDUP($K$2*(M2/SUM($M$2:$M$8)),0)</f>
         <v>12</v>
       </c>
-      <c r="O2" s="99">
+      <c r="O2" s="1">
         <f>IF(N2=0,0,N2-1)</f>
         <v>11</v>
       </c>
@@ -7939,50 +7928,50 @@
       <c r="AI2" s="5"/>
       <c r="AL2" s="7"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="99">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="99">
+      <c r="C3" s="1">
         <f>0*10^-3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="99">
+      <c r="D3" s="1">
         <f>49.4*10^-3</f>
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="E3" s="99">
+      <c r="E3" s="1">
         <f t="shared" ref="E3:E4" si="1">2.5*10^-3</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F3" s="99">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="99">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="104">
+      <c r="H3" s="85">
         <v>2</v>
       </c>
-      <c r="I3" s="99">
+      <c r="I3" s="1">
         <v>7</v>
       </c>
-      <c r="J3" s="105">
+      <c r="J3" s="86">
         <f t="shared" ref="J3:J4" si="2">3*10^6</f>
         <v>3000000</v>
       </c>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
-      <c r="M3" s="99">
+      <c r="M3" s="1">
         <f t="shared" si="0"/>
         <v>0.91363000000000005</v>
       </c>
-      <c r="N3" s="99">
+      <c r="N3" s="1">
         <f t="shared" ref="N3:N8" si="3">ROUNDUP($K$2*(M3/SUM($M$2:$M$8)),0)</f>
         <v>211</v>
       </c>
-      <c r="O3" s="99">
+      <c r="O3" s="1">
         <f t="shared" ref="O3:O8" si="4">IF(N3=0,0,N3-1)</f>
         <v>210</v>
       </c>
@@ -8000,50 +7989,50 @@
       <c r="AI3" s="5"/>
       <c r="AL3" s="7"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="99">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="99">
+      <c r="C4" s="1">
         <f>913.63*10^-3</f>
         <v>0.91363000000000005</v>
       </c>
-      <c r="D4" s="99">
+      <c r="D4" s="1">
         <f>49.4*10^-3</f>
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="E4" s="99">
+      <c r="E4" s="1">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F4" s="99">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="99">
+      <c r="G4" s="1">
         <v>7</v>
       </c>
-      <c r="H4" s="104">
+      <c r="H4" s="85">
         <v>3</v>
       </c>
-      <c r="I4" s="99">
+      <c r="I4" s="1">
         <v>7</v>
       </c>
-      <c r="J4" s="105">
+      <c r="J4" s="86">
         <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
-      <c r="M4" s="99">
+      <c r="M4" s="1">
         <f t="shared" si="0"/>
         <v>6.4456538070237671E-2</v>
       </c>
-      <c r="N4" s="99">
+      <c r="N4" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="O4" s="99">
+      <c r="O4" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
@@ -8060,44 +8049,44 @@
       <c r="AI4" s="5"/>
       <c r="AL4" s="7"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="99">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="99">
+      <c r="C5" s="1">
         <f>969.45*10^-3</f>
         <v>0.96945000000000003</v>
       </c>
-      <c r="D5" s="99">
+      <c r="D5" s="1">
         <f>17.17*10^-3</f>
         <v>1.7170000000000001E-2</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="99">
+      <c r="G5" s="1">
         <v>7</v>
       </c>
-      <c r="H5" s="104">
+      <c r="H5" s="85">
         <v>3</v>
       </c>
-      <c r="I5" s="99">
+      <c r="I5" s="1">
         <v>7</v>
       </c>
-      <c r="J5" s="100"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
-      <c r="M5" s="99">
+      <c r="M5" s="1">
         <f t="shared" si="0"/>
         <v>2.3608896628178177E-3</v>
       </c>
-      <c r="N5" s="99">
+      <c r="N5" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O5" s="99">
+      <c r="O5" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8114,44 +8103,43 @@
       <c r="AI5" s="5"/>
       <c r="AL5" s="7"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="99">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="99">
+      <c r="C6" s="1">
         <f>971.62*10^-3</f>
         <v>0.97162000000000004</v>
       </c>
-      <c r="D6" s="99">
+      <c r="D6" s="1">
         <f>16.24*10^-3</f>
         <v>1.6239999999999997E-2</v>
       </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="99">
+      <c r="G6" s="1">
         <v>7</v>
       </c>
-      <c r="H6" s="104">
+      <c r="H6" s="85">
         <v>3</v>
       </c>
-      <c r="I6" s="99">
+      <c r="I6" s="1">
         <v>7</v>
       </c>
-      <c r="J6" s="102"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
-      <c r="M6" s="99">
+      <c r="M6" s="1">
         <f t="shared" si="0"/>
         <v>2.1949259668607819E-3</v>
       </c>
-      <c r="N6" s="99">
+      <c r="N6" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O6" s="99">
+      <c r="O6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8168,49 +8156,49 @@
       <c r="AI6" s="5"/>
       <c r="AL6" s="7"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="99">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="99">
+      <c r="C7" s="1">
         <f>973.78*10^-3</f>
         <v>0.97377999999999998</v>
       </c>
-      <c r="D7" s="99">
+      <c r="D7" s="1">
         <f>15.85*10^-3</f>
         <v>1.585E-2</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F7" s="99">
+      <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="99">
+      <c r="G7" s="1">
         <v>7</v>
       </c>
-      <c r="H7" s="104">
+      <c r="H7" s="85">
         <v>3</v>
       </c>
-      <c r="I7" s="99">
+      <c r="I7" s="1">
         <v>7</v>
       </c>
-      <c r="J7" s="100">
+      <c r="J7" s="84">
         <f>J2*0.965</f>
         <v>2895000</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
-      <c r="M7" s="99">
+      <c r="M7" s="1">
         <f t="shared" si="0"/>
         <v>2.1718655575335469E-3</v>
       </c>
-      <c r="N7" s="99">
+      <c r="N7" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O7" s="99">
+      <c r="O7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8227,44 +8215,43 @@
       <c r="AI7" s="5"/>
       <c r="AL7" s="7"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="106">
+      <c r="B8" s="27">
         <v>7</v>
       </c>
-      <c r="C8" s="106">
+      <c r="C8" s="27">
         <f>975.95*10^-3</f>
         <v>0.9759500000000001</v>
       </c>
-      <c r="D8" s="106">
+      <c r="D8" s="27">
         <f>15.94*10^-3</f>
         <v>1.5939999999999999E-2</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27">
         <v>1</v>
       </c>
-      <c r="G8" s="106">
+      <c r="G8" s="27">
         <v>7</v>
       </c>
-      <c r="H8" s="107">
+      <c r="H8" s="87">
         <v>3</v>
       </c>
-      <c r="I8" s="108">
+      <c r="I8" s="88">
         <v>7</v>
       </c>
-      <c r="J8" s="102"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
-      <c r="M8" s="99">
+      <c r="M8" s="1">
         <f t="shared" si="0"/>
         <v>4.9828571121395729E-2</v>
       </c>
-      <c r="N8" s="99">
+      <c r="N8" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="O8" s="99">
+      <c r="O8" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
@@ -8281,39 +8268,39 @@
       <c r="AI8" s="5"/>
       <c r="AL8" s="7"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="99">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C9" s="1">
         <f>1025.22*10^-3</f>
         <v>1.02522</v>
       </c>
-      <c r="D9" s="99">
+      <c r="D9" s="1">
         <f>23.38*10^-3</f>
         <v>2.3379999999999998E-2</v>
       </c>
-      <c r="E9" s="99">
+      <c r="E9" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F9" s="99">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="99">
+      <c r="G9" s="1">
         <v>7</v>
       </c>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="99">
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="1">
         <f>J2*0.0183</f>
         <v>54900</v>
       </c>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="121"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="97"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -8327,27 +8314,27 @@
       <c r="AI9" s="5"/>
       <c r="AL9" s="7"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" s="99">
+        <v>85</v>
+      </c>
+      <c r="N10" s="1">
         <f>SUM(N2:N8)</f>
         <v>253</v>
       </c>
-      <c r="O10" s="103"/>
+      <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -8367,22 +8354,22 @@
       <c r="AI10" s="5"/>
       <c r="AL10" s="7"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -8402,22 +8389,22 @@
       <c r="AI11" s="5"/>
       <c r="AL11" s="7"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -8439,22 +8426,22 @@
       <c r="AI12" s="5"/>
       <c r="AL12" s="7"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -8476,22 +8463,22 @@
       <c r="AI13" s="5"/>
       <c r="AL13" s="7"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -8513,22 +8500,22 @@
       <c r="AI14" s="5"/>
       <c r="AL14" s="7"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -8550,22 +8537,22 @@
       <c r="AI15" s="5"/>
       <c r="AL15" s="7"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -8587,22 +8574,22 @@
       <c r="AI16" s="5"/>
       <c r="AL16" s="7"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -8624,22 +8611,21 @@
       <c r="AI17" s="5"/>
       <c r="AL17" s="7"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -8661,7 +8647,7 @@
       <c r="AI18" s="5"/>
       <c r="AL18" s="7"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -8698,7 +8684,7 @@
       <c r="AI19" s="5"/>
       <c r="AL19" s="7"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8737,7 +8723,7 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8776,7 +8762,7 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -8798,7 +8784,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -8820,7 +8806,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -8842,7 +8828,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -8864,7 +8850,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -8886,7 +8872,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -8908,7 +8894,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -8930,7 +8916,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -8952,7 +8938,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -8974,7 +8960,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -8996,7 +8982,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -9018,7 +9004,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -9040,7 +9026,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -9062,7 +9048,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -9096,15 +9082,15 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="17.46484375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="79"/>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -9116,33 +9102,33 @@
       <c r="I1" s="79"/>
       <c r="J1" s="79"/>
     </row>
-    <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="79"/>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="80"/>
       <c r="G2" s="80"/>
       <c r="H2" s="79"/>
       <c r="I2" s="79"/>
       <c r="J2" s="79"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="92" t="s">
         <v>82</v>
-      </c>
-      <c r="C3" s="111" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="112" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="112" t="s">
-        <v>84</v>
       </c>
       <c r="F3" s="80"/>
       <c r="G3" s="80"/>
@@ -9150,18 +9136,18 @@
       <c r="I3" s="79"/>
       <c r="J3" s="79"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
-      <c r="B4" s="116">
+      <c r="B4" s="93">
         <v>1</v>
       </c>
-      <c r="C4" s="109">
+      <c r="C4" s="89">
         <v>1224.0574328008199</v>
       </c>
       <c r="D4" s="81">
         <v>1227.3</v>
       </c>
-      <c r="E4" s="119">
+      <c r="E4" s="95">
         <f>ABS((D4-C4)/D4)*100</f>
         <v>0.26420330800782449</v>
       </c>
@@ -9171,19 +9157,19 @@
       <c r="I4" s="79"/>
       <c r="J4" s="79"/>
     </row>
-    <row r="5" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="79"/>
-      <c r="B5" s="116">
+      <c r="B5" s="93">
         <f>1+B4</f>
         <v>2</v>
       </c>
-      <c r="C5" s="109">
+      <c r="C5" s="89">
         <v>3655.0159955861</v>
       </c>
       <c r="D5" s="81">
         <v>3644.8</v>
       </c>
-      <c r="E5" s="119">
+      <c r="E5" s="95">
         <f t="shared" ref="E5:E23" si="0">ABS((D5-C5)/D5)*100</f>
         <v>0.28028960673013004</v>
       </c>
@@ -9193,175 +9179,175 @@
       <c r="I5" s="79"/>
       <c r="J5" s="79"/>
     </row>
-    <row r="6" spans="1:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="79"/>
-      <c r="B6" s="116">
+      <c r="B6" s="93">
         <f t="shared" ref="B6:B23" si="1">1+B5</f>
         <v>3</v>
       </c>
-      <c r="C6" s="109">
+      <c r="C6" s="89">
         <v>6027.8199448843798</v>
       </c>
       <c r="D6" s="81">
         <v>5917.3</v>
       </c>
-      <c r="E6" s="119">
+      <c r="E6" s="95">
         <f t="shared" si="0"/>
         <v>1.8677428030415828</v>
       </c>
-      <c r="F6" s="118" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="92"/>
-      <c r="H6" s="93"/>
+      <c r="F6" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="111"/>
+      <c r="H6" s="112"/>
       <c r="I6" s="79"/>
       <c r="J6" s="79"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="79"/>
-      <c r="B7" s="116">
+      <c r="B7" s="93">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C7" s="109">
+      <c r="C7" s="89">
         <v>8285.5976243760197</v>
       </c>
       <c r="D7" s="81">
         <v>7856.4</v>
       </c>
-      <c r="E7" s="119">
+      <c r="E7" s="95">
         <f t="shared" si="0"/>
         <v>5.4630317241487205</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="95"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="114"/>
       <c r="I7" s="79"/>
       <c r="J7" s="79"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
-      <c r="B8" s="116">
+      <c r="B8" s="93">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C8" s="109">
+      <c r="C8" s="89">
         <v>10363.2954785158</v>
       </c>
       <c r="D8" s="81">
         <v>9509.6</v>
       </c>
-      <c r="E8" s="119">
+      <c r="E8" s="95">
         <f t="shared" si="0"/>
         <v>8.9771965015962767</v>
       </c>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="95"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="114"/>
       <c r="I8" s="79"/>
       <c r="J8" s="79"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
-      <c r="B9" s="116">
+      <c r="B9" s="93">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C9" s="109">
+      <c r="C9" s="89">
         <v>12195.820932557001</v>
       </c>
       <c r="D9" s="81">
         <v>11189</v>
       </c>
-      <c r="E9" s="119">
+      <c r="E9" s="95">
         <f t="shared" si="0"/>
         <v>8.9983102382429223</v>
       </c>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="95"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="114"/>
       <c r="I9" s="79"/>
       <c r="J9" s="79"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
-      <c r="B10" s="116">
+      <c r="B10" s="93">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C10" s="109">
+      <c r="C10" s="89">
         <v>13650.336630313601</v>
       </c>
       <c r="D10" s="81">
         <v>12727</v>
       </c>
-      <c r="E10" s="119">
+      <c r="E10" s="95">
         <f t="shared" si="0"/>
         <v>7.254943272676992</v>
       </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
       <c r="I10" s="79"/>
       <c r="J10" s="79"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="79"/>
-      <c r="B11" s="116">
+      <c r="B11" s="93">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C11" s="109">
+      <c r="C11" s="89">
         <v>14566.9533917804</v>
       </c>
       <c r="D11" s="81">
         <v>13983</v>
       </c>
-      <c r="E11" s="119">
+      <c r="E11" s="95">
         <f t="shared" si="0"/>
         <v>4.1761667151569775</v>
       </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="95"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="114"/>
       <c r="I11" s="79"/>
       <c r="J11" s="79"/>
     </row>
-    <row r="12" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="79"/>
-      <c r="B12" s="116">
+      <c r="B12" s="93">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C12" s="109">
+      <c r="C12" s="89">
         <v>15080.0907367857</v>
       </c>
       <c r="D12" s="81">
         <v>14858</v>
       </c>
-      <c r="E12" s="119">
+      <c r="E12" s="95">
         <f t="shared" si="0"/>
         <v>1.494755261715573</v>
       </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="116"/>
       <c r="I12" s="79"/>
       <c r="J12" s="79"/>
     </row>
-    <row r="13" spans="1:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
-      <c r="B13" s="116">
+      <c r="B13" s="93">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C13" s="109">
+      <c r="C13" s="89">
         <v>15445.555483161899</v>
       </c>
       <c r="D13" s="81">
         <v>15366</v>
       </c>
-      <c r="E13" s="119">
+      <c r="E13" s="95">
         <f t="shared" si="0"/>
         <v>0.51773710244630511</v>
       </c>
@@ -9371,19 +9357,19 @@
       <c r="I13" s="79"/>
       <c r="J13" s="79"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
-      <c r="B14" s="116">
+      <c r="B14" s="93">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C14" s="109">
+      <c r="C14" s="89">
         <v>15694.346313874399</v>
       </c>
       <c r="D14" s="81">
         <v>15654</v>
       </c>
-      <c r="E14" s="119">
+      <c r="E14" s="95">
         <f t="shared" si="0"/>
         <v>0.25773804698095776</v>
       </c>
@@ -9393,19 +9379,19 @@
       <c r="I14" s="79"/>
       <c r="J14" s="79"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
-      <c r="B15" s="116">
+      <c r="B15" s="93">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C15" s="109">
+      <c r="C15" s="89">
         <v>15855.7063918319</v>
       </c>
       <c r="D15" s="81">
         <v>15827</v>
       </c>
-      <c r="E15" s="119">
+      <c r="E15" s="95">
         <f t="shared" si="0"/>
         <v>0.18137607779048437</v>
       </c>
@@ -9415,19 +9401,19 @@
       <c r="I15" s="79"/>
       <c r="J15" s="79"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="79"/>
-      <c r="B16" s="116">
+      <c r="B16" s="93">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C16" s="109">
+      <c r="C16" s="89">
         <v>15965.682478463001</v>
       </c>
       <c r="D16" s="81">
         <v>15941</v>
       </c>
-      <c r="E16" s="119">
+      <c r="E16" s="95">
         <f t="shared" si="0"/>
         <v>0.15483644980240094</v>
       </c>
@@ -9437,19 +9423,19 @@
       <c r="I16" s="79"/>
       <c r="J16" s="79"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="79"/>
-      <c r="B17" s="116">
+      <c r="B17" s="93">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C17" s="109">
+      <c r="C17" s="89">
         <v>16046.3799479031</v>
       </c>
       <c r="D17" s="81">
         <v>16023</v>
       </c>
-      <c r="E17" s="119">
+      <c r="E17" s="95">
         <f t="shared" si="0"/>
         <v>0.14591492169444173</v>
       </c>
@@ -9459,19 +9445,19 @@
       <c r="I17" s="79"/>
       <c r="J17" s="79"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="79"/>
-      <c r="B18" s="116">
+      <c r="B18" s="93">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C18" s="109">
+      <c r="C18" s="89">
         <v>16110.355167158999</v>
       </c>
       <c r="D18" s="81">
         <v>16086</v>
       </c>
-      <c r="E18" s="119">
+      <c r="E18" s="95">
         <f t="shared" si="0"/>
         <v>0.15140598756060794</v>
       </c>
@@ -9481,19 +9467,19 @@
       <c r="I18" s="79"/>
       <c r="J18" s="79"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
-      <c r="B19" s="116">
+      <c r="B19" s="93">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C19" s="109">
+      <c r="C19" s="89">
         <v>16165.046588368101</v>
       </c>
       <c r="D19" s="81">
         <v>16140</v>
       </c>
-      <c r="E19" s="119">
+      <c r="E19" s="95">
         <f t="shared" si="0"/>
         <v>0.15518332322243406</v>
       </c>
@@ -9503,19 +9489,19 @@
       <c r="I19" s="79"/>
       <c r="J19" s="79"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="79"/>
-      <c r="B20" s="116">
+      <c r="B20" s="93">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C20" s="109">
+      <c r="C20" s="89">
         <v>16215.151657919199</v>
       </c>
       <c r="D20" s="81">
         <v>16188</v>
       </c>
-      <c r="E20" s="119">
+      <c r="E20" s="95">
         <f t="shared" si="0"/>
         <v>0.1677270689350096</v>
       </c>
@@ -9525,19 +9511,19 @@
       <c r="I20" s="79"/>
       <c r="J20" s="79"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="79"/>
-      <c r="B21" s="116">
+      <c r="B21" s="93">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C21" s="109">
+      <c r="C21" s="89">
         <v>16263.842733339199</v>
       </c>
       <c r="D21" s="81">
         <v>16235</v>
       </c>
-      <c r="E21" s="119">
+      <c r="E21" s="95">
         <f t="shared" si="0"/>
         <v>0.17765773538157797</v>
       </c>
@@ -9547,19 +9533,19 @@
       <c r="I21" s="79"/>
       <c r="J21" s="79"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="79"/>
-      <c r="B22" s="116">
+      <c r="B22" s="93">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C22" s="109">
+      <c r="C22" s="89">
         <v>16313.3943960092</v>
       </c>
       <c r="D22" s="81">
         <v>16282</v>
       </c>
-      <c r="E22" s="119">
+      <c r="E22" s="95">
         <f t="shared" si="0"/>
         <v>0.19281658278589936</v>
       </c>
@@ -9569,19 +9555,19 @@
       <c r="I22" s="79"/>
       <c r="J22" s="79"/>
     </row>
-    <row r="23" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="79"/>
-      <c r="B23" s="117">
+      <c r="B23" s="94">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C23" s="110">
+      <c r="C23" s="90">
         <v>16365.5438634494</v>
       </c>
       <c r="D23" s="82">
         <v>16332</v>
       </c>
-      <c r="E23" s="119">
+      <c r="E23" s="95">
         <f t="shared" si="0"/>
         <v>0.20538735886235798</v>
       </c>
@@ -9591,7 +9577,7 @@
       <c r="I23" s="79"/>
       <c r="J23" s="79"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="79"/>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
@@ -9603,7 +9589,7 @@
       <c r="I24" s="79"/>
       <c r="J24" s="79"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="79"/>
       <c r="B25" s="80"/>
       <c r="C25" s="80"/>
@@ -9615,7 +9601,7 @@
       <c r="I25" s="79"/>
       <c r="J25" s="79"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="79"/>
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
@@ -9627,7 +9613,7 @@
       <c r="I26" s="79"/>
       <c r="J26" s="79"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="79"/>
       <c r="B27" s="79"/>
       <c r="C27" s="79"/>
